--- a/Stories.Data.InitialData/ExcelFiles/StoriesData.xlsx
+++ b/Stories.Data.InitialData/ExcelFiles/StoriesData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ac37f3a918de7f12/Documents/git/StoriesOne/Stories.Data.InitialData/ExcelFiles/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="11_29DB18B4B96C62911FE2D2B01B822D22D34F8BD5" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D0392E90-BA40-4B01-9304-0EEAC3DBDE01}"/>
+  <xr:revisionPtr revIDLastSave="82" documentId="11_29DB18B4B96C62911FE2D2B01B822D22D34F8BD5" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A0AFA6FC-CF46-4675-B7B2-67F58F46819E}"/>
   <bookViews>
-    <workbookView xWindow="-93" yWindow="-93" windowWidth="18426" windowHeight="11746" tabRatio="752" firstSheet="1" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-93" yWindow="-93" windowWidth="18426" windowHeight="11746" tabRatio="752" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Addresses" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5510" uniqueCount="3248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6410" uniqueCount="3743">
   <si>
     <t>Id</t>
   </si>
@@ -9785,13 +9785,1498 @@
   </si>
   <si>
     <t>f61de7fa-df6e-4df0-9a50-aed97e279c09</t>
+  </si>
+  <si>
+    <t>69264f88-b7d8-41d4-b43c-0b2747351264</t>
+  </si>
+  <si>
+    <t>a8a7ed01-46db-4580-ad24-8ab71e04c9ac</t>
+  </si>
+  <si>
+    <t>45110049-4bdb-4a39-af5f-7b08b12218df</t>
+  </si>
+  <si>
+    <t>0f27db7f-8dc9-4273-925e-3e1b96a910e6</t>
+  </si>
+  <si>
+    <t>4d47c1e7-6d7c-4ec1-b434-f37b17621667</t>
+  </si>
+  <si>
+    <t>f8525288-c0f2-4476-80cd-7b9cfbfbdc42</t>
+  </si>
+  <si>
+    <t>629dc5f8-118c-44d8-a221-246d11ab2cb8</t>
+  </si>
+  <si>
+    <t>7dc60a73-efb3-4621-835a-198c6d0e58ae</t>
+  </si>
+  <si>
+    <t>d2ffc692-abdf-4fe0-8228-ce15a1af1245</t>
+  </si>
+  <si>
+    <t>cf904216-a484-4e2d-841f-41fa0d683d18</t>
+  </si>
+  <si>
+    <t>c5018517-acf5-4052-b7d9-ae85e6c6ac8c</t>
+  </si>
+  <si>
+    <t>9d8762c0-a2fc-494e-83f8-43bfeb144537</t>
+  </si>
+  <si>
+    <t>921a9e74-c4d2-48d9-b9a1-ba0cbab0ca80</t>
+  </si>
+  <si>
+    <t>b7392139-fad2-498d-9ce0-933fbfca0216</t>
+  </si>
+  <si>
+    <t>51426dd8-1516-4b68-b1d5-e4717fb2bbb5</t>
+  </si>
+  <si>
+    <t>4904c29c-7386-4bc6-bc9f-b679c68020e2</t>
+  </si>
+  <si>
+    <t>dc67834d-26d9-4214-91cc-5cf897134ef3</t>
+  </si>
+  <si>
+    <t>1aedee58-cde6-45ed-bf6f-23aa65b8f9d0</t>
+  </si>
+  <si>
+    <t>d7ea69cf-ad78-48bf-98df-39e0c26a6239</t>
+  </si>
+  <si>
+    <t>bef6132a-36a4-46bf-86db-434bb8bdbeb9</t>
+  </si>
+  <si>
+    <t>6b9610ff-f520-4fcd-9f3b-1ea3d659efac</t>
+  </si>
+  <si>
+    <t>33c9eefd-7f0a-40f9-954f-1624ba877388</t>
+  </si>
+  <si>
+    <t>1f3155c6-cc53-4709-b30d-b5dcc1ac0a77</t>
+  </si>
+  <si>
+    <t>bc4c1b53-6e0f-4f68-b895-28d1ecde8e02</t>
+  </si>
+  <si>
+    <t>a9f0cf81-1d55-4292-9622-ae0612e808d7</t>
+  </si>
+  <si>
+    <t>2277ed8e-d55a-4545-a9bf-2f702d6e3b42</t>
+  </si>
+  <si>
+    <t>27e8fa66-afb2-47e1-9442-981ccace6ac9</t>
+  </si>
+  <si>
+    <t>551fed35-e09b-4158-9aa7-dbdc5d4a32b3</t>
+  </si>
+  <si>
+    <t>5ad14131-3242-4605-81fa-6cf8934effe3</t>
+  </si>
+  <si>
+    <t>4e7d0141-f7ad-415c-907d-851b3d8bb3ea</t>
+  </si>
+  <si>
+    <t>9c101479-214a-4e74-a410-d3838620bd20</t>
+  </si>
+  <si>
+    <t>e6c7f046-d6ac-4c1e-85c2-01e93b0629db</t>
+  </si>
+  <si>
+    <t>82ead34d-0d96-4e57-ad27-4426ffb7de7e</t>
+  </si>
+  <si>
+    <t>fdc8bc81-5479-4c7a-bfe4-7cdddc453a16</t>
+  </si>
+  <si>
+    <t>87aae622-a1b6-4a5d-a0a8-7b8d1e4d6369</t>
+  </si>
+  <si>
+    <t>934c3d9f-6013-4ec8-b063-99bb8e28a9fd</t>
+  </si>
+  <si>
+    <t>3e0a7077-49ec-44e1-be68-099400cb7997</t>
+  </si>
+  <si>
+    <t>78abc7f2-15bf-4f87-9bc8-56def212de02</t>
+  </si>
+  <si>
+    <t>d0bb8d9b-a212-4e2c-bd71-b9aff8163d63</t>
+  </si>
+  <si>
+    <t>756bd8fd-0786-4c8c-b202-e7974fc5e982</t>
+  </si>
+  <si>
+    <t>f62f4d92-f0d9-434b-9d2f-c319b68b305a</t>
+  </si>
+  <si>
+    <t>0c907652-746e-46f0-8856-272c3745414d</t>
+  </si>
+  <si>
+    <t>06a16ba2-cfad-4f39-b701-0749b757482c</t>
+  </si>
+  <si>
+    <t>2bd05453-8275-4aa9-8da4-6965fe0b5533</t>
+  </si>
+  <si>
+    <t>a33400b9-1bf4-4873-b3f3-3ce8621e9c40</t>
+  </si>
+  <si>
+    <t>ccb53003-06fb-4ad7-833d-8ca0b33a6f24</t>
+  </si>
+  <si>
+    <t>51a95166-df75-4895-9ace-2f7c75ddff6d</t>
+  </si>
+  <si>
+    <t>3ab23cd7-c870-412c-8e95-3f810d409fe7</t>
+  </si>
+  <si>
+    <t>2005711f-bf0f-400e-9d34-36e5f54110c2</t>
+  </si>
+  <si>
+    <t>be491901-fa93-4952-bc58-26665d191032</t>
+  </si>
+  <si>
+    <t>72a0255d-7a87-4d9a-b43a-bc6b10ec68d3</t>
+  </si>
+  <si>
+    <t>a34d9ed2-b7c3-42d4-9e75-6437a39da635</t>
+  </si>
+  <si>
+    <t>3c64beca-98c8-4ddf-abe9-5ac4dbbc405c</t>
+  </si>
+  <si>
+    <t>9eb92e29-9f04-4445-830b-1b1fc1159161</t>
+  </si>
+  <si>
+    <t>524d28bb-30d4-4ab2-9ce6-588ac8fd4e33</t>
+  </si>
+  <si>
+    <t>5d73c0fd-1681-49a0-a0c5-2bf05022b00b</t>
+  </si>
+  <si>
+    <t>98b0e231-5976-4cd6-a6b9-d9d5a9c77f4e</t>
+  </si>
+  <si>
+    <t>d9e40339-6f28-482e-88bc-fbd8f30a0787</t>
+  </si>
+  <si>
+    <t>60c375f6-0f6a-47ba-b0e4-e9697c16121d</t>
+  </si>
+  <si>
+    <t>b754f6c9-ff5d-4bfa-8767-7c1910d66885</t>
+  </si>
+  <si>
+    <t>1620713f-b2f1-4c97-8a4f-e37c4d964680</t>
+  </si>
+  <si>
+    <t>d044dfc7-dcad-422d-a84f-e7d6045167ac</t>
+  </si>
+  <si>
+    <t>53a7ccd2-2214-43a4-a693-39ced68d77bf</t>
+  </si>
+  <si>
+    <t>3aa23b03-c15b-4a3b-b696-582fa3b951ce</t>
+  </si>
+  <si>
+    <t>281b065e-b65d-4cc8-ba65-39b8ca37811a</t>
+  </si>
+  <si>
+    <t>84ef63c9-423d-4f19-93fa-01b538406850</t>
+  </si>
+  <si>
+    <t>afd59206-73b5-4fbe-8bd7-4d4ce6929875</t>
+  </si>
+  <si>
+    <t>ac318419-ff6e-4642-a292-04c606a2f785</t>
+  </si>
+  <si>
+    <t>cb995076-1237-4c8d-aaa3-5c0de8dc4373</t>
+  </si>
+  <si>
+    <t>9a0f11e3-4e24-4ee4-9d73-77083b797f5d</t>
+  </si>
+  <si>
+    <t>8aad8d83-568a-48ad-99fc-70ca34659284</t>
+  </si>
+  <si>
+    <t>3f3a61e1-348f-4d49-9ba7-63bc2c60f386</t>
+  </si>
+  <si>
+    <t>15baaa11-e10a-4274-8572-d82b002894ee</t>
+  </si>
+  <si>
+    <t>79b1da6e-7f9a-4385-a6a3-768913fd9cd7</t>
+  </si>
+  <si>
+    <t>8ffe7b80-fd38-4d25-8358-15915a067896</t>
+  </si>
+  <si>
+    <t>fba2bccb-16d6-4c22-9490-1a8ebc1c9d33</t>
+  </si>
+  <si>
+    <t>e99acacc-1f2d-46c1-8fa8-86a49a9be8b1</t>
+  </si>
+  <si>
+    <t>a26926c3-b32e-4b54-bfab-1ef6d70cdced</t>
+  </si>
+  <si>
+    <t>dbe69855-48f2-4040-a603-23b026ca817f</t>
+  </si>
+  <si>
+    <t>01e4b13c-a284-4d34-8288-e4ca23996a7e</t>
+  </si>
+  <si>
+    <t>6a390982-52c8-4b68-8e1c-a3a0fdaf249a</t>
+  </si>
+  <si>
+    <t>9c382e1e-3b0a-4779-909e-34017f25a409</t>
+  </si>
+  <si>
+    <t>00296cf1-3a04-46f1-b365-ee79183d93c5</t>
+  </si>
+  <si>
+    <t>ce887a63-dac3-4125-9d36-389df7c48f0a</t>
+  </si>
+  <si>
+    <t>b289c3a6-8c77-4953-8666-0dd1662b7834</t>
+  </si>
+  <si>
+    <t>7ac34027-71e5-4c10-8ee9-5885cd9e1c2f</t>
+  </si>
+  <si>
+    <t>841d1246-a87e-4aae-aa67-aa3538ab4c68</t>
+  </si>
+  <si>
+    <t>c35217ce-8873-4a86-bb46-19516e6ee820</t>
+  </si>
+  <si>
+    <t>546c81e3-55f2-4900-b722-cd4e0c5ce1c8</t>
+  </si>
+  <si>
+    <t>126b3b61-8375-4dc8-8463-b17fad1e36d5</t>
+  </si>
+  <si>
+    <t>8fe7142e-628e-4985-bf54-04f67dc7f53a</t>
+  </si>
+  <si>
+    <t>a6ed9cf2-b777-46e1-8553-0011869a9f41</t>
+  </si>
+  <si>
+    <t>8bbd4e15-960a-4916-99d6-85711c141c55</t>
+  </si>
+  <si>
+    <t>714ed7a0-4b18-41d8-b307-195fd6f3166b</t>
+  </si>
+  <si>
+    <t>80d795ce-1daf-45ee-9f70-de1d1fbc6135</t>
+  </si>
+  <si>
+    <t>4c10fbb0-0235-42cc-9371-27adcea4c95d</t>
+  </si>
+  <si>
+    <t>872b27a5-bcd4-462c-b5e4-e17d14164595</t>
+  </si>
+  <si>
+    <t>f8f01653-12b1-42f4-bd2e-c475f1973c59</t>
+  </si>
+  <si>
+    <t>982640df-8bf4-4070-8023-333e7395f068</t>
+  </si>
+  <si>
+    <t>96d43baa-52cf-4154-bb8a-11ca30990fe7</t>
+  </si>
+  <si>
+    <t>Bertine</t>
+  </si>
+  <si>
+    <t>Eldridge</t>
+  </si>
+  <si>
+    <t>Conny</t>
+  </si>
+  <si>
+    <t>Hervey</t>
+  </si>
+  <si>
+    <t>Correy</t>
+  </si>
+  <si>
+    <t>Amaleta</t>
+  </si>
+  <si>
+    <t>Rafaello</t>
+  </si>
+  <si>
+    <t>Rafa</t>
+  </si>
+  <si>
+    <t>Darcy</t>
+  </si>
+  <si>
+    <t>Willem</t>
+  </si>
+  <si>
+    <t>Tess</t>
+  </si>
+  <si>
+    <t>Ofelia</t>
+  </si>
+  <si>
+    <t>Kellen</t>
+  </si>
+  <si>
+    <t>Augy</t>
+  </si>
+  <si>
+    <t>Colin</t>
+  </si>
+  <si>
+    <t>Wendall</t>
+  </si>
+  <si>
+    <t>Natalee</t>
+  </si>
+  <si>
+    <t>Jess</t>
+  </si>
+  <si>
+    <t>Derk</t>
+  </si>
+  <si>
+    <t>Florri</t>
+  </si>
+  <si>
+    <t>Debora</t>
+  </si>
+  <si>
+    <t>Blithe</t>
+  </si>
+  <si>
+    <t>Roderic</t>
+  </si>
+  <si>
+    <t>Margaret</t>
+  </si>
+  <si>
+    <t>Chrisy</t>
+  </si>
+  <si>
+    <t>Ariana</t>
+  </si>
+  <si>
+    <t>Novelia</t>
+  </si>
+  <si>
+    <t>Rikki</t>
+  </si>
+  <si>
+    <t>Francesca</t>
+  </si>
+  <si>
+    <t>Faber</t>
+  </si>
+  <si>
+    <t>Joelly</t>
+  </si>
+  <si>
+    <t>Gorden</t>
+  </si>
+  <si>
+    <t>Illa</t>
+  </si>
+  <si>
+    <t>Nydia</t>
+  </si>
+  <si>
+    <t>Nancey</t>
+  </si>
+  <si>
+    <t>Addia</t>
+  </si>
+  <si>
+    <t>Justin</t>
+  </si>
+  <si>
+    <t>Aleksandr</t>
+  </si>
+  <si>
+    <t>Rodrique</t>
+  </si>
+  <si>
+    <t>Barclay</t>
+  </si>
+  <si>
+    <t>Marcelo</t>
+  </si>
+  <si>
+    <t>Del</t>
+  </si>
+  <si>
+    <t>Arri</t>
+  </si>
+  <si>
+    <t>Gisela</t>
+  </si>
+  <si>
+    <t>Franz</t>
+  </si>
+  <si>
+    <t>Nadean</t>
+  </si>
+  <si>
+    <t>Toby</t>
+  </si>
+  <si>
+    <t>Emmery</t>
+  </si>
+  <si>
+    <t>Lazaro</t>
+  </si>
+  <si>
+    <t>Corenda</t>
+  </si>
+  <si>
+    <t>Saw</t>
+  </si>
+  <si>
+    <t>Daniele</t>
+  </si>
+  <si>
+    <t>Harvey</t>
+  </si>
+  <si>
+    <t>Lynde</t>
+  </si>
+  <si>
+    <t>Ross</t>
+  </si>
+  <si>
+    <t>Joe</t>
+  </si>
+  <si>
+    <t>Tabbie</t>
+  </si>
+  <si>
+    <t>Calla</t>
+  </si>
+  <si>
+    <t>Ancell</t>
+  </si>
+  <si>
+    <t>Glad</t>
+  </si>
+  <si>
+    <t>Phoebe</t>
+  </si>
+  <si>
+    <t>Gay</t>
+  </si>
+  <si>
+    <t>Penny</t>
+  </si>
+  <si>
+    <t>Aylmar</t>
+  </si>
+  <si>
+    <t>Lottie</t>
+  </si>
+  <si>
+    <t>Eolanda</t>
+  </si>
+  <si>
+    <t>Steffie</t>
+  </si>
+  <si>
+    <t>Danny</t>
+  </si>
+  <si>
+    <t>Osbert</t>
+  </si>
+  <si>
+    <t>Robin</t>
+  </si>
+  <si>
+    <t>Davida</t>
+  </si>
+  <si>
+    <t>Chic</t>
+  </si>
+  <si>
+    <t>Augustina</t>
+  </si>
+  <si>
+    <t>Joni</t>
+  </si>
+  <si>
+    <t>Henrieta</t>
+  </si>
+  <si>
+    <t>Hettie</t>
+  </si>
+  <si>
+    <t>Bell</t>
+  </si>
+  <si>
+    <t>Darby</t>
+  </si>
+  <si>
+    <t>Gwendolen</t>
+  </si>
+  <si>
+    <t>Gram</t>
+  </si>
+  <si>
+    <t>Jens</t>
+  </si>
+  <si>
+    <t>Linnea</t>
+  </si>
+  <si>
+    <t>Bruis</t>
+  </si>
+  <si>
+    <t>Eleanora</t>
+  </si>
+  <si>
+    <t>Maressa</t>
+  </si>
+  <si>
+    <t>Chere</t>
+  </si>
+  <si>
+    <t>Grace</t>
+  </si>
+  <si>
+    <t>Konstanze</t>
+  </si>
+  <si>
+    <t>Mela</t>
+  </si>
+  <si>
+    <t>Effie</t>
+  </si>
+  <si>
+    <t>Linell</t>
+  </si>
+  <si>
+    <t>Casey</t>
+  </si>
+  <si>
+    <t>Farrah</t>
+  </si>
+  <si>
+    <t>Kissiah</t>
+  </si>
+  <si>
+    <t>Vc6WW2t6HoX</t>
+  </si>
+  <si>
+    <t>vVC8Af</t>
+  </si>
+  <si>
+    <t>6SNA1Uu6</t>
+  </si>
+  <si>
+    <t>8tVYWnMdx</t>
+  </si>
+  <si>
+    <t>QZuLOYNFTsuc</t>
+  </si>
+  <si>
+    <t>U1RhtXJy7</t>
+  </si>
+  <si>
+    <t>0D4uw3MgFu1</t>
+  </si>
+  <si>
+    <t>RHV9cHWbLhfY</t>
+  </si>
+  <si>
+    <t>NSFybQ8ZxoC</t>
+  </si>
+  <si>
+    <t>JJU5PjNjINji</t>
+  </si>
+  <si>
+    <t>gLmxs8IFG</t>
+  </si>
+  <si>
+    <t>hB7i0BVfd</t>
+  </si>
+  <si>
+    <t>z0cBMt</t>
+  </si>
+  <si>
+    <t>D8OrOqgQjmx</t>
+  </si>
+  <si>
+    <t>oAyTwSLV1r</t>
+  </si>
+  <si>
+    <t>kEezqkaVu2ED</t>
+  </si>
+  <si>
+    <t>NoXnFlYzMha</t>
+  </si>
+  <si>
+    <t>WK9v4zfQ</t>
+  </si>
+  <si>
+    <t>IIOwVXeqEY</t>
+  </si>
+  <si>
+    <t>JTD1MSZ5ZQ</t>
+  </si>
+  <si>
+    <t>93yX2XQDVPx</t>
+  </si>
+  <si>
+    <t>ehF5bF</t>
+  </si>
+  <si>
+    <t>Fn4PsU</t>
+  </si>
+  <si>
+    <t>4RMddeWDunc</t>
+  </si>
+  <si>
+    <t>R9trUue4p5</t>
+  </si>
+  <si>
+    <t>hPkY3pB07wX</t>
+  </si>
+  <si>
+    <t>wBfAxsUf8S</t>
+  </si>
+  <si>
+    <t>sN0790s</t>
+  </si>
+  <si>
+    <t>u2xpVOKb</t>
+  </si>
+  <si>
+    <t>YaxiVK</t>
+  </si>
+  <si>
+    <t>bcR8OlGZkDo6</t>
+  </si>
+  <si>
+    <t>a3e9QSemK</t>
+  </si>
+  <si>
+    <t>YejK3cSsDlg</t>
+  </si>
+  <si>
+    <t>IVkrZ3tfUg1</t>
+  </si>
+  <si>
+    <t>VR5cuh</t>
+  </si>
+  <si>
+    <t>VGmq0CutyFH7</t>
+  </si>
+  <si>
+    <t>hJMTevs75Y</t>
+  </si>
+  <si>
+    <t>NWGVRP360Nr</t>
+  </si>
+  <si>
+    <t>muSNFjLZYYiO</t>
+  </si>
+  <si>
+    <t>MFbwVog</t>
+  </si>
+  <si>
+    <t>xXBsUtHW</t>
+  </si>
+  <si>
+    <t>8DO2ZkEco</t>
+  </si>
+  <si>
+    <t>JFfbrN4</t>
+  </si>
+  <si>
+    <t>kniG8oSQ8BLH</t>
+  </si>
+  <si>
+    <t>1rWb8e</t>
+  </si>
+  <si>
+    <t>JtGJSRCar</t>
+  </si>
+  <si>
+    <t>Dm3aoCD7041</t>
+  </si>
+  <si>
+    <t>ttgOGC603zos</t>
+  </si>
+  <si>
+    <t>L9vaSwo8gyW</t>
+  </si>
+  <si>
+    <t>fubUoF3</t>
+  </si>
+  <si>
+    <t>0z8zM2y6upLq</t>
+  </si>
+  <si>
+    <t>OqQu1sot</t>
+  </si>
+  <si>
+    <t>fcWA8aMAh</t>
+  </si>
+  <si>
+    <t>7p2shH</t>
+  </si>
+  <si>
+    <t>J84WVk6GfN4</t>
+  </si>
+  <si>
+    <t>y1qXGaMC</t>
+  </si>
+  <si>
+    <t>y02s5S</t>
+  </si>
+  <si>
+    <t>SHZokdj</t>
+  </si>
+  <si>
+    <t>Muy73usL</t>
+  </si>
+  <si>
+    <t>uRYx1UNA7</t>
+  </si>
+  <si>
+    <t>jcvQNGdVisv</t>
+  </si>
+  <si>
+    <t>IBl32Jw4x</t>
+  </si>
+  <si>
+    <t>L3ZThiLrr</t>
+  </si>
+  <si>
+    <t>Mfxev9vYPo</t>
+  </si>
+  <si>
+    <t>BO5iEzX9y80</t>
+  </si>
+  <si>
+    <t>GZF46BxcS</t>
+  </si>
+  <si>
+    <t>BcqskephTEs</t>
+  </si>
+  <si>
+    <t>aFWWWzs</t>
+  </si>
+  <si>
+    <t>hk1tI9BufJ</t>
+  </si>
+  <si>
+    <t>nCmS1kpcg</t>
+  </si>
+  <si>
+    <t>jP76WgJTU</t>
+  </si>
+  <si>
+    <t>p1IFlMEl</t>
+  </si>
+  <si>
+    <t>5itRZUvO</t>
+  </si>
+  <si>
+    <t>RhvIIE</t>
+  </si>
+  <si>
+    <t>dtIGvR4</t>
+  </si>
+  <si>
+    <t>vdeqILHI3E</t>
+  </si>
+  <si>
+    <t>ao7k8PMO9kvI</t>
+  </si>
+  <si>
+    <t>xJL4BH</t>
+  </si>
+  <si>
+    <t>mfWo8iUgU</t>
+  </si>
+  <si>
+    <t>qCYP9amiSc</t>
+  </si>
+  <si>
+    <t>DNgBQnxOrZcf</t>
+  </si>
+  <si>
+    <t>PLVB8md</t>
+  </si>
+  <si>
+    <t>TTMrzwRLiAs</t>
+  </si>
+  <si>
+    <t>uQ6dSPLnnlj3</t>
+  </si>
+  <si>
+    <t>4zal9s4N</t>
+  </si>
+  <si>
+    <t>QRlfhbU9zpV</t>
+  </si>
+  <si>
+    <t>2Bgfsv2bhlr</t>
+  </si>
+  <si>
+    <t>KkMjhivwEF</t>
+  </si>
+  <si>
+    <t>jyyC3W3S10P</t>
+  </si>
+  <si>
+    <t>ZRPSol</t>
+  </si>
+  <si>
+    <t>QooWTRmRzog</t>
+  </si>
+  <si>
+    <t>tiYuwBpFz</t>
+  </si>
+  <si>
+    <t>kf9ckAtvmA</t>
+  </si>
+  <si>
+    <t>TSGDpc3gsEW</t>
+  </si>
+  <si>
+    <t>6WZSBccQO</t>
+  </si>
+  <si>
+    <t>Rpk7GW0aQ1Ss</t>
+  </si>
+  <si>
+    <t>tkF1IztHs</t>
+  </si>
+  <si>
+    <t>LnOnHpOdi3</t>
+  </si>
+  <si>
+    <t>Ymtl8M</t>
+  </si>
+  <si>
+    <t>1uHxuRY</t>
+  </si>
+  <si>
+    <t>chaseley0@dot.gov</t>
+  </si>
+  <si>
+    <t>madam1@usa.gov</t>
+  </si>
+  <si>
+    <t>ldemangeon2@europa.eu</t>
+  </si>
+  <si>
+    <t>ohambribe3@howstuffworks.com</t>
+  </si>
+  <si>
+    <t>gmoyer4@craigslist.org</t>
+  </si>
+  <si>
+    <t>mringham5@dailymotion.com</t>
+  </si>
+  <si>
+    <t>kabrahmovici6@zdnet.com</t>
+  </si>
+  <si>
+    <t>ksellick7@ycombinator.com</t>
+  </si>
+  <si>
+    <t>cmotte8@aboutads.info</t>
+  </si>
+  <si>
+    <t>dgooley9@illinois.edu</t>
+  </si>
+  <si>
+    <t>brennekea@comsenz.com</t>
+  </si>
+  <si>
+    <t>rfalconarb@com.com</t>
+  </si>
+  <si>
+    <t>aatwelc@discuz.net</t>
+  </si>
+  <si>
+    <t>mlarensond@washington.edu</t>
+  </si>
+  <si>
+    <t>nmatushenkoe@acquirethisname.com</t>
+  </si>
+  <si>
+    <t>alangtonf@free.fr</t>
+  </si>
+  <si>
+    <t>nrichlyg@webmd.com</t>
+  </si>
+  <si>
+    <t>esageh@cbc.ca</t>
+  </si>
+  <si>
+    <t>hpuckhami@uiuc.edu</t>
+  </si>
+  <si>
+    <t>sflooksj@hao123.com</t>
+  </si>
+  <si>
+    <t>kstuckleyk@godaddy.com</t>
+  </si>
+  <si>
+    <t>rgunneyl@cbc.ca</t>
+  </si>
+  <si>
+    <t>agorriesm@skyrock.com</t>
+  </si>
+  <si>
+    <t>vkleinplacn@google.com.hk</t>
+  </si>
+  <si>
+    <t>fbrouardo@ted.com</t>
+  </si>
+  <si>
+    <t>mbonifaciop@fastcompany.com</t>
+  </si>
+  <si>
+    <t>gfrankishq@soup.io</t>
+  </si>
+  <si>
+    <t>lelverstonr@soup.io</t>
+  </si>
+  <si>
+    <t>eyeowells@amazon.de</t>
+  </si>
+  <si>
+    <t>ccellonet@clickbank.net</t>
+  </si>
+  <si>
+    <t>cskainsu@angelfire.com</t>
+  </si>
+  <si>
+    <t>jpendrev@canalblog.com</t>
+  </si>
+  <si>
+    <t>rdawsonw@webnode.com</t>
+  </si>
+  <si>
+    <t>wsaerx@ucoz.ru</t>
+  </si>
+  <si>
+    <t>nfarlamby@scientificamerican.com</t>
+  </si>
+  <si>
+    <t>mdevineyz@acquirethisname.com</t>
+  </si>
+  <si>
+    <t>syakobovitz10@google.com.hk</t>
+  </si>
+  <si>
+    <t>bashwell11@geocities.jp</t>
+  </si>
+  <si>
+    <t>mgainor12@1und1.de</t>
+  </si>
+  <si>
+    <t>aannets13@macromedia.com</t>
+  </si>
+  <si>
+    <t>hsmead14@booking.com</t>
+  </si>
+  <si>
+    <t>kstatton15@webeden.co.uk</t>
+  </si>
+  <si>
+    <t>ccadore16@4shared.com</t>
+  </si>
+  <si>
+    <t>mpounsett17@free.fr</t>
+  </si>
+  <si>
+    <t>mjannequin18@domainmarket.com</t>
+  </si>
+  <si>
+    <t>cospellissey19@harvard.edu</t>
+  </si>
+  <si>
+    <t>npondjones1a@globo.com</t>
+  </si>
+  <si>
+    <t>mbomfield1b@xrea.com</t>
+  </si>
+  <si>
+    <t>aredhead1c@mashable.com</t>
+  </si>
+  <si>
+    <t>lyounger1d@mit.edu</t>
+  </si>
+  <si>
+    <t>sbraiden1e@google.co.uk</t>
+  </si>
+  <si>
+    <t>ajiggle1f@ted.com</t>
+  </si>
+  <si>
+    <t>fgammell1g@yale.edu</t>
+  </si>
+  <si>
+    <t>cjain1h@ustream.tv</t>
+  </si>
+  <si>
+    <t>tcockerell1i@over-blog.com</t>
+  </si>
+  <si>
+    <t>ttrattles1j@squidoo.com</t>
+  </si>
+  <si>
+    <t>mstute1k@lycos.com</t>
+  </si>
+  <si>
+    <t>yguillot1l@mozilla.org</t>
+  </si>
+  <si>
+    <t>dmcrill1m@moonfruit.com</t>
+  </si>
+  <si>
+    <t>lnials1n@earthlink.net</t>
+  </si>
+  <si>
+    <t>mvonderempten1o@marriott.com</t>
+  </si>
+  <si>
+    <t>fclampe1p@addtoany.com</t>
+  </si>
+  <si>
+    <t>mmctrustrie1q@etsy.com</t>
+  </si>
+  <si>
+    <t>kshevlane1r@wikispaces.com</t>
+  </si>
+  <si>
+    <t>lmcconachie1s@indiatimes.com</t>
+  </si>
+  <si>
+    <t>jcicchinelli1t@google.co.jp</t>
+  </si>
+  <si>
+    <t>bhearnah1u@people.com.cn</t>
+  </si>
+  <si>
+    <t>cmckinless1v@about.com</t>
+  </si>
+  <si>
+    <t>ecoules1w@salon.com</t>
+  </si>
+  <si>
+    <t>nmcgready1x@arstechnica.com</t>
+  </si>
+  <si>
+    <t>fkeaves1y@dot.gov</t>
+  </si>
+  <si>
+    <t>slodden1z@topsy.com</t>
+  </si>
+  <si>
+    <t>wteissier20@deviantart.com</t>
+  </si>
+  <si>
+    <t>rbathoe21@jalbum.net</t>
+  </si>
+  <si>
+    <t>ctzuker22@creativecommons.org</t>
+  </si>
+  <si>
+    <t>alevensky23@51.la</t>
+  </si>
+  <si>
+    <t>csare24@reverbnation.com</t>
+  </si>
+  <si>
+    <t>grance25@independent.co.uk</t>
+  </si>
+  <si>
+    <t>athuillier26@multiply.com</t>
+  </si>
+  <si>
+    <t>adeverille27@prweb.com</t>
+  </si>
+  <si>
+    <t>rorritt28@tinypic.com</t>
+  </si>
+  <si>
+    <t>hwycliffe29@tuttocitta.it</t>
+  </si>
+  <si>
+    <t>afidoe2a@globo.com</t>
+  </si>
+  <si>
+    <t>ghehl2b@skype.com</t>
+  </si>
+  <si>
+    <t>bpfaffe2c@arstechnica.com</t>
+  </si>
+  <si>
+    <t>ttooby2d@microsoft.com</t>
+  </si>
+  <si>
+    <t>vdadley2e@oracle.com</t>
+  </si>
+  <si>
+    <t>tgreasty2f@thetimes.co.uk</t>
+  </si>
+  <si>
+    <t>dbrumble2g@xrea.com</t>
+  </si>
+  <si>
+    <t>amcbryde2h@time.com</t>
+  </si>
+  <si>
+    <t>ocaustick2i@cocolog-nifty.com</t>
+  </si>
+  <si>
+    <t>dboult2j@craigslist.org</t>
+  </si>
+  <si>
+    <t>ehindrick2k@imageshack.us</t>
+  </si>
+  <si>
+    <t>fcatley2l@deviantart.com</t>
+  </si>
+  <si>
+    <t>klenden2m@ihg.com</t>
+  </si>
+  <si>
+    <t>fhardeman2n@oaic.gov.au</t>
+  </si>
+  <si>
+    <t>rmufford2o@diigo.com</t>
+  </si>
+  <si>
+    <t>aquadri2p@pcworld.com</t>
+  </si>
+  <si>
+    <t>ckemsley2q@amazon.com</t>
+  </si>
+  <si>
+    <t>zmcaline2r@comcast.net</t>
+  </si>
+  <si>
+    <t>elesurf0@businesswire.com</t>
+  </si>
+  <si>
+    <t>ldevanney1@wufoo.com</t>
+  </si>
+  <si>
+    <t>tjodlowski2@taobao.com</t>
+  </si>
+  <si>
+    <t>ehartill3@ycombinator.com</t>
+  </si>
+  <si>
+    <t>dkeddy4@yale.edu</t>
+  </si>
+  <si>
+    <t>mlaughrey5@networksolutions.com</t>
+  </si>
+  <si>
+    <t>lparkisson6@eventbrite.com</t>
+  </si>
+  <si>
+    <t>bjeakins7@opensource.org</t>
+  </si>
+  <si>
+    <t>htottem8@baidu.com</t>
+  </si>
+  <si>
+    <t>tmacvagh9@taobao.com</t>
+  </si>
+  <si>
+    <t>eeubanka@craigslist.org</t>
+  </si>
+  <si>
+    <t>gebbingb@xrea.com</t>
+  </si>
+  <si>
+    <t>cbremmellc@multiply.com</t>
+  </si>
+  <si>
+    <t>pjinkinsd@hao123.com</t>
+  </si>
+  <si>
+    <t>sduckerine@xrea.com</t>
+  </si>
+  <si>
+    <t>hmintyf@home.pl</t>
+  </si>
+  <si>
+    <t>etaysbilg@yolasite.com</t>
+  </si>
+  <si>
+    <t>eatkinsh@salon.com</t>
+  </si>
+  <si>
+    <t>aprenei@php.net</t>
+  </si>
+  <si>
+    <t>ctotenj@businessweek.com</t>
+  </si>
+  <si>
+    <t>smcnalleyk@hatena.ne.jp</t>
+  </si>
+  <si>
+    <t>asharrierl@drupal.org</t>
+  </si>
+  <si>
+    <t>wpowem@geocities.com</t>
+  </si>
+  <si>
+    <t>sdickensonn@jiathis.com</t>
+  </si>
+  <si>
+    <t>gcourtiero@tamu.edu</t>
+  </si>
+  <si>
+    <t>chinstockp@ocn.ne.jp</t>
+  </si>
+  <si>
+    <t>adeggq@theatlantic.com</t>
+  </si>
+  <si>
+    <t>zgooddayr@facebook.com</t>
+  </si>
+  <si>
+    <t>dgabbots@ox.ac.uk</t>
+  </si>
+  <si>
+    <t>jdewanet@utexas.edu</t>
+  </si>
+  <si>
+    <t>aledrunu@360.cn</t>
+  </si>
+  <si>
+    <t>dtwiggev@mashable.com</t>
+  </si>
+  <si>
+    <t>gdallinderw@hud.gov</t>
+  </si>
+  <si>
+    <t>sstroyanx@umn.edu</t>
+  </si>
+  <si>
+    <t>rpidgeleyy@google.cn</t>
+  </si>
+  <si>
+    <t>ksanbrookez@list-manage.com</t>
+  </si>
+  <si>
+    <t>ccathel10@google.co.uk</t>
+  </si>
+  <si>
+    <t>jnaden11@elegantthemes.com</t>
+  </si>
+  <si>
+    <t>aaxe12@mysql.com</t>
+  </si>
+  <si>
+    <t>cbengal13@unc.edu</t>
+  </si>
+  <si>
+    <t>tfarthin14@digg.com</t>
+  </si>
+  <si>
+    <t>cpearde15@yahoo.co.jp</t>
+  </si>
+  <si>
+    <t>aruste16@360.cn</t>
+  </si>
+  <si>
+    <t>araspel17@ow.ly</t>
+  </si>
+  <si>
+    <t>hallsebrook18@vistaprint.com</t>
+  </si>
+  <si>
+    <t>cmessage19@google.es</t>
+  </si>
+  <si>
+    <t>nterrelly1a@blogspot.com</t>
+  </si>
+  <si>
+    <t>sbrikner1b@constantcontact.com</t>
+  </si>
+  <si>
+    <t>jarboine1c@amazon.co.jp</t>
+  </si>
+  <si>
+    <t>pshillabear1d@hao123.com</t>
+  </si>
+  <si>
+    <t>ggrunguer1e@wordpress.com</t>
+  </si>
+  <si>
+    <t>tfones1f@altervista.org</t>
+  </si>
+  <si>
+    <t>ghasluck1g@cam.ac.uk</t>
+  </si>
+  <si>
+    <t>sroskeilly1h@cmu.edu</t>
+  </si>
+  <si>
+    <t>vlindermann1i@geocities.jp</t>
+  </si>
+  <si>
+    <t>hwardingley1j@discovery.com</t>
+  </si>
+  <si>
+    <t>awhales1k@myspace.com</t>
+  </si>
+  <si>
+    <t>lkaine1l@ycombinator.com</t>
+  </si>
+  <si>
+    <t>spoulett1m@gnu.org</t>
+  </si>
+  <si>
+    <t>pscurlock1n@reddit.com</t>
+  </si>
+  <si>
+    <t>wwandtke1o@tripadvisor.com</t>
+  </si>
+  <si>
+    <t>adablin1p@google.nl</t>
+  </si>
+  <si>
+    <t>epauleau1q@myspace.com</t>
+  </si>
+  <si>
+    <t>lhinken1r@nifty.com</t>
+  </si>
+  <si>
+    <t>acruikshanks1s@indiatimes.com</t>
+  </si>
+  <si>
+    <t>mburbank1t@eepurl.com</t>
+  </si>
+  <si>
+    <t>hcosgriff1u@rakuten.co.jp</t>
+  </si>
+  <si>
+    <t>ehousaman1v@unesco.org</t>
+  </si>
+  <si>
+    <t>akenninghan1w@dyndns.org</t>
+  </si>
+  <si>
+    <t>rmckie1x@youku.com</t>
+  </si>
+  <si>
+    <t>ksibbert1y@squarespace.com</t>
+  </si>
+  <si>
+    <t>ecolquete1z@smh.com.au</t>
+  </si>
+  <si>
+    <t>osandlin20@cnn.com</t>
+  </si>
+  <si>
+    <t>pmowsdill21@360.cn</t>
+  </si>
+  <si>
+    <t>rbeek22@nyu.edu</t>
+  </si>
+  <si>
+    <t>tcruddas23@shop-pro.jp</t>
+  </si>
+  <si>
+    <t>mlevee24@tumblr.com</t>
+  </si>
+  <si>
+    <t>hbaud25@nationalgeographic.com</t>
+  </si>
+  <si>
+    <t>agrinval26@washingtonpost.com</t>
+  </si>
+  <si>
+    <t>crentoul27@linkedin.com</t>
+  </si>
+  <si>
+    <t>mgovini28@omniture.com</t>
+  </si>
+  <si>
+    <t>jtemporal29@hatena.ne.jp</t>
+  </si>
+  <si>
+    <t>scollihole2a@si.edu</t>
+  </si>
+  <si>
+    <t>tselkirk2b@msn.com</t>
+  </si>
+  <si>
+    <t>jrouchy2c@goodreads.com</t>
+  </si>
+  <si>
+    <t>fstallon2d@dmoz.org</t>
+  </si>
+  <si>
+    <t>bconor2e@army.mil</t>
+  </si>
+  <si>
+    <t>cmcritchie2f@eepurl.com</t>
+  </si>
+  <si>
+    <t>jmeagher2g@si.edu</t>
+  </si>
+  <si>
+    <t>jsemple2h@desdev.cn</t>
+  </si>
+  <si>
+    <t>eelsmore2i@youtu.be</t>
+  </si>
+  <si>
+    <t>qflanaghan2j@nih.gov</t>
+  </si>
+  <si>
+    <t>emuccino2k@google.com.au</t>
+  </si>
+  <si>
+    <t>dkornousek2l@hatena.ne.jp</t>
+  </si>
+  <si>
+    <t>kcasine2m@bigcartel.com</t>
+  </si>
+  <si>
+    <t>gmacphaden2n@squidoo.com</t>
+  </si>
+  <si>
+    <t>hguthrie2o@oaic.gov.au</t>
+  </si>
+  <si>
+    <t>kjozef2p@tripod.com</t>
+  </si>
+  <si>
+    <t>gcasford2q@altervista.org</t>
+  </si>
+  <si>
+    <t>dscarr2r@networksolutions.com</t>
+  </si>
+  <si>
+    <t>Jenalyn A</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -9832,6 +11317,12 @@
       <charset val="128"/>
       <scheme val="major"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="ＭＳ ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -9854,7 +11345,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
@@ -9876,6 +11367,8 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="22" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="22" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -9935,7 +11428,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Custom 6">
+    <a:fontScheme name="Custom 7">
       <a:majorFont>
         <a:latin typeface="ＭＳ ゴシック"/>
         <a:ea typeface="メイリオ"/>
@@ -10099,8 +11592,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O101"/>
   <sheetViews>
-    <sheetView topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="A101" sqref="A101"/>
+    <sheetView topLeftCell="A77" workbookViewId="0">
+      <selection activeCell="B92" sqref="B92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -19878,7 +21371,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I101"/>
   <sheetViews>
-    <sheetView topLeftCell="A50" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A42" sqref="A42"/>
     </sheetView>
   </sheetViews>
@@ -26098,8 +27591,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:M101"/>
   <sheetViews>
-    <sheetView topLeftCell="A77" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A101"/>
+    <sheetView topLeftCell="A89" workbookViewId="0">
+      <selection activeCell="M101" sqref="M101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
@@ -30268,67 +31761,4781 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:O1"/>
+  <dimension ref="A1:O101"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="16.3515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="12.41015625" customWidth="1"/>
+    <col min="1" max="2" width="37.17578125" style="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.64453125" style="13" customWidth="1"/>
+    <col min="4" max="4" width="26.46875" style="13" customWidth="1"/>
+    <col min="5" max="5" width="17.52734375" style="13" customWidth="1"/>
+    <col min="6" max="6" width="16.87890625" style="13" customWidth="1"/>
+    <col min="7" max="7" width="17.46875" style="13" customWidth="1"/>
+    <col min="8" max="8" width="17.703125" style="13" customWidth="1"/>
+    <col min="9" max="9" width="31.1171875" style="13" customWidth="1"/>
+    <col min="10" max="10" width="29.46875" style="13" customWidth="1"/>
+    <col min="11" max="11" width="48" style="13" customWidth="1"/>
+    <col min="12" max="12" width="16.29296875" style="13" customWidth="1"/>
+    <col min="13" max="13" width="16.76171875" style="13" customWidth="1"/>
+    <col min="14" max="14" width="20.41015625" style="13" customWidth="1"/>
+    <col min="15" max="15" width="16.46875" style="13" customWidth="1"/>
+    <col min="16" max="16384" width="8.9375" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.5">
-      <c r="A1" t="s">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="O1" t="s">
+      <c r="O1" s="13" t="s">
         <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A2" s="13" t="s">
+        <v>3248</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>3742</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>3442</v>
+      </c>
+      <c r="E2" s="13">
+        <v>92345678910</v>
+      </c>
+      <c r="F2" s="13">
+        <v>1</v>
+      </c>
+      <c r="G2" s="14">
+        <v>44172</v>
+      </c>
+      <c r="H2" s="13">
+        <v>1</v>
+      </c>
+      <c r="I2" s="13" t="s">
+        <v>3542</v>
+      </c>
+      <c r="J2" s="13" t="s">
+        <v>3642</v>
+      </c>
+      <c r="K2" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="L2" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="M2" s="22">
+        <v>44409</v>
+      </c>
+      <c r="N2" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="O2" s="22">
+        <v>44409</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A3" s="13" t="s">
+        <v>3249</v>
+      </c>
+      <c r="B3" s="21" t="s">
+        <v>1339</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>3348</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>3443</v>
+      </c>
+      <c r="E3" s="13">
+        <v>92345678911</v>
+      </c>
+      <c r="F3" s="13">
+        <v>2</v>
+      </c>
+      <c r="G3" s="14">
+        <v>44191</v>
+      </c>
+      <c r="H3" s="13">
+        <v>2</v>
+      </c>
+      <c r="I3" s="13" t="s">
+        <v>3543</v>
+      </c>
+      <c r="J3" s="13" t="s">
+        <v>3643</v>
+      </c>
+      <c r="K3" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="L3" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="M3" s="22">
+        <v>44410</v>
+      </c>
+      <c r="N3" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="O3" s="22">
+        <v>44410</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A4" s="13" t="s">
+        <v>3250</v>
+      </c>
+      <c r="B4" s="21" t="s">
+        <v>1340</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>3349</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>3444</v>
+      </c>
+      <c r="E4" s="13">
+        <v>92345678912</v>
+      </c>
+      <c r="F4" s="13">
+        <v>1</v>
+      </c>
+      <c r="G4" s="14">
+        <v>44121</v>
+      </c>
+      <c r="H4" s="13">
+        <v>3</v>
+      </c>
+      <c r="I4" s="13" t="s">
+        <v>3544</v>
+      </c>
+      <c r="J4" s="13" t="s">
+        <v>3644</v>
+      </c>
+      <c r="K4" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="L4" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="M4" s="22">
+        <v>44411</v>
+      </c>
+      <c r="N4" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="O4" s="22">
+        <v>44411</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A5" s="13" t="s">
+        <v>3251</v>
+      </c>
+      <c r="B5" s="21" t="s">
+        <v>1341</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>3350</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>3445</v>
+      </c>
+      <c r="E5" s="13">
+        <v>92345678913</v>
+      </c>
+      <c r="F5" s="13">
+        <v>2</v>
+      </c>
+      <c r="G5" s="14">
+        <v>44164</v>
+      </c>
+      <c r="H5" s="13">
+        <v>4</v>
+      </c>
+      <c r="I5" s="13" t="s">
+        <v>3545</v>
+      </c>
+      <c r="J5" s="13" t="s">
+        <v>3645</v>
+      </c>
+      <c r="K5" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="L5" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="M5" s="22">
+        <v>44412</v>
+      </c>
+      <c r="N5" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="O5" s="22">
+        <v>44412</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A6" s="13" t="s">
+        <v>3252</v>
+      </c>
+      <c r="B6" s="21" t="s">
+        <v>1342</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>3351</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>3446</v>
+      </c>
+      <c r="E6" s="13">
+        <v>92345678914</v>
+      </c>
+      <c r="F6" s="13">
+        <v>1</v>
+      </c>
+      <c r="G6" s="14">
+        <v>44186</v>
+      </c>
+      <c r="H6" s="13">
+        <v>5</v>
+      </c>
+      <c r="I6" s="13" t="s">
+        <v>3546</v>
+      </c>
+      <c r="J6" s="13" t="s">
+        <v>3646</v>
+      </c>
+      <c r="K6" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="L6" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="M6" s="22">
+        <v>44413</v>
+      </c>
+      <c r="N6" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="O6" s="22">
+        <v>44413</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A7" s="13" t="s">
+        <v>3253</v>
+      </c>
+      <c r="B7" s="21" t="s">
+        <v>1343</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>3352</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>3447</v>
+      </c>
+      <c r="E7" s="13">
+        <v>92345678915</v>
+      </c>
+      <c r="F7" s="13">
+        <v>2</v>
+      </c>
+      <c r="G7" s="14">
+        <v>44384</v>
+      </c>
+      <c r="H7" s="13">
+        <v>1</v>
+      </c>
+      <c r="I7" s="13" t="s">
+        <v>3547</v>
+      </c>
+      <c r="J7" s="13" t="s">
+        <v>3647</v>
+      </c>
+      <c r="K7" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="L7" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="M7" s="22">
+        <v>44414</v>
+      </c>
+      <c r="N7" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="O7" s="22">
+        <v>44414</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A8" s="13" t="s">
+        <v>3254</v>
+      </c>
+      <c r="B8" s="21" t="s">
+        <v>1344</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>3353</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>3448</v>
+      </c>
+      <c r="E8" s="13">
+        <v>92345678916</v>
+      </c>
+      <c r="F8" s="13">
+        <v>1</v>
+      </c>
+      <c r="G8" s="14">
+        <v>44290</v>
+      </c>
+      <c r="H8" s="13">
+        <v>2</v>
+      </c>
+      <c r="I8" s="13" t="s">
+        <v>3548</v>
+      </c>
+      <c r="J8" s="13" t="s">
+        <v>3648</v>
+      </c>
+      <c r="K8" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="L8" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="M8" s="22">
+        <v>44415</v>
+      </c>
+      <c r="N8" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="O8" s="22">
+        <v>44415</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A9" s="13" t="s">
+        <v>3255</v>
+      </c>
+      <c r="B9" s="21" t="s">
+        <v>1345</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>3354</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>3449</v>
+      </c>
+      <c r="E9" s="13">
+        <v>92345678917</v>
+      </c>
+      <c r="F9" s="13">
+        <v>2</v>
+      </c>
+      <c r="G9" s="14">
+        <v>44363</v>
+      </c>
+      <c r="H9" s="13">
+        <v>3</v>
+      </c>
+      <c r="I9" s="13" t="s">
+        <v>3549</v>
+      </c>
+      <c r="J9" s="13" t="s">
+        <v>3649</v>
+      </c>
+      <c r="K9" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="L9" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="M9" s="22">
+        <v>44416</v>
+      </c>
+      <c r="N9" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="O9" s="22">
+        <v>44416</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A10" s="13" t="s">
+        <v>3256</v>
+      </c>
+      <c r="B10" s="21" t="s">
+        <v>1346</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>3355</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>3450</v>
+      </c>
+      <c r="E10" s="13">
+        <v>92345678918</v>
+      </c>
+      <c r="F10" s="13">
+        <v>1</v>
+      </c>
+      <c r="G10" s="14">
+        <v>44341</v>
+      </c>
+      <c r="H10" s="13">
+        <v>4</v>
+      </c>
+      <c r="I10" s="13" t="s">
+        <v>3550</v>
+      </c>
+      <c r="J10" s="13" t="s">
+        <v>3650</v>
+      </c>
+      <c r="K10" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="L10" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="M10" s="22">
+        <v>44417</v>
+      </c>
+      <c r="N10" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="O10" s="22">
+        <v>44417</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A11" s="13" t="s">
+        <v>3257</v>
+      </c>
+      <c r="B11" s="21" t="s">
+        <v>1347</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>3356</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>3451</v>
+      </c>
+      <c r="E11" s="13">
+        <v>92345678919</v>
+      </c>
+      <c r="F11" s="13">
+        <v>2</v>
+      </c>
+      <c r="G11" s="14">
+        <v>44090</v>
+      </c>
+      <c r="H11" s="13">
+        <v>5</v>
+      </c>
+      <c r="I11" s="13" t="s">
+        <v>3551</v>
+      </c>
+      <c r="J11" s="13" t="s">
+        <v>3651</v>
+      </c>
+      <c r="K11" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="L11" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="M11" s="22">
+        <v>44418</v>
+      </c>
+      <c r="N11" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="O11" s="22">
+        <v>44418</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A12" s="13" t="s">
+        <v>3258</v>
+      </c>
+      <c r="B12" s="21" t="s">
+        <v>1348</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>3357</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>3452</v>
+      </c>
+      <c r="E12" s="13">
+        <v>92345678920</v>
+      </c>
+      <c r="F12" s="13">
+        <v>1</v>
+      </c>
+      <c r="G12" s="14">
+        <v>44145</v>
+      </c>
+      <c r="H12" s="13">
+        <v>1</v>
+      </c>
+      <c r="I12" s="13" t="s">
+        <v>3552</v>
+      </c>
+      <c r="J12" s="13" t="s">
+        <v>3652</v>
+      </c>
+      <c r="K12" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="L12" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="M12" s="22">
+        <v>44419</v>
+      </c>
+      <c r="N12" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="O12" s="22">
+        <v>44419</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A13" s="13" t="s">
+        <v>3259</v>
+      </c>
+      <c r="B13" s="21" t="s">
+        <v>1349</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>3358</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>3453</v>
+      </c>
+      <c r="E13" s="13">
+        <v>92345678921</v>
+      </c>
+      <c r="F13" s="13">
+        <v>2</v>
+      </c>
+      <c r="G13" s="14">
+        <v>44246</v>
+      </c>
+      <c r="H13" s="13">
+        <v>2</v>
+      </c>
+      <c r="I13" s="13" t="s">
+        <v>3553</v>
+      </c>
+      <c r="J13" s="13" t="s">
+        <v>3653</v>
+      </c>
+      <c r="K13" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="L13" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="M13" s="22">
+        <v>44420</v>
+      </c>
+      <c r="N13" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="O13" s="22">
+        <v>44420</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A14" s="13" t="s">
+        <v>3260</v>
+      </c>
+      <c r="B14" s="21" t="s">
+        <v>1350</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>3359</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>3454</v>
+      </c>
+      <c r="E14" s="13">
+        <v>92345678922</v>
+      </c>
+      <c r="F14" s="13">
+        <v>1</v>
+      </c>
+      <c r="G14" s="14">
+        <v>44355</v>
+      </c>
+      <c r="H14" s="13">
+        <v>3</v>
+      </c>
+      <c r="I14" s="13" t="s">
+        <v>3554</v>
+      </c>
+      <c r="J14" s="13" t="s">
+        <v>3654</v>
+      </c>
+      <c r="K14" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="L14" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="M14" s="22">
+        <v>44421</v>
+      </c>
+      <c r="N14" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="O14" s="22">
+        <v>44421</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A15" s="13" t="s">
+        <v>3261</v>
+      </c>
+      <c r="B15" s="21" t="s">
+        <v>1351</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>3360</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>3455</v>
+      </c>
+      <c r="E15" s="13">
+        <v>92345678923</v>
+      </c>
+      <c r="F15" s="13">
+        <v>2</v>
+      </c>
+      <c r="G15" s="14">
+        <v>44382</v>
+      </c>
+      <c r="H15" s="13">
+        <v>4</v>
+      </c>
+      <c r="I15" s="13" t="s">
+        <v>3555</v>
+      </c>
+      <c r="J15" s="13" t="s">
+        <v>3655</v>
+      </c>
+      <c r="K15" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="L15" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="M15" s="22">
+        <v>44422</v>
+      </c>
+      <c r="N15" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="O15" s="22">
+        <v>44422</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A16" s="13" t="s">
+        <v>3262</v>
+      </c>
+      <c r="B16" s="21" t="s">
+        <v>1352</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>3361</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>3456</v>
+      </c>
+      <c r="E16" s="13">
+        <v>92345678924</v>
+      </c>
+      <c r="F16" s="13">
+        <v>1</v>
+      </c>
+      <c r="G16" s="14">
+        <v>44162</v>
+      </c>
+      <c r="H16" s="13">
+        <v>5</v>
+      </c>
+      <c r="I16" s="13" t="s">
+        <v>3556</v>
+      </c>
+      <c r="J16" s="13" t="s">
+        <v>3656</v>
+      </c>
+      <c r="K16" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="L16" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="M16" s="22">
+        <v>44423</v>
+      </c>
+      <c r="N16" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="O16" s="22">
+        <v>44423</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A17" s="13" t="s">
+        <v>3263</v>
+      </c>
+      <c r="B17" s="21" t="s">
+        <v>1353</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>3362</v>
+      </c>
+      <c r="D17" s="13" t="s">
+        <v>3457</v>
+      </c>
+      <c r="E17" s="13">
+        <v>92345678925</v>
+      </c>
+      <c r="F17" s="13">
+        <v>2</v>
+      </c>
+      <c r="G17" s="14">
+        <v>44148</v>
+      </c>
+      <c r="H17" s="13">
+        <v>1</v>
+      </c>
+      <c r="I17" s="13" t="s">
+        <v>3557</v>
+      </c>
+      <c r="J17" s="13" t="s">
+        <v>3657</v>
+      </c>
+      <c r="K17" s="21" t="s">
+        <v>87</v>
+      </c>
+      <c r="L17" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="M17" s="22">
+        <v>44424</v>
+      </c>
+      <c r="N17" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="O17" s="22">
+        <v>44424</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A18" s="13" t="s">
+        <v>3264</v>
+      </c>
+      <c r="B18" s="21" t="s">
+        <v>1354</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>3363</v>
+      </c>
+      <c r="D18" s="13" t="s">
+        <v>3458</v>
+      </c>
+      <c r="E18" s="13">
+        <v>92345678926</v>
+      </c>
+      <c r="F18" s="13">
+        <v>1</v>
+      </c>
+      <c r="G18" s="14">
+        <v>44136</v>
+      </c>
+      <c r="H18" s="13">
+        <v>2</v>
+      </c>
+      <c r="I18" s="13" t="s">
+        <v>3558</v>
+      </c>
+      <c r="J18" s="13" t="s">
+        <v>3658</v>
+      </c>
+      <c r="K18" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="L18" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="M18" s="22">
+        <v>44425</v>
+      </c>
+      <c r="N18" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="O18" s="22">
+        <v>44425</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A19" s="13" t="s">
+        <v>3265</v>
+      </c>
+      <c r="B19" s="21" t="s">
+        <v>1355</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>3364</v>
+      </c>
+      <c r="D19" s="13" t="s">
+        <v>3459</v>
+      </c>
+      <c r="E19" s="13">
+        <v>92345678927</v>
+      </c>
+      <c r="F19" s="13">
+        <v>2</v>
+      </c>
+      <c r="G19" s="14">
+        <v>44114</v>
+      </c>
+      <c r="H19" s="13">
+        <v>3</v>
+      </c>
+      <c r="I19" s="13" t="s">
+        <v>3559</v>
+      </c>
+      <c r="J19" s="13" t="s">
+        <v>3659</v>
+      </c>
+      <c r="K19" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="L19" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="M19" s="22">
+        <v>44426</v>
+      </c>
+      <c r="N19" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="O19" s="22">
+        <v>44426</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A20" s="13" t="s">
+        <v>3266</v>
+      </c>
+      <c r="B20" s="21" t="s">
+        <v>1356</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>3365</v>
+      </c>
+      <c r="D20" s="13" t="s">
+        <v>3460</v>
+      </c>
+      <c r="E20" s="13">
+        <v>92345678928</v>
+      </c>
+      <c r="F20" s="13">
+        <v>1</v>
+      </c>
+      <c r="G20" s="14">
+        <v>44404</v>
+      </c>
+      <c r="H20" s="13">
+        <v>4</v>
+      </c>
+      <c r="I20" s="13" t="s">
+        <v>3560</v>
+      </c>
+      <c r="J20" s="13" t="s">
+        <v>3660</v>
+      </c>
+      <c r="K20" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="L20" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="M20" s="22">
+        <v>44427</v>
+      </c>
+      <c r="N20" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="O20" s="22">
+        <v>44427</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A21" s="13" t="s">
+        <v>3267</v>
+      </c>
+      <c r="B21" s="21" t="s">
+        <v>1357</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>3366</v>
+      </c>
+      <c r="D21" s="13" t="s">
+        <v>3461</v>
+      </c>
+      <c r="E21" s="13">
+        <v>92345678929</v>
+      </c>
+      <c r="F21" s="13">
+        <v>2</v>
+      </c>
+      <c r="G21" s="14">
+        <v>44202</v>
+      </c>
+      <c r="H21" s="13">
+        <v>5</v>
+      </c>
+      <c r="I21" s="13" t="s">
+        <v>3561</v>
+      </c>
+      <c r="J21" s="13" t="s">
+        <v>3661</v>
+      </c>
+      <c r="K21" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="L21" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="M21" s="22">
+        <v>44428</v>
+      </c>
+      <c r="N21" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="O21" s="22">
+        <v>44428</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A22" s="13" t="s">
+        <v>3268</v>
+      </c>
+      <c r="B22" s="21" t="s">
+        <v>1358</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>3367</v>
+      </c>
+      <c r="D22" s="13" t="s">
+        <v>3462</v>
+      </c>
+      <c r="E22" s="13">
+        <v>92345678930</v>
+      </c>
+      <c r="F22" s="13">
+        <v>1</v>
+      </c>
+      <c r="G22" s="14">
+        <v>44383</v>
+      </c>
+      <c r="H22" s="13">
+        <v>1</v>
+      </c>
+      <c r="I22" s="13" t="s">
+        <v>3562</v>
+      </c>
+      <c r="J22" s="13" t="s">
+        <v>3662</v>
+      </c>
+      <c r="K22" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="L22" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="M22" s="22">
+        <v>44429</v>
+      </c>
+      <c r="N22" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="O22" s="22">
+        <v>44429</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A23" s="13" t="s">
+        <v>3269</v>
+      </c>
+      <c r="B23" s="21" t="s">
+        <v>1359</v>
+      </c>
+      <c r="C23" s="13" t="s">
+        <v>3368</v>
+      </c>
+      <c r="D23" s="13" t="s">
+        <v>3463</v>
+      </c>
+      <c r="E23" s="13">
+        <v>92345678931</v>
+      </c>
+      <c r="F23" s="13">
+        <v>2</v>
+      </c>
+      <c r="G23" s="14">
+        <v>44418</v>
+      </c>
+      <c r="H23" s="13">
+        <v>2</v>
+      </c>
+      <c r="I23" s="13" t="s">
+        <v>3563</v>
+      </c>
+      <c r="J23" s="13" t="s">
+        <v>3663</v>
+      </c>
+      <c r="K23" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="L23" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="M23" s="22">
+        <v>44430</v>
+      </c>
+      <c r="N23" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="O23" s="22">
+        <v>44430</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A24" s="13" t="s">
+        <v>3270</v>
+      </c>
+      <c r="B24" s="21" t="s">
+        <v>1360</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>3369</v>
+      </c>
+      <c r="D24" s="13" t="s">
+        <v>3464</v>
+      </c>
+      <c r="E24" s="13">
+        <v>92345678932</v>
+      </c>
+      <c r="F24" s="13">
+        <v>1</v>
+      </c>
+      <c r="G24" s="14">
+        <v>44245</v>
+      </c>
+      <c r="H24" s="13">
+        <v>3</v>
+      </c>
+      <c r="I24" s="13" t="s">
+        <v>3564</v>
+      </c>
+      <c r="J24" s="13" t="s">
+        <v>3664</v>
+      </c>
+      <c r="K24" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="L24" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="M24" s="22">
+        <v>44431</v>
+      </c>
+      <c r="N24" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="O24" s="22">
+        <v>44431</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A25" s="13" t="s">
+        <v>3271</v>
+      </c>
+      <c r="B25" s="21" t="s">
+        <v>1361</v>
+      </c>
+      <c r="C25" s="13" t="s">
+        <v>3370</v>
+      </c>
+      <c r="D25" s="13" t="s">
+        <v>3465</v>
+      </c>
+      <c r="E25" s="13">
+        <v>92345678933</v>
+      </c>
+      <c r="F25" s="13">
+        <v>2</v>
+      </c>
+      <c r="G25" s="14">
+        <v>44190</v>
+      </c>
+      <c r="H25" s="13">
+        <v>4</v>
+      </c>
+      <c r="I25" s="13" t="s">
+        <v>3565</v>
+      </c>
+      <c r="J25" s="13" t="s">
+        <v>3665</v>
+      </c>
+      <c r="K25" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="L25" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="M25" s="22">
+        <v>44432</v>
+      </c>
+      <c r="N25" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="O25" s="22">
+        <v>44432</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A26" s="13" t="s">
+        <v>3272</v>
+      </c>
+      <c r="B26" s="21" t="s">
+        <v>1362</v>
+      </c>
+      <c r="C26" s="13" t="s">
+        <v>3371</v>
+      </c>
+      <c r="D26" s="13" t="s">
+        <v>3466</v>
+      </c>
+      <c r="E26" s="13">
+        <v>92345678934</v>
+      </c>
+      <c r="F26" s="13">
+        <v>1</v>
+      </c>
+      <c r="G26" s="14">
+        <v>44058</v>
+      </c>
+      <c r="H26" s="13">
+        <v>5</v>
+      </c>
+      <c r="I26" s="13" t="s">
+        <v>3566</v>
+      </c>
+      <c r="J26" s="13" t="s">
+        <v>3666</v>
+      </c>
+      <c r="K26" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="L26" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="M26" s="22">
+        <v>44433</v>
+      </c>
+      <c r="N26" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="O26" s="22">
+        <v>44433</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A27" s="13" t="s">
+        <v>3273</v>
+      </c>
+      <c r="B27" s="21" t="s">
+        <v>1363</v>
+      </c>
+      <c r="C27" s="13" t="s">
+        <v>3372</v>
+      </c>
+      <c r="D27" s="13" t="s">
+        <v>3467</v>
+      </c>
+      <c r="E27" s="13">
+        <v>92345678935</v>
+      </c>
+      <c r="F27" s="13">
+        <v>2</v>
+      </c>
+      <c r="G27" s="14">
+        <v>44277</v>
+      </c>
+      <c r="H27" s="13">
+        <v>1</v>
+      </c>
+      <c r="I27" s="13" t="s">
+        <v>3567</v>
+      </c>
+      <c r="J27" s="13" t="s">
+        <v>3667</v>
+      </c>
+      <c r="K27" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="L27" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="M27" s="22">
+        <v>44434</v>
+      </c>
+      <c r="N27" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="O27" s="22">
+        <v>44434</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A28" s="13" t="s">
+        <v>3274</v>
+      </c>
+      <c r="B28" s="21" t="s">
+        <v>1364</v>
+      </c>
+      <c r="C28" s="13" t="s">
+        <v>3373</v>
+      </c>
+      <c r="D28" s="13" t="s">
+        <v>3468</v>
+      </c>
+      <c r="E28" s="13">
+        <v>92345678936</v>
+      </c>
+      <c r="F28" s="13">
+        <v>1</v>
+      </c>
+      <c r="G28" s="14">
+        <v>44183</v>
+      </c>
+      <c r="H28" s="13">
+        <v>2</v>
+      </c>
+      <c r="I28" s="13" t="s">
+        <v>3568</v>
+      </c>
+      <c r="J28" s="13" t="s">
+        <v>3668</v>
+      </c>
+      <c r="K28" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="L28" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="M28" s="22">
+        <v>44435</v>
+      </c>
+      <c r="N28" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="O28" s="22">
+        <v>44435</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A29" s="13" t="s">
+        <v>3275</v>
+      </c>
+      <c r="B29" s="21" t="s">
+        <v>1365</v>
+      </c>
+      <c r="C29" s="13" t="s">
+        <v>3374</v>
+      </c>
+      <c r="D29" s="13" t="s">
+        <v>3469</v>
+      </c>
+      <c r="E29" s="13">
+        <v>92345678937</v>
+      </c>
+      <c r="F29" s="13">
+        <v>2</v>
+      </c>
+      <c r="G29" s="14">
+        <v>44058</v>
+      </c>
+      <c r="H29" s="13">
+        <v>3</v>
+      </c>
+      <c r="I29" s="13" t="s">
+        <v>3569</v>
+      </c>
+      <c r="J29" s="13" t="s">
+        <v>3669</v>
+      </c>
+      <c r="K29" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="L29" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="M29" s="22">
+        <v>44436</v>
+      </c>
+      <c r="N29" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="O29" s="22">
+        <v>44436</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A30" s="13" t="s">
+        <v>3276</v>
+      </c>
+      <c r="B30" s="21" t="s">
+        <v>1366</v>
+      </c>
+      <c r="C30" s="13" t="s">
+        <v>3375</v>
+      </c>
+      <c r="D30" s="13" t="s">
+        <v>3470</v>
+      </c>
+      <c r="E30" s="13">
+        <v>92345678938</v>
+      </c>
+      <c r="F30" s="13">
+        <v>1</v>
+      </c>
+      <c r="G30" s="14">
+        <v>44130</v>
+      </c>
+      <c r="H30" s="13">
+        <v>4</v>
+      </c>
+      <c r="I30" s="13" t="s">
+        <v>3570</v>
+      </c>
+      <c r="J30" s="13" t="s">
+        <v>3670</v>
+      </c>
+      <c r="K30" s="21" t="s">
+        <v>100</v>
+      </c>
+      <c r="L30" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="M30" s="22">
+        <v>44437</v>
+      </c>
+      <c r="N30" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="O30" s="22">
+        <v>44437</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A31" s="13" t="s">
+        <v>3277</v>
+      </c>
+      <c r="B31" s="21" t="s">
+        <v>1367</v>
+      </c>
+      <c r="C31" s="13" t="s">
+        <v>3376</v>
+      </c>
+      <c r="D31" s="13" t="s">
+        <v>3471</v>
+      </c>
+      <c r="E31" s="13">
+        <v>92345678939</v>
+      </c>
+      <c r="F31" s="13">
+        <v>2</v>
+      </c>
+      <c r="G31" s="14">
+        <v>44092</v>
+      </c>
+      <c r="H31" s="13">
+        <v>5</v>
+      </c>
+      <c r="I31" s="13" t="s">
+        <v>3571</v>
+      </c>
+      <c r="J31" s="13" t="s">
+        <v>3671</v>
+      </c>
+      <c r="K31" s="21" t="s">
+        <v>101</v>
+      </c>
+      <c r="L31" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="M31" s="22">
+        <v>44438</v>
+      </c>
+      <c r="N31" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="O31" s="22">
+        <v>44438</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A32" s="13" t="s">
+        <v>3278</v>
+      </c>
+      <c r="B32" s="21" t="s">
+        <v>1368</v>
+      </c>
+      <c r="C32" s="13" t="s">
+        <v>3377</v>
+      </c>
+      <c r="D32" s="13" t="s">
+        <v>3472</v>
+      </c>
+      <c r="E32" s="13">
+        <v>92345678940</v>
+      </c>
+      <c r="F32" s="13">
+        <v>1</v>
+      </c>
+      <c r="G32" s="14">
+        <v>44312</v>
+      </c>
+      <c r="H32" s="13">
+        <v>1</v>
+      </c>
+      <c r="I32" s="13" t="s">
+        <v>3572</v>
+      </c>
+      <c r="J32" s="13" t="s">
+        <v>3672</v>
+      </c>
+      <c r="K32" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="L32" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="M32" s="22">
+        <v>44439</v>
+      </c>
+      <c r="N32" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="O32" s="22">
+        <v>44439</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A33" s="13" t="s">
+        <v>3279</v>
+      </c>
+      <c r="B33" s="21" t="s">
+        <v>1369</v>
+      </c>
+      <c r="C33" s="13" t="s">
+        <v>3378</v>
+      </c>
+      <c r="D33" s="13" t="s">
+        <v>3473</v>
+      </c>
+      <c r="E33" s="13">
+        <v>92345678941</v>
+      </c>
+      <c r="F33" s="13">
+        <v>2</v>
+      </c>
+      <c r="G33" s="14">
+        <v>44155</v>
+      </c>
+      <c r="H33" s="13">
+        <v>2</v>
+      </c>
+      <c r="I33" s="13" t="s">
+        <v>3573</v>
+      </c>
+      <c r="J33" s="13" t="s">
+        <v>3673</v>
+      </c>
+      <c r="K33" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="L33" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="M33" s="22">
+        <v>44440</v>
+      </c>
+      <c r="N33" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="O33" s="22">
+        <v>44440</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A34" s="13" t="s">
+        <v>3280</v>
+      </c>
+      <c r="B34" s="21" t="s">
+        <v>1370</v>
+      </c>
+      <c r="C34" s="13" t="s">
+        <v>3379</v>
+      </c>
+      <c r="D34" s="13" t="s">
+        <v>3474</v>
+      </c>
+      <c r="E34" s="13">
+        <v>92345678942</v>
+      </c>
+      <c r="F34" s="13">
+        <v>1</v>
+      </c>
+      <c r="G34" s="14">
+        <v>44233</v>
+      </c>
+      <c r="H34" s="13">
+        <v>3</v>
+      </c>
+      <c r="I34" s="13" t="s">
+        <v>3574</v>
+      </c>
+      <c r="J34" s="13" t="s">
+        <v>3674</v>
+      </c>
+      <c r="K34" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="L34" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="M34" s="22">
+        <v>44441</v>
+      </c>
+      <c r="N34" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="O34" s="22">
+        <v>44441</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A35" s="13" t="s">
+        <v>3281</v>
+      </c>
+      <c r="B35" s="21" t="s">
+        <v>1371</v>
+      </c>
+      <c r="C35" s="13" t="s">
+        <v>3380</v>
+      </c>
+      <c r="D35" s="13" t="s">
+        <v>3475</v>
+      </c>
+      <c r="E35" s="13">
+        <v>92345678943</v>
+      </c>
+      <c r="F35" s="13">
+        <v>2</v>
+      </c>
+      <c r="G35" s="14">
+        <v>44262</v>
+      </c>
+      <c r="H35" s="13">
+        <v>4</v>
+      </c>
+      <c r="I35" s="13" t="s">
+        <v>3575</v>
+      </c>
+      <c r="J35" s="13" t="s">
+        <v>3675</v>
+      </c>
+      <c r="K35" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="L35" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="M35" s="22">
+        <v>44442</v>
+      </c>
+      <c r="N35" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="O35" s="22">
+        <v>44442</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A36" s="13" t="s">
+        <v>3282</v>
+      </c>
+      <c r="B36" s="21" t="s">
+        <v>1372</v>
+      </c>
+      <c r="C36" s="13" t="s">
+        <v>3381</v>
+      </c>
+      <c r="D36" s="13" t="s">
+        <v>3476</v>
+      </c>
+      <c r="E36" s="13">
+        <v>92345678944</v>
+      </c>
+      <c r="F36" s="13">
+        <v>1</v>
+      </c>
+      <c r="G36" s="14">
+        <v>44326</v>
+      </c>
+      <c r="H36" s="13">
+        <v>5</v>
+      </c>
+      <c r="I36" s="13" t="s">
+        <v>3576</v>
+      </c>
+      <c r="J36" s="13" t="s">
+        <v>3676</v>
+      </c>
+      <c r="K36" s="21" t="s">
+        <v>106</v>
+      </c>
+      <c r="L36" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="M36" s="22">
+        <v>44443</v>
+      </c>
+      <c r="N36" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="O36" s="22">
+        <v>44443</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A37" s="13" t="s">
+        <v>3283</v>
+      </c>
+      <c r="B37" s="21" t="s">
+        <v>1373</v>
+      </c>
+      <c r="C37" s="13" t="s">
+        <v>3382</v>
+      </c>
+      <c r="D37" s="13" t="s">
+        <v>3477</v>
+      </c>
+      <c r="E37" s="13">
+        <v>92345678945</v>
+      </c>
+      <c r="F37" s="13">
+        <v>2</v>
+      </c>
+      <c r="G37" s="14">
+        <v>44313</v>
+      </c>
+      <c r="H37" s="13">
+        <v>1</v>
+      </c>
+      <c r="I37" s="13" t="s">
+        <v>3577</v>
+      </c>
+      <c r="J37" s="13" t="s">
+        <v>3677</v>
+      </c>
+      <c r="K37" s="21" t="s">
+        <v>107</v>
+      </c>
+      <c r="L37" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="M37" s="22">
+        <v>44444</v>
+      </c>
+      <c r="N37" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="O37" s="22">
+        <v>44444</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A38" s="13" t="s">
+        <v>3284</v>
+      </c>
+      <c r="B38" s="21" t="s">
+        <v>1374</v>
+      </c>
+      <c r="C38" s="13" t="s">
+        <v>3383</v>
+      </c>
+      <c r="D38" s="13" t="s">
+        <v>3478</v>
+      </c>
+      <c r="E38" s="13">
+        <v>92345678946</v>
+      </c>
+      <c r="F38" s="13">
+        <v>1</v>
+      </c>
+      <c r="G38" s="14">
+        <v>44277</v>
+      </c>
+      <c r="H38" s="13">
+        <v>2</v>
+      </c>
+      <c r="I38" s="13" t="s">
+        <v>3578</v>
+      </c>
+      <c r="J38" s="13" t="s">
+        <v>3678</v>
+      </c>
+      <c r="K38" s="21" t="s">
+        <v>108</v>
+      </c>
+      <c r="L38" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="M38" s="22">
+        <v>44445</v>
+      </c>
+      <c r="N38" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="O38" s="22">
+        <v>44445</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A39" s="13" t="s">
+        <v>3285</v>
+      </c>
+      <c r="B39" s="21" t="s">
+        <v>1375</v>
+      </c>
+      <c r="C39" s="13" t="s">
+        <v>3384</v>
+      </c>
+      <c r="D39" s="13" t="s">
+        <v>3479</v>
+      </c>
+      <c r="E39" s="13">
+        <v>92345678947</v>
+      </c>
+      <c r="F39" s="13">
+        <v>2</v>
+      </c>
+      <c r="G39" s="14">
+        <v>44091</v>
+      </c>
+      <c r="H39" s="13">
+        <v>3</v>
+      </c>
+      <c r="I39" s="13" t="s">
+        <v>3579</v>
+      </c>
+      <c r="J39" s="13" t="s">
+        <v>3679</v>
+      </c>
+      <c r="K39" s="21" t="s">
+        <v>109</v>
+      </c>
+      <c r="L39" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="M39" s="22">
+        <v>44446</v>
+      </c>
+      <c r="N39" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="O39" s="22">
+        <v>44446</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A40" s="13" t="s">
+        <v>3286</v>
+      </c>
+      <c r="B40" s="21" t="s">
+        <v>1376</v>
+      </c>
+      <c r="C40" s="13" t="s">
+        <v>3385</v>
+      </c>
+      <c r="D40" s="13" t="s">
+        <v>3480</v>
+      </c>
+      <c r="E40" s="13">
+        <v>92345678948</v>
+      </c>
+      <c r="F40" s="13">
+        <v>1</v>
+      </c>
+      <c r="G40" s="14">
+        <v>44204</v>
+      </c>
+      <c r="H40" s="13">
+        <v>4</v>
+      </c>
+      <c r="I40" s="13" t="s">
+        <v>3580</v>
+      </c>
+      <c r="J40" s="13" t="s">
+        <v>3680</v>
+      </c>
+      <c r="K40" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="L40" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="M40" s="22">
+        <v>44447</v>
+      </c>
+      <c r="N40" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="O40" s="22">
+        <v>44447</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A41" s="13" t="s">
+        <v>3287</v>
+      </c>
+      <c r="B41" s="21" t="s">
+        <v>1377</v>
+      </c>
+      <c r="C41" s="13" t="s">
+        <v>3386</v>
+      </c>
+      <c r="D41" s="13" t="s">
+        <v>3481</v>
+      </c>
+      <c r="E41" s="13">
+        <v>92345678949</v>
+      </c>
+      <c r="F41" s="13">
+        <v>2</v>
+      </c>
+      <c r="G41" s="14">
+        <v>44142</v>
+      </c>
+      <c r="H41" s="13">
+        <v>5</v>
+      </c>
+      <c r="I41" s="13" t="s">
+        <v>3581</v>
+      </c>
+      <c r="J41" s="13" t="s">
+        <v>3681</v>
+      </c>
+      <c r="K41" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="L41" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="M41" s="22">
+        <v>44448</v>
+      </c>
+      <c r="N41" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="O41" s="22">
+        <v>44448</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A42" s="13" t="s">
+        <v>3288</v>
+      </c>
+      <c r="B42" s="21" t="s">
+        <v>1378</v>
+      </c>
+      <c r="C42" s="13" t="s">
+        <v>3387</v>
+      </c>
+      <c r="D42" s="13" t="s">
+        <v>3482</v>
+      </c>
+      <c r="E42" s="13">
+        <v>92345678950</v>
+      </c>
+      <c r="F42" s="13">
+        <v>1</v>
+      </c>
+      <c r="G42" s="14">
+        <v>44388</v>
+      </c>
+      <c r="H42" s="13">
+        <v>1</v>
+      </c>
+      <c r="I42" s="13" t="s">
+        <v>3582</v>
+      </c>
+      <c r="J42" s="13" t="s">
+        <v>3682</v>
+      </c>
+      <c r="K42" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="L42" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="M42" s="22">
+        <v>44449</v>
+      </c>
+      <c r="N42" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="O42" s="22">
+        <v>44449</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A43" s="13" t="s">
+        <v>3289</v>
+      </c>
+      <c r="B43" s="21" t="s">
+        <v>1379</v>
+      </c>
+      <c r="C43" s="13" t="s">
+        <v>3388</v>
+      </c>
+      <c r="D43" s="13" t="s">
+        <v>3483</v>
+      </c>
+      <c r="E43" s="13">
+        <v>92345678951</v>
+      </c>
+      <c r="F43" s="13">
+        <v>2</v>
+      </c>
+      <c r="G43" s="14">
+        <v>44363</v>
+      </c>
+      <c r="H43" s="13">
+        <v>2</v>
+      </c>
+      <c r="I43" s="13" t="s">
+        <v>3583</v>
+      </c>
+      <c r="J43" s="13" t="s">
+        <v>3683</v>
+      </c>
+      <c r="K43" s="21" t="s">
+        <v>113</v>
+      </c>
+      <c r="L43" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="M43" s="22">
+        <v>44450</v>
+      </c>
+      <c r="N43" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="O43" s="22">
+        <v>44450</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A44" s="13" t="s">
+        <v>3290</v>
+      </c>
+      <c r="B44" s="21" t="s">
+        <v>1380</v>
+      </c>
+      <c r="C44" s="13" t="s">
+        <v>3389</v>
+      </c>
+      <c r="D44" s="13" t="s">
+        <v>3484</v>
+      </c>
+      <c r="E44" s="13">
+        <v>92345678952</v>
+      </c>
+      <c r="F44" s="13">
+        <v>1</v>
+      </c>
+      <c r="G44" s="14">
+        <v>44095</v>
+      </c>
+      <c r="H44" s="13">
+        <v>3</v>
+      </c>
+      <c r="I44" s="13" t="s">
+        <v>3584</v>
+      </c>
+      <c r="J44" s="13" t="s">
+        <v>3684</v>
+      </c>
+      <c r="K44" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="L44" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="M44" s="22">
+        <v>44451</v>
+      </c>
+      <c r="N44" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="O44" s="22">
+        <v>44451</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A45" s="13" t="s">
+        <v>3291</v>
+      </c>
+      <c r="B45" s="21" t="s">
+        <v>1381</v>
+      </c>
+      <c r="C45" s="13" t="s">
+        <v>3390</v>
+      </c>
+      <c r="D45" s="13" t="s">
+        <v>3485</v>
+      </c>
+      <c r="E45" s="13">
+        <v>92345678953</v>
+      </c>
+      <c r="F45" s="13">
+        <v>2</v>
+      </c>
+      <c r="G45" s="14">
+        <v>44388</v>
+      </c>
+      <c r="H45" s="13">
+        <v>4</v>
+      </c>
+      <c r="I45" s="13" t="s">
+        <v>3585</v>
+      </c>
+      <c r="J45" s="13" t="s">
+        <v>3685</v>
+      </c>
+      <c r="K45" s="21" t="s">
+        <v>115</v>
+      </c>
+      <c r="L45" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="M45" s="22">
+        <v>44452</v>
+      </c>
+      <c r="N45" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="O45" s="22">
+        <v>44452</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A46" s="13" t="s">
+        <v>3292</v>
+      </c>
+      <c r="B46" s="21" t="s">
+        <v>1382</v>
+      </c>
+      <c r="C46" s="13" t="s">
+        <v>3391</v>
+      </c>
+      <c r="D46" s="13" t="s">
+        <v>3486</v>
+      </c>
+      <c r="E46" s="13">
+        <v>92345678954</v>
+      </c>
+      <c r="F46" s="13">
+        <v>1</v>
+      </c>
+      <c r="G46" s="14">
+        <v>44401</v>
+      </c>
+      <c r="H46" s="13">
+        <v>5</v>
+      </c>
+      <c r="I46" s="13" t="s">
+        <v>3586</v>
+      </c>
+      <c r="J46" s="13" t="s">
+        <v>3686</v>
+      </c>
+      <c r="K46" s="21" t="s">
+        <v>116</v>
+      </c>
+      <c r="L46" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="M46" s="22">
+        <v>44453</v>
+      </c>
+      <c r="N46" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="O46" s="22">
+        <v>44453</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A47" s="13" t="s">
+        <v>3293</v>
+      </c>
+      <c r="B47" s="21" t="s">
+        <v>1383</v>
+      </c>
+      <c r="C47" s="13" t="s">
+        <v>3392</v>
+      </c>
+      <c r="D47" s="13" t="s">
+        <v>3487</v>
+      </c>
+      <c r="E47" s="13">
+        <v>92345678955</v>
+      </c>
+      <c r="F47" s="13">
+        <v>2</v>
+      </c>
+      <c r="G47" s="14">
+        <v>44273</v>
+      </c>
+      <c r="H47" s="13">
+        <v>1</v>
+      </c>
+      <c r="I47" s="13" t="s">
+        <v>3587</v>
+      </c>
+      <c r="J47" s="13" t="s">
+        <v>3687</v>
+      </c>
+      <c r="K47" s="21" t="s">
+        <v>117</v>
+      </c>
+      <c r="L47" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="M47" s="22">
+        <v>44454</v>
+      </c>
+      <c r="N47" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="O47" s="22">
+        <v>44454</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A48" s="13" t="s">
+        <v>3294</v>
+      </c>
+      <c r="B48" s="21" t="s">
+        <v>1384</v>
+      </c>
+      <c r="C48" s="13" t="s">
+        <v>3393</v>
+      </c>
+      <c r="D48" s="13" t="s">
+        <v>3488</v>
+      </c>
+      <c r="E48" s="13">
+        <v>92345678956</v>
+      </c>
+      <c r="F48" s="13">
+        <v>1</v>
+      </c>
+      <c r="G48" s="14">
+        <v>44366</v>
+      </c>
+      <c r="H48" s="13">
+        <v>2</v>
+      </c>
+      <c r="I48" s="13" t="s">
+        <v>3588</v>
+      </c>
+      <c r="J48" s="13" t="s">
+        <v>3688</v>
+      </c>
+      <c r="K48" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="L48" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="M48" s="22">
+        <v>44455</v>
+      </c>
+      <c r="N48" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="O48" s="22">
+        <v>44455</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A49" s="13" t="s">
+        <v>3295</v>
+      </c>
+      <c r="B49" s="21" t="s">
+        <v>1385</v>
+      </c>
+      <c r="C49" s="13" t="s">
+        <v>3394</v>
+      </c>
+      <c r="D49" s="13" t="s">
+        <v>3489</v>
+      </c>
+      <c r="E49" s="13">
+        <v>92345678957</v>
+      </c>
+      <c r="F49" s="13">
+        <v>2</v>
+      </c>
+      <c r="G49" s="14">
+        <v>44086</v>
+      </c>
+      <c r="H49" s="13">
+        <v>3</v>
+      </c>
+      <c r="I49" s="13" t="s">
+        <v>3589</v>
+      </c>
+      <c r="J49" s="13" t="s">
+        <v>3689</v>
+      </c>
+      <c r="K49" s="21" t="s">
+        <v>119</v>
+      </c>
+      <c r="L49" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="M49" s="22">
+        <v>44456</v>
+      </c>
+      <c r="N49" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="O49" s="22">
+        <v>44456</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A50" s="13" t="s">
+        <v>3296</v>
+      </c>
+      <c r="B50" s="21" t="s">
+        <v>1386</v>
+      </c>
+      <c r="C50" s="13" t="s">
+        <v>3395</v>
+      </c>
+      <c r="D50" s="13" t="s">
+        <v>3490</v>
+      </c>
+      <c r="E50" s="13">
+        <v>92345678958</v>
+      </c>
+      <c r="F50" s="13">
+        <v>1</v>
+      </c>
+      <c r="G50" s="14">
+        <v>44189</v>
+      </c>
+      <c r="H50" s="13">
+        <v>4</v>
+      </c>
+      <c r="I50" s="13" t="s">
+        <v>3590</v>
+      </c>
+      <c r="J50" s="13" t="s">
+        <v>3690</v>
+      </c>
+      <c r="K50" s="21" t="s">
+        <v>120</v>
+      </c>
+      <c r="L50" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="M50" s="22">
+        <v>44457</v>
+      </c>
+      <c r="N50" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="O50" s="22">
+        <v>44457</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A51" s="13" t="s">
+        <v>3297</v>
+      </c>
+      <c r="B51" s="21" t="s">
+        <v>1387</v>
+      </c>
+      <c r="C51" s="13" t="s">
+        <v>3396</v>
+      </c>
+      <c r="D51" s="13" t="s">
+        <v>3491</v>
+      </c>
+      <c r="E51" s="13">
+        <v>92345678959</v>
+      </c>
+      <c r="F51" s="13">
+        <v>2</v>
+      </c>
+      <c r="G51" s="14">
+        <v>44390</v>
+      </c>
+      <c r="H51" s="13">
+        <v>5</v>
+      </c>
+      <c r="I51" s="13" t="s">
+        <v>3591</v>
+      </c>
+      <c r="J51" s="13" t="s">
+        <v>3691</v>
+      </c>
+      <c r="K51" s="21" t="s">
+        <v>121</v>
+      </c>
+      <c r="L51" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="M51" s="22">
+        <v>44458</v>
+      </c>
+      <c r="N51" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="O51" s="22">
+        <v>44458</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A52" s="13" t="s">
+        <v>3298</v>
+      </c>
+      <c r="B52" s="21" t="s">
+        <v>1388</v>
+      </c>
+      <c r="C52" s="13" t="s">
+        <v>3397</v>
+      </c>
+      <c r="D52" s="13" t="s">
+        <v>3492</v>
+      </c>
+      <c r="E52" s="13">
+        <v>92345678960</v>
+      </c>
+      <c r="F52" s="13">
+        <v>1</v>
+      </c>
+      <c r="G52" s="14">
+        <v>44374</v>
+      </c>
+      <c r="H52" s="13">
+        <v>1</v>
+      </c>
+      <c r="I52" s="13" t="s">
+        <v>3592</v>
+      </c>
+      <c r="J52" s="13" t="s">
+        <v>3692</v>
+      </c>
+      <c r="K52" s="21" t="s">
+        <v>122</v>
+      </c>
+      <c r="L52" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="M52" s="22">
+        <v>44459</v>
+      </c>
+      <c r="N52" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="O52" s="22">
+        <v>44459</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A53" s="13" t="s">
+        <v>3299</v>
+      </c>
+      <c r="B53" s="21" t="s">
+        <v>1389</v>
+      </c>
+      <c r="C53" s="13" t="s">
+        <v>3398</v>
+      </c>
+      <c r="D53" s="13" t="s">
+        <v>3493</v>
+      </c>
+      <c r="E53" s="13">
+        <v>92345678961</v>
+      </c>
+      <c r="F53" s="13">
+        <v>2</v>
+      </c>
+      <c r="G53" s="14">
+        <v>44302</v>
+      </c>
+      <c r="H53" s="13">
+        <v>2</v>
+      </c>
+      <c r="I53" s="13" t="s">
+        <v>3593</v>
+      </c>
+      <c r="J53" s="13" t="s">
+        <v>3693</v>
+      </c>
+      <c r="K53" s="21" t="s">
+        <v>123</v>
+      </c>
+      <c r="L53" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="M53" s="22">
+        <v>44460</v>
+      </c>
+      <c r="N53" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="O53" s="22">
+        <v>44460</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A54" s="13" t="s">
+        <v>3300</v>
+      </c>
+      <c r="B54" s="21" t="s">
+        <v>1390</v>
+      </c>
+      <c r="C54" s="13" t="s">
+        <v>1472</v>
+      </c>
+      <c r="D54" s="13" t="s">
+        <v>3494</v>
+      </c>
+      <c r="E54" s="13">
+        <v>92345678962</v>
+      </c>
+      <c r="F54" s="13">
+        <v>1</v>
+      </c>
+      <c r="G54" s="14">
+        <v>44289</v>
+      </c>
+      <c r="H54" s="13">
+        <v>3</v>
+      </c>
+      <c r="I54" s="13" t="s">
+        <v>3594</v>
+      </c>
+      <c r="J54" s="13" t="s">
+        <v>3694</v>
+      </c>
+      <c r="K54" s="21" t="s">
+        <v>124</v>
+      </c>
+      <c r="L54" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="M54" s="22">
+        <v>44461</v>
+      </c>
+      <c r="N54" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="O54" s="22">
+        <v>44461</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A55" s="13" t="s">
+        <v>3301</v>
+      </c>
+      <c r="B55" s="21" t="s">
+        <v>1391</v>
+      </c>
+      <c r="C55" s="13" t="s">
+        <v>3399</v>
+      </c>
+      <c r="D55" s="13" t="s">
+        <v>3495</v>
+      </c>
+      <c r="E55" s="13">
+        <v>92345678963</v>
+      </c>
+      <c r="F55" s="13">
+        <v>2</v>
+      </c>
+      <c r="G55" s="14">
+        <v>44172</v>
+      </c>
+      <c r="H55" s="13">
+        <v>4</v>
+      </c>
+      <c r="I55" s="13" t="s">
+        <v>3595</v>
+      </c>
+      <c r="J55" s="13" t="s">
+        <v>3695</v>
+      </c>
+      <c r="K55" s="21" t="s">
+        <v>125</v>
+      </c>
+      <c r="L55" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="M55" s="22">
+        <v>44462</v>
+      </c>
+      <c r="N55" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="O55" s="22">
+        <v>44462</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A56" s="13" t="s">
+        <v>3302</v>
+      </c>
+      <c r="B56" s="21" t="s">
+        <v>1392</v>
+      </c>
+      <c r="C56" s="13" t="s">
+        <v>3400</v>
+      </c>
+      <c r="D56" s="13" t="s">
+        <v>3496</v>
+      </c>
+      <c r="E56" s="13">
+        <v>92345678964</v>
+      </c>
+      <c r="F56" s="13">
+        <v>1</v>
+      </c>
+      <c r="G56" s="14">
+        <v>44392</v>
+      </c>
+      <c r="H56" s="13">
+        <v>5</v>
+      </c>
+      <c r="I56" s="13" t="s">
+        <v>3596</v>
+      </c>
+      <c r="J56" s="13" t="s">
+        <v>3696</v>
+      </c>
+      <c r="K56" s="21" t="s">
+        <v>126</v>
+      </c>
+      <c r="L56" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="M56" s="22">
+        <v>44463</v>
+      </c>
+      <c r="N56" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="O56" s="22">
+        <v>44463</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A57" s="13" t="s">
+        <v>3303</v>
+      </c>
+      <c r="B57" s="21" t="s">
+        <v>1393</v>
+      </c>
+      <c r="C57" s="13" t="s">
+        <v>3401</v>
+      </c>
+      <c r="D57" s="13" t="s">
+        <v>3497</v>
+      </c>
+      <c r="E57" s="13">
+        <v>92345678965</v>
+      </c>
+      <c r="F57" s="13">
+        <v>2</v>
+      </c>
+      <c r="G57" s="14">
+        <v>44360</v>
+      </c>
+      <c r="H57" s="13">
+        <v>1</v>
+      </c>
+      <c r="I57" s="13" t="s">
+        <v>3597</v>
+      </c>
+      <c r="J57" s="13" t="s">
+        <v>3697</v>
+      </c>
+      <c r="K57" s="21" t="s">
+        <v>127</v>
+      </c>
+      <c r="L57" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="M57" s="22">
+        <v>44464</v>
+      </c>
+      <c r="N57" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="O57" s="22">
+        <v>44464</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A58" s="13" t="s">
+        <v>3304</v>
+      </c>
+      <c r="B58" s="21" t="s">
+        <v>1394</v>
+      </c>
+      <c r="C58" s="13" t="s">
+        <v>3402</v>
+      </c>
+      <c r="D58" s="13" t="s">
+        <v>3498</v>
+      </c>
+      <c r="E58" s="13">
+        <v>92345678966</v>
+      </c>
+      <c r="F58" s="13">
+        <v>1</v>
+      </c>
+      <c r="G58" s="14">
+        <v>44388</v>
+      </c>
+      <c r="H58" s="13">
+        <v>2</v>
+      </c>
+      <c r="I58" s="13" t="s">
+        <v>3598</v>
+      </c>
+      <c r="J58" s="13" t="s">
+        <v>3698</v>
+      </c>
+      <c r="K58" s="21" t="s">
+        <v>128</v>
+      </c>
+      <c r="L58" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="M58" s="22">
+        <v>44465</v>
+      </c>
+      <c r="N58" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="O58" s="22">
+        <v>44465</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A59" s="13" t="s">
+        <v>3305</v>
+      </c>
+      <c r="B59" s="21" t="s">
+        <v>1395</v>
+      </c>
+      <c r="C59" s="13" t="s">
+        <v>3403</v>
+      </c>
+      <c r="D59" s="13" t="s">
+        <v>3499</v>
+      </c>
+      <c r="E59" s="13">
+        <v>92345678967</v>
+      </c>
+      <c r="F59" s="13">
+        <v>2</v>
+      </c>
+      <c r="G59" s="14">
+        <v>44138</v>
+      </c>
+      <c r="H59" s="13">
+        <v>3</v>
+      </c>
+      <c r="I59" s="13" t="s">
+        <v>3599</v>
+      </c>
+      <c r="J59" s="13" t="s">
+        <v>3699</v>
+      </c>
+      <c r="K59" s="21" t="s">
+        <v>129</v>
+      </c>
+      <c r="L59" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="M59" s="22">
+        <v>44466</v>
+      </c>
+      <c r="N59" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="O59" s="22">
+        <v>44466</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A60" s="13" t="s">
+        <v>3306</v>
+      </c>
+      <c r="B60" s="21" t="s">
+        <v>1396</v>
+      </c>
+      <c r="C60" s="13" t="s">
+        <v>3404</v>
+      </c>
+      <c r="D60" s="13" t="s">
+        <v>3500</v>
+      </c>
+      <c r="E60" s="13">
+        <v>92345678968</v>
+      </c>
+      <c r="F60" s="13">
+        <v>1</v>
+      </c>
+      <c r="G60" s="14">
+        <v>44364</v>
+      </c>
+      <c r="H60" s="13">
+        <v>4</v>
+      </c>
+      <c r="I60" s="13" t="s">
+        <v>3600</v>
+      </c>
+      <c r="J60" s="13" t="s">
+        <v>3700</v>
+      </c>
+      <c r="K60" s="21" t="s">
+        <v>130</v>
+      </c>
+      <c r="L60" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="M60" s="22">
+        <v>44467</v>
+      </c>
+      <c r="N60" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="O60" s="22">
+        <v>44467</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A61" s="13" t="s">
+        <v>3307</v>
+      </c>
+      <c r="B61" s="21" t="s">
+        <v>1397</v>
+      </c>
+      <c r="C61" s="13" t="s">
+        <v>3405</v>
+      </c>
+      <c r="D61" s="13" t="s">
+        <v>3501</v>
+      </c>
+      <c r="E61" s="13">
+        <v>92345678969</v>
+      </c>
+      <c r="F61" s="13">
+        <v>2</v>
+      </c>
+      <c r="G61" s="14">
+        <v>44214</v>
+      </c>
+      <c r="H61" s="13">
+        <v>5</v>
+      </c>
+      <c r="I61" s="13" t="s">
+        <v>3601</v>
+      </c>
+      <c r="J61" s="13" t="s">
+        <v>3701</v>
+      </c>
+      <c r="K61" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="L61" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="M61" s="22">
+        <v>44468</v>
+      </c>
+      <c r="N61" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="O61" s="22">
+        <v>44468</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A62" s="13" t="s">
+        <v>3308</v>
+      </c>
+      <c r="B62" s="21" t="s">
+        <v>1398</v>
+      </c>
+      <c r="C62" s="13" t="s">
+        <v>3406</v>
+      </c>
+      <c r="D62" s="13" t="s">
+        <v>3502</v>
+      </c>
+      <c r="E62" s="13">
+        <v>92345678970</v>
+      </c>
+      <c r="F62" s="13">
+        <v>1</v>
+      </c>
+      <c r="G62" s="14">
+        <v>44249</v>
+      </c>
+      <c r="H62" s="13">
+        <v>1</v>
+      </c>
+      <c r="I62" s="13" t="s">
+        <v>3602</v>
+      </c>
+      <c r="J62" s="13" t="s">
+        <v>3702</v>
+      </c>
+      <c r="K62" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="L62" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="M62" s="22">
+        <v>44469</v>
+      </c>
+      <c r="N62" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="O62" s="22">
+        <v>44469</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A63" s="13" t="s">
+        <v>3309</v>
+      </c>
+      <c r="B63" s="21" t="s">
+        <v>1399</v>
+      </c>
+      <c r="C63" s="13" t="s">
+        <v>3407</v>
+      </c>
+      <c r="D63" s="13" t="s">
+        <v>3503</v>
+      </c>
+      <c r="E63" s="13">
+        <v>92345678971</v>
+      </c>
+      <c r="F63" s="13">
+        <v>2</v>
+      </c>
+      <c r="G63" s="14">
+        <v>44336</v>
+      </c>
+      <c r="H63" s="13">
+        <v>2</v>
+      </c>
+      <c r="I63" s="13" t="s">
+        <v>3603</v>
+      </c>
+      <c r="J63" s="13" t="s">
+        <v>3703</v>
+      </c>
+      <c r="K63" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="L63" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="M63" s="22">
+        <v>44470</v>
+      </c>
+      <c r="N63" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="O63" s="22">
+        <v>44470</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A64" s="13" t="s">
+        <v>3310</v>
+      </c>
+      <c r="B64" s="21" t="s">
+        <v>1400</v>
+      </c>
+      <c r="C64" s="13" t="s">
+        <v>3408</v>
+      </c>
+      <c r="D64" s="13" t="s">
+        <v>3504</v>
+      </c>
+      <c r="E64" s="13">
+        <v>92345678972</v>
+      </c>
+      <c r="F64" s="13">
+        <v>1</v>
+      </c>
+      <c r="G64" s="14">
+        <v>44415</v>
+      </c>
+      <c r="H64" s="13">
+        <v>3</v>
+      </c>
+      <c r="I64" s="13" t="s">
+        <v>3604</v>
+      </c>
+      <c r="J64" s="13" t="s">
+        <v>3704</v>
+      </c>
+      <c r="K64" s="21" t="s">
+        <v>134</v>
+      </c>
+      <c r="L64" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="M64" s="22">
+        <v>44471</v>
+      </c>
+      <c r="N64" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="O64" s="22">
+        <v>44471</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A65" s="13" t="s">
+        <v>3311</v>
+      </c>
+      <c r="B65" s="21" t="s">
+        <v>1401</v>
+      </c>
+      <c r="C65" s="13" t="s">
+        <v>3409</v>
+      </c>
+      <c r="D65" s="13" t="s">
+        <v>3505</v>
+      </c>
+      <c r="E65" s="13">
+        <v>92345678973</v>
+      </c>
+      <c r="F65" s="13">
+        <v>2</v>
+      </c>
+      <c r="G65" s="14">
+        <v>44078</v>
+      </c>
+      <c r="H65" s="13">
+        <v>4</v>
+      </c>
+      <c r="I65" s="13" t="s">
+        <v>3605</v>
+      </c>
+      <c r="J65" s="13" t="s">
+        <v>3705</v>
+      </c>
+      <c r="K65" s="21" t="s">
+        <v>135</v>
+      </c>
+      <c r="L65" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="M65" s="22">
+        <v>44472</v>
+      </c>
+      <c r="N65" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="O65" s="22">
+        <v>44472</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A66" s="13" t="s">
+        <v>3312</v>
+      </c>
+      <c r="B66" s="21" t="s">
+        <v>1402</v>
+      </c>
+      <c r="C66" s="13" t="s">
+        <v>3410</v>
+      </c>
+      <c r="D66" s="13" t="s">
+        <v>3506</v>
+      </c>
+      <c r="E66" s="13">
+        <v>92345678974</v>
+      </c>
+      <c r="F66" s="13">
+        <v>1</v>
+      </c>
+      <c r="G66" s="14">
+        <v>44380</v>
+      </c>
+      <c r="H66" s="13">
+        <v>5</v>
+      </c>
+      <c r="I66" s="13" t="s">
+        <v>3606</v>
+      </c>
+      <c r="J66" s="13" t="s">
+        <v>3706</v>
+      </c>
+      <c r="K66" s="21" t="s">
+        <v>136</v>
+      </c>
+      <c r="L66" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="M66" s="22">
+        <v>44473</v>
+      </c>
+      <c r="N66" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="O66" s="22">
+        <v>44473</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A67" s="13" t="s">
+        <v>3313</v>
+      </c>
+      <c r="B67" s="21" t="s">
+        <v>1403</v>
+      </c>
+      <c r="C67" s="13" t="s">
+        <v>3411</v>
+      </c>
+      <c r="D67" s="13" t="s">
+        <v>3507</v>
+      </c>
+      <c r="E67" s="13">
+        <v>92345678975</v>
+      </c>
+      <c r="F67" s="13">
+        <v>2</v>
+      </c>
+      <c r="G67" s="14">
+        <v>44321</v>
+      </c>
+      <c r="H67" s="13">
+        <v>1</v>
+      </c>
+      <c r="I67" s="13" t="s">
+        <v>3607</v>
+      </c>
+      <c r="J67" s="13" t="s">
+        <v>3707</v>
+      </c>
+      <c r="K67" s="21" t="s">
+        <v>137</v>
+      </c>
+      <c r="L67" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="M67" s="22">
+        <v>44474</v>
+      </c>
+      <c r="N67" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="O67" s="22">
+        <v>44474</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A68" s="13" t="s">
+        <v>3314</v>
+      </c>
+      <c r="B68" s="21" t="s">
+        <v>1404</v>
+      </c>
+      <c r="C68" s="13" t="s">
+        <v>3412</v>
+      </c>
+      <c r="D68" s="13" t="s">
+        <v>3508</v>
+      </c>
+      <c r="E68" s="13">
+        <v>92345678976</v>
+      </c>
+      <c r="F68" s="13">
+        <v>1</v>
+      </c>
+      <c r="G68" s="14">
+        <v>44070</v>
+      </c>
+      <c r="H68" s="13">
+        <v>2</v>
+      </c>
+      <c r="I68" s="13" t="s">
+        <v>3608</v>
+      </c>
+      <c r="J68" s="13" t="s">
+        <v>3708</v>
+      </c>
+      <c r="K68" s="21" t="s">
+        <v>138</v>
+      </c>
+      <c r="L68" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="M68" s="22">
+        <v>44475</v>
+      </c>
+      <c r="N68" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="O68" s="22">
+        <v>44475</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A69" s="13" t="s">
+        <v>3315</v>
+      </c>
+      <c r="B69" s="21" t="s">
+        <v>1405</v>
+      </c>
+      <c r="C69" s="13" t="s">
+        <v>3413</v>
+      </c>
+      <c r="D69" s="13" t="s">
+        <v>3509</v>
+      </c>
+      <c r="E69" s="13">
+        <v>92345678977</v>
+      </c>
+      <c r="F69" s="13">
+        <v>2</v>
+      </c>
+      <c r="G69" s="14">
+        <v>44084</v>
+      </c>
+      <c r="H69" s="13">
+        <v>3</v>
+      </c>
+      <c r="I69" s="13" t="s">
+        <v>3609</v>
+      </c>
+      <c r="J69" s="13" t="s">
+        <v>3709</v>
+      </c>
+      <c r="K69" s="21" t="s">
+        <v>139</v>
+      </c>
+      <c r="L69" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="M69" s="22">
+        <v>44476</v>
+      </c>
+      <c r="N69" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="O69" s="22">
+        <v>44476</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A70" s="13" t="s">
+        <v>3316</v>
+      </c>
+      <c r="B70" s="21" t="s">
+        <v>1406</v>
+      </c>
+      <c r="C70" s="13" t="s">
+        <v>3414</v>
+      </c>
+      <c r="D70" s="13" t="s">
+        <v>3510</v>
+      </c>
+      <c r="E70" s="13">
+        <v>92345678978</v>
+      </c>
+      <c r="F70" s="13">
+        <v>1</v>
+      </c>
+      <c r="G70" s="14">
+        <v>44301</v>
+      </c>
+      <c r="H70" s="13">
+        <v>4</v>
+      </c>
+      <c r="I70" s="13" t="s">
+        <v>3610</v>
+      </c>
+      <c r="J70" s="13" t="s">
+        <v>3710</v>
+      </c>
+      <c r="K70" s="21" t="s">
+        <v>140</v>
+      </c>
+      <c r="L70" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="M70" s="22">
+        <v>44477</v>
+      </c>
+      <c r="N70" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="O70" s="22">
+        <v>44477</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A71" s="13" t="s">
+        <v>3317</v>
+      </c>
+      <c r="B71" s="21" t="s">
+        <v>1407</v>
+      </c>
+      <c r="C71" s="13" t="s">
+        <v>3415</v>
+      </c>
+      <c r="D71" s="13" t="s">
+        <v>3511</v>
+      </c>
+      <c r="E71" s="13">
+        <v>92345678979</v>
+      </c>
+      <c r="F71" s="13">
+        <v>2</v>
+      </c>
+      <c r="G71" s="14">
+        <v>44311</v>
+      </c>
+      <c r="H71" s="13">
+        <v>5</v>
+      </c>
+      <c r="I71" s="13" t="s">
+        <v>3611</v>
+      </c>
+      <c r="J71" s="13" t="s">
+        <v>3711</v>
+      </c>
+      <c r="K71" s="21" t="s">
+        <v>141</v>
+      </c>
+      <c r="L71" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="M71" s="22">
+        <v>44478</v>
+      </c>
+      <c r="N71" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="O71" s="22">
+        <v>44478</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A72" s="13" t="s">
+        <v>3318</v>
+      </c>
+      <c r="B72" s="21" t="s">
+        <v>1408</v>
+      </c>
+      <c r="C72" s="13" t="s">
+        <v>3416</v>
+      </c>
+      <c r="D72" s="13" t="s">
+        <v>3512</v>
+      </c>
+      <c r="E72" s="13">
+        <v>92345678980</v>
+      </c>
+      <c r="F72" s="13">
+        <v>1</v>
+      </c>
+      <c r="G72" s="14">
+        <v>44215</v>
+      </c>
+      <c r="H72" s="13">
+        <v>1</v>
+      </c>
+      <c r="I72" s="13" t="s">
+        <v>3612</v>
+      </c>
+      <c r="J72" s="13" t="s">
+        <v>3712</v>
+      </c>
+      <c r="K72" s="21" t="s">
+        <v>142</v>
+      </c>
+      <c r="L72" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="M72" s="22">
+        <v>44479</v>
+      </c>
+      <c r="N72" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="O72" s="22">
+        <v>44479</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A73" s="13" t="s">
+        <v>3319</v>
+      </c>
+      <c r="B73" s="21" t="s">
+        <v>1409</v>
+      </c>
+      <c r="C73" s="13" t="s">
+        <v>3417</v>
+      </c>
+      <c r="D73" s="13" t="s">
+        <v>3513</v>
+      </c>
+      <c r="E73" s="13">
+        <v>92345678981</v>
+      </c>
+      <c r="F73" s="13">
+        <v>2</v>
+      </c>
+      <c r="G73" s="14">
+        <v>44326</v>
+      </c>
+      <c r="H73" s="13">
+        <v>2</v>
+      </c>
+      <c r="I73" s="13" t="s">
+        <v>3613</v>
+      </c>
+      <c r="J73" s="13" t="s">
+        <v>3713</v>
+      </c>
+      <c r="K73" s="21" t="s">
+        <v>143</v>
+      </c>
+      <c r="L73" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="M73" s="22">
+        <v>44480</v>
+      </c>
+      <c r="N73" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="O73" s="22">
+        <v>44480</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A74" s="13" t="s">
+        <v>3320</v>
+      </c>
+      <c r="B74" s="21" t="s">
+        <v>1410</v>
+      </c>
+      <c r="C74" s="13" t="s">
+        <v>3418</v>
+      </c>
+      <c r="D74" s="13" t="s">
+        <v>3514</v>
+      </c>
+      <c r="E74" s="13">
+        <v>92345678982</v>
+      </c>
+      <c r="F74" s="13">
+        <v>1</v>
+      </c>
+      <c r="G74" s="14">
+        <v>44227</v>
+      </c>
+      <c r="H74" s="13">
+        <v>3</v>
+      </c>
+      <c r="I74" s="13" t="s">
+        <v>3614</v>
+      </c>
+      <c r="J74" s="13" t="s">
+        <v>3714</v>
+      </c>
+      <c r="K74" s="21" t="s">
+        <v>144</v>
+      </c>
+      <c r="L74" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="M74" s="22">
+        <v>44481</v>
+      </c>
+      <c r="N74" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="O74" s="22">
+        <v>44481</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A75" s="13" t="s">
+        <v>3321</v>
+      </c>
+      <c r="B75" s="21" t="s">
+        <v>1411</v>
+      </c>
+      <c r="C75" s="13" t="s">
+        <v>3419</v>
+      </c>
+      <c r="D75" s="13" t="s">
+        <v>3515</v>
+      </c>
+      <c r="E75" s="13">
+        <v>92345678983</v>
+      </c>
+      <c r="F75" s="13">
+        <v>2</v>
+      </c>
+      <c r="G75" s="14">
+        <v>44244</v>
+      </c>
+      <c r="H75" s="13">
+        <v>4</v>
+      </c>
+      <c r="I75" s="13" t="s">
+        <v>3615</v>
+      </c>
+      <c r="J75" s="13" t="s">
+        <v>3715</v>
+      </c>
+      <c r="K75" s="21" t="s">
+        <v>145</v>
+      </c>
+      <c r="L75" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="M75" s="22">
+        <v>44482</v>
+      </c>
+      <c r="N75" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="O75" s="22">
+        <v>44482</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A76" s="13" t="s">
+        <v>3322</v>
+      </c>
+      <c r="B76" s="21" t="s">
+        <v>1412</v>
+      </c>
+      <c r="C76" s="13" t="s">
+        <v>3420</v>
+      </c>
+      <c r="D76" s="13" t="s">
+        <v>3516</v>
+      </c>
+      <c r="E76" s="13">
+        <v>92345678984</v>
+      </c>
+      <c r="F76" s="13">
+        <v>1</v>
+      </c>
+      <c r="G76" s="14">
+        <v>44128</v>
+      </c>
+      <c r="H76" s="13">
+        <v>5</v>
+      </c>
+      <c r="I76" s="13" t="s">
+        <v>3616</v>
+      </c>
+      <c r="J76" s="13" t="s">
+        <v>3716</v>
+      </c>
+      <c r="K76" s="21" t="s">
+        <v>146</v>
+      </c>
+      <c r="L76" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="M76" s="22">
+        <v>44483</v>
+      </c>
+      <c r="N76" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="O76" s="22">
+        <v>44483</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A77" s="13" t="s">
+        <v>3323</v>
+      </c>
+      <c r="B77" s="21" t="s">
+        <v>1413</v>
+      </c>
+      <c r="C77" s="13" t="s">
+        <v>1452</v>
+      </c>
+      <c r="D77" s="13" t="s">
+        <v>3517</v>
+      </c>
+      <c r="E77" s="13">
+        <v>92345678985</v>
+      </c>
+      <c r="F77" s="13">
+        <v>2</v>
+      </c>
+      <c r="G77" s="14">
+        <v>44376</v>
+      </c>
+      <c r="H77" s="13">
+        <v>1</v>
+      </c>
+      <c r="I77" s="13" t="s">
+        <v>3617</v>
+      </c>
+      <c r="J77" s="13" t="s">
+        <v>3717</v>
+      </c>
+      <c r="K77" s="21" t="s">
+        <v>147</v>
+      </c>
+      <c r="L77" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="M77" s="22">
+        <v>44484</v>
+      </c>
+      <c r="N77" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="O77" s="22">
+        <v>44484</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A78" s="13" t="s">
+        <v>3324</v>
+      </c>
+      <c r="B78" s="21" t="s">
+        <v>1414</v>
+      </c>
+      <c r="C78" s="13" t="s">
+        <v>3421</v>
+      </c>
+      <c r="D78" s="13" t="s">
+        <v>3518</v>
+      </c>
+      <c r="E78" s="13">
+        <v>92345678986</v>
+      </c>
+      <c r="F78" s="13">
+        <v>1</v>
+      </c>
+      <c r="G78" s="14">
+        <v>44411</v>
+      </c>
+      <c r="H78" s="13">
+        <v>2</v>
+      </c>
+      <c r="I78" s="13" t="s">
+        <v>3618</v>
+      </c>
+      <c r="J78" s="13" t="s">
+        <v>3718</v>
+      </c>
+      <c r="K78" s="21" t="s">
+        <v>148</v>
+      </c>
+      <c r="L78" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="M78" s="22">
+        <v>44485</v>
+      </c>
+      <c r="N78" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="O78" s="22">
+        <v>44485</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A79" s="13" t="s">
+        <v>3325</v>
+      </c>
+      <c r="B79" s="21" t="s">
+        <v>1415</v>
+      </c>
+      <c r="C79" s="13" t="s">
+        <v>3422</v>
+      </c>
+      <c r="D79" s="13" t="s">
+        <v>3519</v>
+      </c>
+      <c r="E79" s="13">
+        <v>92345678987</v>
+      </c>
+      <c r="F79" s="13">
+        <v>2</v>
+      </c>
+      <c r="G79" s="14">
+        <v>44216</v>
+      </c>
+      <c r="H79" s="13">
+        <v>3</v>
+      </c>
+      <c r="I79" s="13" t="s">
+        <v>3619</v>
+      </c>
+      <c r="J79" s="13" t="s">
+        <v>3719</v>
+      </c>
+      <c r="K79" s="21" t="s">
+        <v>149</v>
+      </c>
+      <c r="L79" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="M79" s="22">
+        <v>44486</v>
+      </c>
+      <c r="N79" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="O79" s="22">
+        <v>44486</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A80" s="13" t="s">
+        <v>3326</v>
+      </c>
+      <c r="B80" s="21" t="s">
+        <v>1416</v>
+      </c>
+      <c r="C80" s="13" t="s">
+        <v>1510</v>
+      </c>
+      <c r="D80" s="13" t="s">
+        <v>3520</v>
+      </c>
+      <c r="E80" s="13">
+        <v>92345678988</v>
+      </c>
+      <c r="F80" s="13">
+        <v>1</v>
+      </c>
+      <c r="G80" s="14">
+        <v>44206</v>
+      </c>
+      <c r="H80" s="13">
+        <v>4</v>
+      </c>
+      <c r="I80" s="13" t="s">
+        <v>3620</v>
+      </c>
+      <c r="J80" s="13" t="s">
+        <v>3720</v>
+      </c>
+      <c r="K80" s="21" t="s">
+        <v>150</v>
+      </c>
+      <c r="L80" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="M80" s="22">
+        <v>44487</v>
+      </c>
+      <c r="N80" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="O80" s="22">
+        <v>44487</v>
+      </c>
+    </row>
+    <row r="81" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A81" s="13" t="s">
+        <v>3327</v>
+      </c>
+      <c r="B81" s="21" t="s">
+        <v>1417</v>
+      </c>
+      <c r="C81" s="13" t="s">
+        <v>3423</v>
+      </c>
+      <c r="D81" s="13" t="s">
+        <v>3521</v>
+      </c>
+      <c r="E81" s="13">
+        <v>92345678989</v>
+      </c>
+      <c r="F81" s="13">
+        <v>2</v>
+      </c>
+      <c r="G81" s="14">
+        <v>44093</v>
+      </c>
+      <c r="H81" s="13">
+        <v>5</v>
+      </c>
+      <c r="I81" s="13" t="s">
+        <v>3621</v>
+      </c>
+      <c r="J81" s="13" t="s">
+        <v>3721</v>
+      </c>
+      <c r="K81" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="L81" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="M81" s="22">
+        <v>44488</v>
+      </c>
+      <c r="N81" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="O81" s="22">
+        <v>44488</v>
+      </c>
+    </row>
+    <row r="82" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A82" s="13" t="s">
+        <v>3328</v>
+      </c>
+      <c r="B82" s="21" t="s">
+        <v>1418</v>
+      </c>
+      <c r="C82" s="13" t="s">
+        <v>3424</v>
+      </c>
+      <c r="D82" s="13" t="s">
+        <v>3522</v>
+      </c>
+      <c r="E82" s="13">
+        <v>92345678990</v>
+      </c>
+      <c r="F82" s="13">
+        <v>1</v>
+      </c>
+      <c r="G82" s="14">
+        <v>44401</v>
+      </c>
+      <c r="H82" s="13">
+        <v>1</v>
+      </c>
+      <c r="I82" s="13" t="s">
+        <v>3622</v>
+      </c>
+      <c r="J82" s="13" t="s">
+        <v>3722</v>
+      </c>
+      <c r="K82" s="21" t="s">
+        <v>152</v>
+      </c>
+      <c r="L82" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="M82" s="22">
+        <v>44489</v>
+      </c>
+      <c r="N82" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="O82" s="22">
+        <v>44489</v>
+      </c>
+    </row>
+    <row r="83" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A83" s="13" t="s">
+        <v>3329</v>
+      </c>
+      <c r="B83" s="21" t="s">
+        <v>1419</v>
+      </c>
+      <c r="C83" s="13" t="s">
+        <v>3425</v>
+      </c>
+      <c r="D83" s="13" t="s">
+        <v>3523</v>
+      </c>
+      <c r="E83" s="13">
+        <v>92345678991</v>
+      </c>
+      <c r="F83" s="13">
+        <v>2</v>
+      </c>
+      <c r="G83" s="14">
+        <v>44409</v>
+      </c>
+      <c r="H83" s="13">
+        <v>2</v>
+      </c>
+      <c r="I83" s="13" t="s">
+        <v>3623</v>
+      </c>
+      <c r="J83" s="13" t="s">
+        <v>3723</v>
+      </c>
+      <c r="K83" s="21" t="s">
+        <v>153</v>
+      </c>
+      <c r="L83" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="M83" s="22">
+        <v>44490</v>
+      </c>
+      <c r="N83" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="O83" s="22">
+        <v>44490</v>
+      </c>
+    </row>
+    <row r="84" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A84" s="13" t="s">
+        <v>3330</v>
+      </c>
+      <c r="B84" s="21" t="s">
+        <v>1420</v>
+      </c>
+      <c r="C84" s="13" t="s">
+        <v>3426</v>
+      </c>
+      <c r="D84" s="13" t="s">
+        <v>3524</v>
+      </c>
+      <c r="E84" s="13">
+        <v>92345678992</v>
+      </c>
+      <c r="F84" s="13">
+        <v>1</v>
+      </c>
+      <c r="G84" s="14">
+        <v>44390</v>
+      </c>
+      <c r="H84" s="13">
+        <v>3</v>
+      </c>
+      <c r="I84" s="13" t="s">
+        <v>3624</v>
+      </c>
+      <c r="J84" s="13" t="s">
+        <v>3724</v>
+      </c>
+      <c r="K84" s="21" t="s">
+        <v>154</v>
+      </c>
+      <c r="L84" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="M84" s="22">
+        <v>44491</v>
+      </c>
+      <c r="N84" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="O84" s="22">
+        <v>44491</v>
+      </c>
+    </row>
+    <row r="85" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A85" s="13" t="s">
+        <v>3331</v>
+      </c>
+      <c r="B85" s="21" t="s">
+        <v>1421</v>
+      </c>
+      <c r="C85" s="13" t="s">
+        <v>3427</v>
+      </c>
+      <c r="D85" s="13" t="s">
+        <v>3525</v>
+      </c>
+      <c r="E85" s="13">
+        <v>92345678993</v>
+      </c>
+      <c r="F85" s="13">
+        <v>2</v>
+      </c>
+      <c r="G85" s="14">
+        <v>44230</v>
+      </c>
+      <c r="H85" s="13">
+        <v>4</v>
+      </c>
+      <c r="I85" s="13" t="s">
+        <v>3625</v>
+      </c>
+      <c r="J85" s="13" t="s">
+        <v>3725</v>
+      </c>
+      <c r="K85" s="21" t="s">
+        <v>155</v>
+      </c>
+      <c r="L85" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="M85" s="22">
+        <v>44492</v>
+      </c>
+      <c r="N85" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="O85" s="22">
+        <v>44492</v>
+      </c>
+    </row>
+    <row r="86" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A86" s="13" t="s">
+        <v>3332</v>
+      </c>
+      <c r="B86" s="21" t="s">
+        <v>1422</v>
+      </c>
+      <c r="C86" s="13" t="s">
+        <v>3428</v>
+      </c>
+      <c r="D86" s="13" t="s">
+        <v>3526</v>
+      </c>
+      <c r="E86" s="13">
+        <v>92345678994</v>
+      </c>
+      <c r="F86" s="13">
+        <v>1</v>
+      </c>
+      <c r="G86" s="14">
+        <v>44280</v>
+      </c>
+      <c r="H86" s="13">
+        <v>5</v>
+      </c>
+      <c r="I86" s="13" t="s">
+        <v>3626</v>
+      </c>
+      <c r="J86" s="13" t="s">
+        <v>3726</v>
+      </c>
+      <c r="K86" s="21" t="s">
+        <v>156</v>
+      </c>
+      <c r="L86" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="M86" s="22">
+        <v>44493</v>
+      </c>
+      <c r="N86" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="O86" s="22">
+        <v>44493</v>
+      </c>
+    </row>
+    <row r="87" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A87" s="13" t="s">
+        <v>3333</v>
+      </c>
+      <c r="B87" s="21" t="s">
+        <v>1423</v>
+      </c>
+      <c r="C87" s="13" t="s">
+        <v>3429</v>
+      </c>
+      <c r="D87" s="13" t="s">
+        <v>3527</v>
+      </c>
+      <c r="E87" s="13">
+        <v>92345678995</v>
+      </c>
+      <c r="F87" s="13">
+        <v>2</v>
+      </c>
+      <c r="G87" s="14">
+        <v>44061</v>
+      </c>
+      <c r="H87" s="13">
+        <v>1</v>
+      </c>
+      <c r="I87" s="13" t="s">
+        <v>3627</v>
+      </c>
+      <c r="J87" s="13" t="s">
+        <v>3727</v>
+      </c>
+      <c r="K87" s="21" t="s">
+        <v>157</v>
+      </c>
+      <c r="L87" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="M87" s="22">
+        <v>44494</v>
+      </c>
+      <c r="N87" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="O87" s="22">
+        <v>44494</v>
+      </c>
+    </row>
+    <row r="88" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A88" s="13" t="s">
+        <v>3334</v>
+      </c>
+      <c r="B88" s="21" t="s">
+        <v>1424</v>
+      </c>
+      <c r="C88" s="13" t="s">
+        <v>3430</v>
+      </c>
+      <c r="D88" s="13" t="s">
+        <v>3528</v>
+      </c>
+      <c r="E88" s="13">
+        <v>92345678996</v>
+      </c>
+      <c r="F88" s="13">
+        <v>1</v>
+      </c>
+      <c r="G88" s="14">
+        <v>44300</v>
+      </c>
+      <c r="H88" s="13">
+        <v>2</v>
+      </c>
+      <c r="I88" s="13" t="s">
+        <v>3628</v>
+      </c>
+      <c r="J88" s="13" t="s">
+        <v>3728</v>
+      </c>
+      <c r="K88" s="21" t="s">
+        <v>158</v>
+      </c>
+      <c r="L88" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="M88" s="22">
+        <v>44495</v>
+      </c>
+      <c r="N88" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="O88" s="22">
+        <v>44495</v>
+      </c>
+    </row>
+    <row r="89" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A89" s="13" t="s">
+        <v>3335</v>
+      </c>
+      <c r="B89" s="21" t="s">
+        <v>1425</v>
+      </c>
+      <c r="C89" s="13" t="s">
+        <v>3431</v>
+      </c>
+      <c r="D89" s="13" t="s">
+        <v>3529</v>
+      </c>
+      <c r="E89" s="13">
+        <v>92345678997</v>
+      </c>
+      <c r="F89" s="13">
+        <v>2</v>
+      </c>
+      <c r="G89" s="14">
+        <v>44217</v>
+      </c>
+      <c r="H89" s="13">
+        <v>3</v>
+      </c>
+      <c r="I89" s="13" t="s">
+        <v>3629</v>
+      </c>
+      <c r="J89" s="13" t="s">
+        <v>3729</v>
+      </c>
+      <c r="K89" s="21" t="s">
+        <v>159</v>
+      </c>
+      <c r="L89" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="M89" s="22">
+        <v>44496</v>
+      </c>
+      <c r="N89" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="O89" s="22">
+        <v>44496</v>
+      </c>
+    </row>
+    <row r="90" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A90" s="13" t="s">
+        <v>3336</v>
+      </c>
+      <c r="B90" s="21" t="s">
+        <v>1426</v>
+      </c>
+      <c r="C90" s="13" t="s">
+        <v>3432</v>
+      </c>
+      <c r="D90" s="13" t="s">
+        <v>3530</v>
+      </c>
+      <c r="E90" s="13">
+        <v>92345678998</v>
+      </c>
+      <c r="F90" s="13">
+        <v>1</v>
+      </c>
+      <c r="G90" s="14">
+        <v>44083</v>
+      </c>
+      <c r="H90" s="13">
+        <v>4</v>
+      </c>
+      <c r="I90" s="13" t="s">
+        <v>3630</v>
+      </c>
+      <c r="J90" s="13" t="s">
+        <v>3730</v>
+      </c>
+      <c r="K90" s="21" t="s">
+        <v>160</v>
+      </c>
+      <c r="L90" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="M90" s="22">
+        <v>44497</v>
+      </c>
+      <c r="N90" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="O90" s="22">
+        <v>44497</v>
+      </c>
+    </row>
+    <row r="91" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A91" s="13" t="s">
+        <v>3337</v>
+      </c>
+      <c r="B91" s="21" t="s">
+        <v>1427</v>
+      </c>
+      <c r="C91" s="13" t="s">
+        <v>3433</v>
+      </c>
+      <c r="D91" s="13" t="s">
+        <v>3531</v>
+      </c>
+      <c r="E91" s="13">
+        <v>92345678999</v>
+      </c>
+      <c r="F91" s="13">
+        <v>2</v>
+      </c>
+      <c r="G91" s="14">
+        <v>44272</v>
+      </c>
+      <c r="H91" s="13">
+        <v>5</v>
+      </c>
+      <c r="I91" s="13" t="s">
+        <v>3631</v>
+      </c>
+      <c r="J91" s="13" t="s">
+        <v>3731</v>
+      </c>
+      <c r="K91" s="21" t="s">
+        <v>161</v>
+      </c>
+      <c r="L91" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="M91" s="22">
+        <v>44498</v>
+      </c>
+      <c r="N91" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="O91" s="22">
+        <v>44498</v>
+      </c>
+    </row>
+    <row r="92" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A92" s="13" t="s">
+        <v>3338</v>
+      </c>
+      <c r="B92" s="21" t="s">
+        <v>1428</v>
+      </c>
+      <c r="C92" s="13" t="s">
+        <v>3434</v>
+      </c>
+      <c r="D92" s="13" t="s">
+        <v>3532</v>
+      </c>
+      <c r="E92" s="13">
+        <v>92345679000</v>
+      </c>
+      <c r="F92" s="13">
+        <v>1</v>
+      </c>
+      <c r="G92" s="14">
+        <v>44169</v>
+      </c>
+      <c r="H92" s="13">
+        <v>1</v>
+      </c>
+      <c r="I92" s="13" t="s">
+        <v>3632</v>
+      </c>
+      <c r="J92" s="13" t="s">
+        <v>3732</v>
+      </c>
+      <c r="K92" s="21" t="s">
+        <v>162</v>
+      </c>
+      <c r="L92" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="M92" s="22">
+        <v>44499</v>
+      </c>
+      <c r="N92" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="O92" s="22">
+        <v>44499</v>
+      </c>
+    </row>
+    <row r="93" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A93" s="13" t="s">
+        <v>3339</v>
+      </c>
+      <c r="B93" s="21" t="s">
+        <v>1429</v>
+      </c>
+      <c r="C93" s="13" t="s">
+        <v>3435</v>
+      </c>
+      <c r="D93" s="13" t="s">
+        <v>3533</v>
+      </c>
+      <c r="E93" s="13">
+        <v>92345679001</v>
+      </c>
+      <c r="F93" s="13">
+        <v>2</v>
+      </c>
+      <c r="G93" s="14">
+        <v>44159</v>
+      </c>
+      <c r="H93" s="13">
+        <v>2</v>
+      </c>
+      <c r="I93" s="13" t="s">
+        <v>3633</v>
+      </c>
+      <c r="J93" s="13" t="s">
+        <v>3733</v>
+      </c>
+      <c r="K93" s="21" t="s">
+        <v>163</v>
+      </c>
+      <c r="L93" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="M93" s="22">
+        <v>44500</v>
+      </c>
+      <c r="N93" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="O93" s="22">
+        <v>44500</v>
+      </c>
+    </row>
+    <row r="94" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A94" s="13" t="s">
+        <v>3340</v>
+      </c>
+      <c r="B94" s="21" t="s">
+        <v>1430</v>
+      </c>
+      <c r="C94" s="13" t="s">
+        <v>3436</v>
+      </c>
+      <c r="D94" s="13" t="s">
+        <v>3534</v>
+      </c>
+      <c r="E94" s="13">
+        <v>92345679002</v>
+      </c>
+      <c r="F94" s="13">
+        <v>1</v>
+      </c>
+      <c r="G94" s="14">
+        <v>44290</v>
+      </c>
+      <c r="H94" s="13">
+        <v>3</v>
+      </c>
+      <c r="I94" s="13" t="s">
+        <v>3634</v>
+      </c>
+      <c r="J94" s="13" t="s">
+        <v>3734</v>
+      </c>
+      <c r="K94" s="21" t="s">
+        <v>164</v>
+      </c>
+      <c r="L94" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="M94" s="22">
+        <v>44501</v>
+      </c>
+      <c r="N94" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="O94" s="22">
+        <v>44501</v>
+      </c>
+    </row>
+    <row r="95" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A95" s="13" t="s">
+        <v>3341</v>
+      </c>
+      <c r="B95" s="21" t="s">
+        <v>1431</v>
+      </c>
+      <c r="C95" s="13" t="s">
+        <v>3437</v>
+      </c>
+      <c r="D95" s="13" t="s">
+        <v>3535</v>
+      </c>
+      <c r="E95" s="13">
+        <v>92345679003</v>
+      </c>
+      <c r="F95" s="13">
+        <v>2</v>
+      </c>
+      <c r="G95" s="14">
+        <v>44364</v>
+      </c>
+      <c r="H95" s="13">
+        <v>4</v>
+      </c>
+      <c r="I95" s="13" t="s">
+        <v>3635</v>
+      </c>
+      <c r="J95" s="13" t="s">
+        <v>3735</v>
+      </c>
+      <c r="K95" s="21" t="s">
+        <v>165</v>
+      </c>
+      <c r="L95" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="M95" s="22">
+        <v>44502</v>
+      </c>
+      <c r="N95" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="O95" s="22">
+        <v>44502</v>
+      </c>
+    </row>
+    <row r="96" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A96" s="13" t="s">
+        <v>3342</v>
+      </c>
+      <c r="B96" s="21" t="s">
+        <v>1432</v>
+      </c>
+      <c r="C96" s="13" t="s">
+        <v>1493</v>
+      </c>
+      <c r="D96" s="13" t="s">
+        <v>3536</v>
+      </c>
+      <c r="E96" s="13">
+        <v>92345679004</v>
+      </c>
+      <c r="F96" s="13">
+        <v>1</v>
+      </c>
+      <c r="G96" s="14">
+        <v>44247</v>
+      </c>
+      <c r="H96" s="13">
+        <v>5</v>
+      </c>
+      <c r="I96" s="13" t="s">
+        <v>3636</v>
+      </c>
+      <c r="J96" s="13" t="s">
+        <v>3736</v>
+      </c>
+      <c r="K96" s="21" t="s">
+        <v>166</v>
+      </c>
+      <c r="L96" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="M96" s="22">
+        <v>44503</v>
+      </c>
+      <c r="N96" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="O96" s="22">
+        <v>44503</v>
+      </c>
+    </row>
+    <row r="97" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A97" s="13" t="s">
+        <v>3343</v>
+      </c>
+      <c r="B97" s="21" t="s">
+        <v>1433</v>
+      </c>
+      <c r="C97" s="13" t="s">
+        <v>3438</v>
+      </c>
+      <c r="D97" s="13" t="s">
+        <v>3537</v>
+      </c>
+      <c r="E97" s="13">
+        <v>92345679005</v>
+      </c>
+      <c r="F97" s="13">
+        <v>2</v>
+      </c>
+      <c r="G97" s="14">
+        <v>44059</v>
+      </c>
+      <c r="H97" s="13">
+        <v>1</v>
+      </c>
+      <c r="I97" s="13" t="s">
+        <v>3637</v>
+      </c>
+      <c r="J97" s="13" t="s">
+        <v>3737</v>
+      </c>
+      <c r="K97" s="21" t="s">
+        <v>167</v>
+      </c>
+      <c r="L97" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="M97" s="22">
+        <v>44504</v>
+      </c>
+      <c r="N97" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="O97" s="22">
+        <v>44504</v>
+      </c>
+    </row>
+    <row r="98" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A98" s="13" t="s">
+        <v>3344</v>
+      </c>
+      <c r="B98" s="21" t="s">
+        <v>1434</v>
+      </c>
+      <c r="C98" s="13" t="s">
+        <v>3439</v>
+      </c>
+      <c r="D98" s="13" t="s">
+        <v>3538</v>
+      </c>
+      <c r="E98" s="13">
+        <v>92345679006</v>
+      </c>
+      <c r="F98" s="13">
+        <v>1</v>
+      </c>
+      <c r="G98" s="14">
+        <v>44233</v>
+      </c>
+      <c r="H98" s="13">
+        <v>2</v>
+      </c>
+      <c r="I98" s="13" t="s">
+        <v>3638</v>
+      </c>
+      <c r="J98" s="13" t="s">
+        <v>3738</v>
+      </c>
+      <c r="K98" s="21" t="s">
+        <v>168</v>
+      </c>
+      <c r="L98" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="M98" s="22">
+        <v>44505</v>
+      </c>
+      <c r="N98" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="O98" s="22">
+        <v>44505</v>
+      </c>
+    </row>
+    <row r="99" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A99" s="13" t="s">
+        <v>3345</v>
+      </c>
+      <c r="B99" s="21" t="s">
+        <v>1435</v>
+      </c>
+      <c r="C99" s="13" t="s">
+        <v>3440</v>
+      </c>
+      <c r="D99" s="13" t="s">
+        <v>3539</v>
+      </c>
+      <c r="E99" s="13">
+        <v>92345679007</v>
+      </c>
+      <c r="F99" s="13">
+        <v>2</v>
+      </c>
+      <c r="G99" s="14">
+        <v>44130</v>
+      </c>
+      <c r="H99" s="13">
+        <v>3</v>
+      </c>
+      <c r="I99" s="13" t="s">
+        <v>3639</v>
+      </c>
+      <c r="J99" s="13" t="s">
+        <v>3739</v>
+      </c>
+      <c r="K99" s="21" t="s">
+        <v>169</v>
+      </c>
+      <c r="L99" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="M99" s="22">
+        <v>44506</v>
+      </c>
+      <c r="N99" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="O99" s="22">
+        <v>44506</v>
+      </c>
+    </row>
+    <row r="100" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A100" s="13" t="s">
+        <v>3346</v>
+      </c>
+      <c r="B100" s="21" t="s">
+        <v>1436</v>
+      </c>
+      <c r="C100" s="13" t="s">
+        <v>3441</v>
+      </c>
+      <c r="D100" s="13" t="s">
+        <v>3540</v>
+      </c>
+      <c r="E100" s="13">
+        <v>92345679008</v>
+      </c>
+      <c r="F100" s="13">
+        <v>1</v>
+      </c>
+      <c r="G100" s="14">
+        <v>44071</v>
+      </c>
+      <c r="H100" s="13">
+        <v>4</v>
+      </c>
+      <c r="I100" s="13" t="s">
+        <v>3640</v>
+      </c>
+      <c r="J100" s="13" t="s">
+        <v>3740</v>
+      </c>
+      <c r="K100" s="21" t="s">
+        <v>170</v>
+      </c>
+      <c r="L100" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="M100" s="22">
+        <v>44507</v>
+      </c>
+      <c r="N100" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="O100" s="22">
+        <v>44507</v>
+      </c>
+    </row>
+    <row r="101" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A101" s="13" t="s">
+        <v>3347</v>
+      </c>
+      <c r="B101" s="21" t="s">
+        <v>2719</v>
+      </c>
+      <c r="C101" s="13" t="s">
+        <v>3389</v>
+      </c>
+      <c r="D101" s="13" t="s">
+        <v>3541</v>
+      </c>
+      <c r="E101" s="13">
+        <v>92345679009</v>
+      </c>
+      <c r="F101" s="13">
+        <v>2</v>
+      </c>
+      <c r="G101" s="14">
+        <v>44374</v>
+      </c>
+      <c r="H101" s="13">
+        <v>5</v>
+      </c>
+      <c r="I101" s="13" t="s">
+        <v>3641</v>
+      </c>
+      <c r="J101" s="13" t="s">
+        <v>3741</v>
+      </c>
+      <c r="K101" s="21" t="s">
+        <v>2735</v>
+      </c>
+      <c r="L101" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="M101" s="22">
+        <v>44508</v>
+      </c>
+      <c r="N101" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="O101" s="22">
+        <v>44508</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -33068,7 +39275,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:H101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A52" workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>

--- a/Stories.Data.InitialData/ExcelFiles/StoriesData.xlsx
+++ b/Stories.Data.InitialData/ExcelFiles/StoriesData.xlsx
@@ -8,22 +8,23 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ac37f3a918de7f12/Documents/git/StoriesOne/Stories.Data.InitialData/ExcelFiles/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="291" documentId="11_29DB18B4B96C62911FE2D2B01B822D22D34F8BD5" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{75ECB071-77BD-4821-AF09-02107A93CE93}"/>
+  <xr:revisionPtr revIDLastSave="419" documentId="11_29DB18B4B96C62911FE2D2B01B822D22D34F8BD5" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BB40845E-3B51-48D6-A39B-6FA4F4494A89}"/>
   <bookViews>
-    <workbookView xWindow="-93" yWindow="-93" windowWidth="18426" windowHeight="11746" tabRatio="752" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-93" yWindow="-93" windowWidth="18426" windowHeight="11746" tabRatio="752" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Addresses" sheetId="1" r:id="rId1"/>
     <sheet name="Comments" sheetId="2" r:id="rId2"/>
     <sheet name="FriendRelationships" sheetId="3" r:id="rId3"/>
     <sheet name="People" sheetId="4" r:id="rId4"/>
-    <sheet name="PersonalInfos" sheetId="5" r:id="rId5"/>
-    <sheet name="Pictures" sheetId="6" r:id="rId6"/>
-    <sheet name="Posts" sheetId="7" r:id="rId7"/>
-    <sheet name="ReactionMarks" sheetId="8" r:id="rId8"/>
-    <sheet name="Stories" sheetId="9" r:id="rId9"/>
-    <sheet name="Timelines" sheetId="10" r:id="rId10"/>
-    <sheet name="Bodies" sheetId="11" r:id="rId11"/>
+    <sheet name="Characters" sheetId="12" r:id="rId5"/>
+    <sheet name="PersonalInfos" sheetId="5" r:id="rId6"/>
+    <sheet name="Pictures" sheetId="6" r:id="rId7"/>
+    <sheet name="Posts" sheetId="7" r:id="rId8"/>
+    <sheet name="ReactionMarks" sheetId="8" r:id="rId9"/>
+    <sheet name="Stories" sheetId="9" r:id="rId10"/>
+    <sheet name="Timelines" sheetId="10" r:id="rId11"/>
+    <sheet name="Bodies" sheetId="11" r:id="rId12"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7509" uniqueCount="4313">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8117" uniqueCount="4614">
   <si>
     <t>Id</t>
   </si>
@@ -12980,6 +12981,909 @@
   </si>
   <si>
     <t>ddbd4367-79da-4536-b538-1b0552d0a658</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>54c3ea9a-ecf8-49b1-98e0-71c7b1325e80</t>
+  </si>
+  <si>
+    <t>4b6fb399-bcf7-41b5-bf96-a5d8c857dc53</t>
+  </si>
+  <si>
+    <t>61d11298-3b17-4997-a76d-6177614a2b62</t>
+  </si>
+  <si>
+    <t>7d3d0cca-3f22-4c02-b97a-8fee59de296f</t>
+  </si>
+  <si>
+    <t>28d824d6-60c7-4aac-b51c-998c17352942</t>
+  </si>
+  <si>
+    <t>767d11be-09c0-4577-b078-616dc27a00f3</t>
+  </si>
+  <si>
+    <t>f262e751-72fe-473f-bd3b-87c30cc0a5de</t>
+  </si>
+  <si>
+    <t>9bc1900a-ee2d-4fea-951f-4d330f07b36c</t>
+  </si>
+  <si>
+    <t>173ef6d7-c567-456c-b39b-2aab0b6a321d</t>
+  </si>
+  <si>
+    <t>81a6136a-581b-45dd-bd23-35af7a1a4242</t>
+  </si>
+  <si>
+    <t>041e4c82-dacc-4cf4-83ff-d91af4abf804</t>
+  </si>
+  <si>
+    <t>f09fe4fd-1504-406c-a26d-3d087d005cfe</t>
+  </si>
+  <si>
+    <t>72b2a472-7868-47ed-b95f-663a6ab3021b</t>
+  </si>
+  <si>
+    <t>58be289e-4e53-406b-a53b-ce0726876017</t>
+  </si>
+  <si>
+    <t>a0958ecb-3ed5-4657-92e3-94b84ace1911</t>
+  </si>
+  <si>
+    <t>cc186112-3ee8-4231-ab64-bd3cfa03361b</t>
+  </si>
+  <si>
+    <t>1f16fc4a-82d6-41d4-ba61-c2b5ab6f7d9e</t>
+  </si>
+  <si>
+    <t>db8c7ca1-6171-49dd-b253-67d693d6eed0</t>
+  </si>
+  <si>
+    <t>258386bf-ca2e-4f79-8e52-0ea58e013063</t>
+  </si>
+  <si>
+    <t>6f921955-cd2d-43f1-a779-06fbf982f042</t>
+  </si>
+  <si>
+    <t>4d376bd1-565a-4a8c-af1f-04193b36d4b4</t>
+  </si>
+  <si>
+    <t>6e01e8fe-8881-41a9-9969-86721aa43196</t>
+  </si>
+  <si>
+    <t>2db3e1c0-24fd-4afc-b0d3-074671fa4118</t>
+  </si>
+  <si>
+    <t>0719e2d7-5df4-45da-9f76-0ecd86b947ae</t>
+  </si>
+  <si>
+    <t>ac56a7a0-7a0e-4404-b70b-00e37dad9c25</t>
+  </si>
+  <si>
+    <t>0c80df61-3c8c-4cba-919f-52398a7995fb</t>
+  </si>
+  <si>
+    <t>3c9efe03-ea68-4b65-8379-47105914076f</t>
+  </si>
+  <si>
+    <t>a5c5ad07-9d8f-4833-930c-0a067a91831c</t>
+  </si>
+  <si>
+    <t>46053ee1-26b0-4fe8-b79e-a5c22d5e5420</t>
+  </si>
+  <si>
+    <t>e183bbe2-c2a6-48f6-9e05-f0543cc54b0d</t>
+  </si>
+  <si>
+    <t>012ab42a-7610-4971-8111-b478d4c9866d</t>
+  </si>
+  <si>
+    <t>47f23aca-3cd2-4929-bedf-a47988361cd0</t>
+  </si>
+  <si>
+    <t>4b9c5776-2630-457d-9df2-03336b316850</t>
+  </si>
+  <si>
+    <t>87042ab3-f6e4-4af2-9910-7e908ebcb66b</t>
+  </si>
+  <si>
+    <t>04853630-f845-4e23-b8d4-eb43bad97cab</t>
+  </si>
+  <si>
+    <t>e23b8fcf-e647-4be9-ae62-740f55acc69d</t>
+  </si>
+  <si>
+    <t>d498a683-b703-47c7-8eea-4ecc912c0c0f</t>
+  </si>
+  <si>
+    <t>c8f5a384-addc-440a-9cfb-bee806301f22</t>
+  </si>
+  <si>
+    <t>0870f33e-c969-46e5-8bf0-84508b5d41ee</t>
+  </si>
+  <si>
+    <t>08ed2957-1997-43f7-98b9-6568235b0869</t>
+  </si>
+  <si>
+    <t>f440f1ce-02ec-4434-b10b-ef5260f9189b</t>
+  </si>
+  <si>
+    <t>30520d54-983e-4525-beee-31abc566ef21</t>
+  </si>
+  <si>
+    <t>5009aa51-14fd-41ab-93ef-3b31a9211d57</t>
+  </si>
+  <si>
+    <t>ef55df45-704a-46b5-ae0b-db3223ad9f13</t>
+  </si>
+  <si>
+    <t>4e6f1827-90fd-4cf8-9443-0486313fee74</t>
+  </si>
+  <si>
+    <t>1b35dbd4-b5a7-4bb2-8ff7-947d7efd93ff</t>
+  </si>
+  <si>
+    <t>6870463c-5a6f-4dd7-86d5-26d22659b32f</t>
+  </si>
+  <si>
+    <t>bf616060-6dd1-4216-b7f9-66091a3311cd</t>
+  </si>
+  <si>
+    <t>59a621a6-fe16-4c49-9a7b-a1220edc73b6</t>
+  </si>
+  <si>
+    <t>fe96725f-3221-4d1f-bad8-86bbc9a1ff69</t>
+  </si>
+  <si>
+    <t>61f06ec4-7edd-4cda-87f8-36e373d9a3e1</t>
+  </si>
+  <si>
+    <t>a5cb9b7a-3b9a-4473-86c3-567870c18a40</t>
+  </si>
+  <si>
+    <t>66c52d01-75fb-40d1-9a5d-c03f6f2c8dc9</t>
+  </si>
+  <si>
+    <t>39cb92b1-31c9-4553-a9ac-666a2c553d62</t>
+  </si>
+  <si>
+    <t>8f4133d7-868d-4910-aa1e-5efdce60a18c</t>
+  </si>
+  <si>
+    <t>9681cc3e-3861-49d0-b302-ec70bbc664fc</t>
+  </si>
+  <si>
+    <t>9700156f-f9a9-4810-b144-1aa8fa223622</t>
+  </si>
+  <si>
+    <t>4c3334dc-688b-4c6b-8409-48d63b7e5986</t>
+  </si>
+  <si>
+    <t>73ff4c3e-4272-4c41-8408-ffea2103e3e7</t>
+  </si>
+  <si>
+    <t>687c086d-41d6-4d8a-8b93-358bd27499ae</t>
+  </si>
+  <si>
+    <t>97468c2e-39af-41c6-9bdb-1587b56e1d96</t>
+  </si>
+  <si>
+    <t>400cbb8e-ddca-415b-b92f-7563503858b2</t>
+  </si>
+  <si>
+    <t>c022a6cc-c94b-4b2c-984f-052c141809bd</t>
+  </si>
+  <si>
+    <t>a188bf60-dbae-460e-99d2-a31bd930acf4</t>
+  </si>
+  <si>
+    <t>8f661aa6-ce51-4086-bb37-eda4e3572a65</t>
+  </si>
+  <si>
+    <t>0bace092-afe0-491c-bb8f-59d9997b3394</t>
+  </si>
+  <si>
+    <t>7f775ef6-7223-48a6-a68d-2a7248cc25eb</t>
+  </si>
+  <si>
+    <t>6e1b6be2-67e6-489f-b4fd-09bce05558fe</t>
+  </si>
+  <si>
+    <t>d530b03a-6840-4612-8d17-50fb7767d578</t>
+  </si>
+  <si>
+    <t>400c6962-f3f6-4a66-97d3-c4f65d3317d7</t>
+  </si>
+  <si>
+    <t>42f65a1f-4161-4727-acb8-0eadf596a904</t>
+  </si>
+  <si>
+    <t>0a3d9ba4-3156-4ae3-ac42-2727321636a2</t>
+  </si>
+  <si>
+    <t>0a9b65b5-2da3-4b77-bb9e-218a0ac2b436</t>
+  </si>
+  <si>
+    <t>41aba271-b1d7-48cc-b322-f44a9675c82d</t>
+  </si>
+  <si>
+    <t>5fa0b359-0a05-4380-bf18-ebb756065b5b</t>
+  </si>
+  <si>
+    <t>32fd15fc-3455-4dc2-b8a5-9524b18de638</t>
+  </si>
+  <si>
+    <t>0dc6d0b2-3d61-46b0-99f0-90fe2397e9b2</t>
+  </si>
+  <si>
+    <t>17d5e677-49ef-4971-91f4-4b9f24dc8c16</t>
+  </si>
+  <si>
+    <t>35149514-ff94-4797-846e-7beae387debd</t>
+  </si>
+  <si>
+    <t>8baa6bdb-3d16-4041-bf15-e7548e0e39a8</t>
+  </si>
+  <si>
+    <t>5c78030b-04cf-4b03-afa8-da05f43caf2c</t>
+  </si>
+  <si>
+    <t>70ac49ed-9ebf-4de9-9198-ddba63e50ae9</t>
+  </si>
+  <si>
+    <t>dab512a2-25f7-4f9a-b834-7ede4a37bef9</t>
+  </si>
+  <si>
+    <t>f5788c10-8d9f-479c-a6be-fb7d414d5ef5</t>
+  </si>
+  <si>
+    <t>fb620b18-e815-4bb5-939d-94493e7389b4</t>
+  </si>
+  <si>
+    <t>6a848592-20a7-442e-8f5a-c9252e134048</t>
+  </si>
+  <si>
+    <t>1cc8fa8e-7cb2-4c84-815f-8172805bef6c</t>
+  </si>
+  <si>
+    <t>2559c648-f9ba-41d5-8f77-c0cb0cf431aa</t>
+  </si>
+  <si>
+    <t>1c69ae66-7662-4f31-9489-b336599dc94b</t>
+  </si>
+  <si>
+    <t>cef45b1d-ad58-4158-8707-390e6ab05b65</t>
+  </si>
+  <si>
+    <t>268e9749-1fc0-421a-8943-980a39aef247</t>
+  </si>
+  <si>
+    <t>0dd54325-5d42-45e4-9eda-ddacafa32c67</t>
+  </si>
+  <si>
+    <t>18c97f8b-4b6b-41f8-b1df-c0f628ce22fa</t>
+  </si>
+  <si>
+    <t>73cbbd74-9e3f-4773-88c6-3d67a4b951da</t>
+  </si>
+  <si>
+    <t>e9d22b50-03b8-4545-a5e6-be9ba9179520</t>
+  </si>
+  <si>
+    <t>9ce1f3cc-506d-4431-9c17-dc7daff2197f</t>
+  </si>
+  <si>
+    <t>42aa5648-5ab0-4de5-ab27-b2589acc9ea3</t>
+  </si>
+  <si>
+    <t>337fbdf5-17ac-429d-9046-dd97e69f75b8</t>
+  </si>
+  <si>
+    <t>0c988ddb-fc99-412a-8343-fa1ceff7d496</t>
+  </si>
+  <si>
+    <t>9a9de2a5-1e02-4ba5-baa0-550ef8bf5615</t>
+  </si>
+  <si>
+    <t>Wilie Lumpkin</t>
+  </si>
+  <si>
+    <t>Claudell Davitashvili</t>
+  </si>
+  <si>
+    <t>Jackelyn Bortoluzzi</t>
+  </si>
+  <si>
+    <t>Toiboid Pitsall</t>
+  </si>
+  <si>
+    <t>Gregoire Letterese</t>
+  </si>
+  <si>
+    <t>Aldin Anselmi</t>
+  </si>
+  <si>
+    <t>Alexine Osgorby</t>
+  </si>
+  <si>
+    <t>Jerrilyn Slorance</t>
+  </si>
+  <si>
+    <t>Niel Chatelot</t>
+  </si>
+  <si>
+    <t>Dalston Chimes</t>
+  </si>
+  <si>
+    <t>Trixie Taberner</t>
+  </si>
+  <si>
+    <t>Pammie Oneal</t>
+  </si>
+  <si>
+    <t>Ilene Grinley</t>
+  </si>
+  <si>
+    <t>Felice Tribe</t>
+  </si>
+  <si>
+    <t>Felizio Konmann</t>
+  </si>
+  <si>
+    <t>Nicolais Divina</t>
+  </si>
+  <si>
+    <t>Mireielle Ferencowicz</t>
+  </si>
+  <si>
+    <t>Salomo Funnell</t>
+  </si>
+  <si>
+    <t>Wolfgang Le Bosse</t>
+  </si>
+  <si>
+    <t>Renata Pilipyak</t>
+  </si>
+  <si>
+    <t>Ervin Sirrell</t>
+  </si>
+  <si>
+    <t>Venus Hovie</t>
+  </si>
+  <si>
+    <t>Ailis Pink</t>
+  </si>
+  <si>
+    <t>Even Juster</t>
+  </si>
+  <si>
+    <t>Sybille Mose</t>
+  </si>
+  <si>
+    <t>Melany Tumielli</t>
+  </si>
+  <si>
+    <t>Sascha Brien</t>
+  </si>
+  <si>
+    <t>Zechariah Marchelli</t>
+  </si>
+  <si>
+    <t>Orazio Bridgwater</t>
+  </si>
+  <si>
+    <t>Viva Jozwik</t>
+  </si>
+  <si>
+    <t>Stephani Spadelli</t>
+  </si>
+  <si>
+    <t>Chan Carnson</t>
+  </si>
+  <si>
+    <t>Natale Strawbridge</t>
+  </si>
+  <si>
+    <t>Myles Tennick</t>
+  </si>
+  <si>
+    <t>Gerrilee Bavister</t>
+  </si>
+  <si>
+    <t>Cordula Janes</t>
+  </si>
+  <si>
+    <t>Gino Pendle</t>
+  </si>
+  <si>
+    <t>Angie Rudolf</t>
+  </si>
+  <si>
+    <t>Kandace Haithwaite</t>
+  </si>
+  <si>
+    <t>Sven Deeming</t>
+  </si>
+  <si>
+    <t>Marne Rioch</t>
+  </si>
+  <si>
+    <t>Ted Quaif</t>
+  </si>
+  <si>
+    <t>Lena Leimster</t>
+  </si>
+  <si>
+    <t>Genna Hackley</t>
+  </si>
+  <si>
+    <t>Regine Gobeaux</t>
+  </si>
+  <si>
+    <t>Micah Sander</t>
+  </si>
+  <si>
+    <t>Creighton Farrants</t>
+  </si>
+  <si>
+    <t>Carr Blaydon</t>
+  </si>
+  <si>
+    <t>Jacki Pinsent</t>
+  </si>
+  <si>
+    <t>Orren Monckton</t>
+  </si>
+  <si>
+    <t>Alastair Thomasson</t>
+  </si>
+  <si>
+    <t>Valerie Polleye</t>
+  </si>
+  <si>
+    <t>Nessa Weaben</t>
+  </si>
+  <si>
+    <t>Rafaelia Dupre</t>
+  </si>
+  <si>
+    <t>Prudence Gulleford</t>
+  </si>
+  <si>
+    <t>Lonna Culkin</t>
+  </si>
+  <si>
+    <t>Isaak Hansie</t>
+  </si>
+  <si>
+    <t>Jeffry Tenney</t>
+  </si>
+  <si>
+    <t>Gweneth Nairy</t>
+  </si>
+  <si>
+    <t>Eldredge Benedict</t>
+  </si>
+  <si>
+    <t>Grace Camier</t>
+  </si>
+  <si>
+    <t>Jacky Weatherby</t>
+  </si>
+  <si>
+    <t>Sherrie Yearne</t>
+  </si>
+  <si>
+    <t>Judy Robet</t>
+  </si>
+  <si>
+    <t>Kassia Fonte</t>
+  </si>
+  <si>
+    <t>Yvon Edgeler</t>
+  </si>
+  <si>
+    <t>Wynne Hannay</t>
+  </si>
+  <si>
+    <t>Romona Gergely</t>
+  </si>
+  <si>
+    <t>Viki Sooley</t>
+  </si>
+  <si>
+    <t>Sax Featherstonhalgh</t>
+  </si>
+  <si>
+    <t>Lela Drury</t>
+  </si>
+  <si>
+    <t>Julietta Stockney</t>
+  </si>
+  <si>
+    <t>Meghan Joyes</t>
+  </si>
+  <si>
+    <t>Barty Uebel</t>
+  </si>
+  <si>
+    <t>Denise Semechik</t>
+  </si>
+  <si>
+    <t>Justus Bristoe</t>
+  </si>
+  <si>
+    <t>Luce Batty</t>
+  </si>
+  <si>
+    <t>Maisey Kiellor</t>
+  </si>
+  <si>
+    <t>Fleur De Giorgis</t>
+  </si>
+  <si>
+    <t>Irene Mahaffey</t>
+  </si>
+  <si>
+    <t>Phillis Kingsnorth</t>
+  </si>
+  <si>
+    <t>Che Richly</t>
+  </si>
+  <si>
+    <t>Toddie Currie</t>
+  </si>
+  <si>
+    <t>Aindrea Stirland</t>
+  </si>
+  <si>
+    <t>Cari Mowlam</t>
+  </si>
+  <si>
+    <t>Blondie Juliano</t>
+  </si>
+  <si>
+    <t>Bekki Badgers</t>
+  </si>
+  <si>
+    <t>Fidole Boadby</t>
+  </si>
+  <si>
+    <t>Orlando Dallimare</t>
+  </si>
+  <si>
+    <t>Liana Simonazzi</t>
+  </si>
+  <si>
+    <t>Krishnah Fattori</t>
+  </si>
+  <si>
+    <t>Yankee Dowsey</t>
+  </si>
+  <si>
+    <t>Vivyanne Tonbye</t>
+  </si>
+  <si>
+    <t>Courtenay Dunseith</t>
+  </si>
+  <si>
+    <t>Sherman Linbohm</t>
+  </si>
+  <si>
+    <t>Hernando Martinson</t>
+  </si>
+  <si>
+    <t>Loutitia Pinkard</t>
+  </si>
+  <si>
+    <t>Sol Francklin</t>
+  </si>
+  <si>
+    <t>Jaclyn Gaines</t>
+  </si>
+  <si>
+    <t>Kele Thorns</t>
+  </si>
+  <si>
+    <t>Colour of Magic, The (Terry Pratchett's The Colour of Magic)</t>
+  </si>
+  <si>
+    <t>Lion King II: Simba's Pride, The</t>
+  </si>
+  <si>
+    <t>Saving Private Ryan</t>
+  </si>
+  <si>
+    <t>Lady and the Reaper, The (Dama y la muerte, La)</t>
+  </si>
+  <si>
+    <t>Dead of Winter</t>
+  </si>
+  <si>
+    <t>Karate Kid, The</t>
+  </si>
+  <si>
+    <t>Tarantella</t>
+  </si>
+  <si>
+    <t>Chicago Overcoat</t>
+  </si>
+  <si>
+    <t>The Kiss</t>
+  </si>
+  <si>
+    <t>Life of Emile Zola, The</t>
+  </si>
+  <si>
+    <t>A Fugitive from the Past</t>
+  </si>
+  <si>
+    <t>Advise and Consent</t>
+  </si>
+  <si>
+    <t>Bingo</t>
+  </si>
+  <si>
+    <t>Wolf Creek 2</t>
+  </si>
+  <si>
+    <t>Reckoning, The</t>
+  </si>
+  <si>
+    <t>Agent Red</t>
+  </si>
+  <si>
+    <t>Pet Sematary</t>
+  </si>
+  <si>
+    <t>Office Killer</t>
+  </si>
+  <si>
+    <t>Battle of the Warriors</t>
+  </si>
+  <si>
+    <t>Barenaked in America</t>
+  </si>
+  <si>
+    <t>India Song</t>
+  </si>
+  <si>
+    <t>Yards, The</t>
+  </si>
+  <si>
+    <t>The Legend of Bloody Jack</t>
+  </si>
+  <si>
+    <t>Final Darkness, The (Buio Omega)</t>
+  </si>
+  <si>
+    <t>Needing You... (Goo naam gwa neui)</t>
+  </si>
+  <si>
+    <t>Clay Bird, The (Matir moina)</t>
+  </si>
+  <si>
+    <t>Torrente 5: Operaciﾃｳn Eurovegas</t>
+  </si>
+  <si>
+    <t>There's a Girl in My Soup</t>
+  </si>
+  <si>
+    <t>Price Check</t>
+  </si>
+  <si>
+    <t>Happy, Happy (Sykt lykkelig)</t>
+  </si>
+  <si>
+    <t>Vampire in Brooklyn</t>
+  </si>
+  <si>
+    <t>Time Freak</t>
+  </si>
+  <si>
+    <t>Cab for Three, A (Taxi para tres)</t>
+  </si>
+  <si>
+    <t>Breaking Point</t>
+  </si>
+  <si>
+    <t>San Francisco</t>
+  </si>
+  <si>
+    <t>Sexy Beast</t>
+  </si>
+  <si>
+    <t>The Skinny</t>
+  </si>
+  <si>
+    <t>Special Day, A (Giornata particolare, Una)</t>
+  </si>
+  <si>
+    <t>California</t>
+  </si>
+  <si>
+    <t>Purely Belter</t>
+  </si>
+  <si>
+    <t>Shine of Rainbows, A</t>
+  </si>
+  <si>
+    <t>Congress, The</t>
+  </si>
+  <si>
+    <t>Unidentified Flying Oddball (a.k.a. Spaceman and King Arthur, The) (a.k.a. Spaceman in King Arthur's Court, A)</t>
+  </si>
+  <si>
+    <t>Cake Eaters, The</t>
+  </si>
+  <si>
+    <t>Almost 18</t>
+  </si>
+  <si>
+    <t>Devil's Ground, The</t>
+  </si>
+  <si>
+    <t>Good Night, The</t>
+  </si>
+  <si>
+    <t>Crashing</t>
+  </si>
+  <si>
+    <t>Red Baron, The (Der rote Baron)</t>
+  </si>
+  <si>
+    <t>American Astronaut, The</t>
+  </si>
+  <si>
+    <t>Italian Straw Hat, The (Un chapeau de paille d'Italie)</t>
+  </si>
+  <si>
+    <t>Dirty Ho (Lan tou He)</t>
+  </si>
+  <si>
+    <t>Sleeping Dogs Lie (a.k.a. Stay)</t>
+  </si>
+  <si>
+    <t>Halloween H20: 20 Years Later (Halloween 7: The Revenge of Laurie Strode)</t>
+  </si>
+  <si>
+    <t>Private Resort</t>
+  </si>
+  <si>
+    <t>City of No Limits, The (la ciudad sin lﾃｭmites, En)</t>
+  </si>
+  <si>
+    <t>Change of Habit</t>
+  </si>
+  <si>
+    <t>Scenes From a Marriage (Scener ur ett ﾃ､ktenskap)</t>
+  </si>
+  <si>
+    <t>Boris Godunov</t>
+  </si>
+  <si>
+    <t>Drum, The (Drums)</t>
+  </si>
+  <si>
+    <t>Xtro 2: The Second Encounter</t>
+  </si>
+  <si>
+    <t>Bombardier</t>
+  </si>
+  <si>
+    <t>Goldene Zeiten</t>
+  </si>
+  <si>
+    <t>Defending Your Life</t>
+  </si>
+  <si>
+    <t>Lightning Strikes Twice</t>
+  </si>
+  <si>
+    <t>Seventh Victim, The</t>
+  </si>
+  <si>
+    <t>Lord of the Rings: The Return of the King, The</t>
+  </si>
+  <si>
+    <t>Senna</t>
+  </si>
+  <si>
+    <t>Tokyo-Ga</t>
+  </si>
+  <si>
+    <t>Presidio, The</t>
+  </si>
+  <si>
+    <t>Switchback</t>
+  </si>
+  <si>
+    <t>Crash</t>
+  </si>
+  <si>
+    <t>Serving Sara</t>
+  </si>
+  <si>
+    <t>Star!</t>
+  </si>
+  <si>
+    <t>On Earth as It Is in Heaven (Asﾃｭ en el cielo como en la tierra)</t>
+  </si>
+  <si>
+    <t>Hunter, The</t>
+  </si>
+  <si>
+    <t>Grave Halloween</t>
+  </si>
+  <si>
+    <t>Flash Gordon's Trip to Mars</t>
+  </si>
+  <si>
+    <t>Camouflage (Barwy ochronne)</t>
+  </si>
+  <si>
+    <t>Fﾃ､hrmann Maria</t>
+  </si>
+  <si>
+    <t>Anatomy of a Love Seen</t>
+  </si>
+  <si>
+    <t>Brotherhood of the Wolf (Pacte des loups, Le)</t>
+  </si>
+  <si>
+    <t>Seizure</t>
+  </si>
+  <si>
+    <t>Gilded Lily, The</t>
+  </si>
+  <si>
+    <t>Vampires</t>
+  </si>
+  <si>
+    <t>Man Push Cart</t>
+  </si>
+  <si>
+    <t>Oh, Heavenly Dog!</t>
+  </si>
+  <si>
+    <t>Ten Violent Women</t>
+  </si>
+  <si>
+    <t>Iceman</t>
+  </si>
+  <si>
+    <t>Min and Bill</t>
+  </si>
+  <si>
+    <t>Host, The (Gwoemul)</t>
+  </si>
+  <si>
+    <t>The Heart Machine</t>
+  </si>
+  <si>
+    <t>Lulu in Berlin</t>
+  </si>
+  <si>
+    <t>Oversimplification of Her Beauty, An</t>
+  </si>
+  <si>
+    <t>Around the World in 80 Days</t>
+  </si>
+  <si>
+    <t>Changing Lanes</t>
+  </si>
+  <si>
+    <t>Kauwboy</t>
+  </si>
+  <si>
+    <t>Odds, The</t>
+  </si>
+  <si>
+    <t>Germinal</t>
+  </si>
+  <si>
+    <t>Road Hard</t>
   </si>
 </sst>
 </file>
@@ -13301,8 +14205,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35"/>
+    <sheetView topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.3"/>
@@ -17776,6 +18680,2658 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="A1:H101"/>
+  <sheetViews>
+    <sheetView topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A101"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="40.1171875" customWidth="1"/>
+    <col min="2" max="2" width="35.76171875" customWidth="1"/>
+    <col min="3" max="3" width="13.703125" customWidth="1"/>
+    <col min="4" max="4" width="28.5859375" customWidth="1"/>
+    <col min="5" max="5" width="17.5859375" customWidth="1"/>
+    <col min="6" max="6" width="35.64453125" customWidth="1"/>
+    <col min="7" max="7" width="20.3515625" customWidth="1"/>
+    <col min="8" max="8" width="14.29296875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>2742</v>
+      </c>
+      <c r="B2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2946</v>
+      </c>
+      <c r="D2" t="s">
+        <v>3045</v>
+      </c>
+      <c r="E2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F2" s="1">
+        <v>44409</v>
+      </c>
+      <c r="G2" t="s">
+        <v>55</v>
+      </c>
+      <c r="H2" s="1">
+        <v>44409</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="13.7" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>2743</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>1337</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2947</v>
+      </c>
+      <c r="D3" t="s">
+        <v>2841</v>
+      </c>
+      <c r="E3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F3" s="1">
+        <v>44410</v>
+      </c>
+      <c r="G3" t="s">
+        <v>55</v>
+      </c>
+      <c r="H3" s="1">
+        <v>44410</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="13.7" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>2744</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>1338</v>
+      </c>
+      <c r="C4" t="s">
+        <v>2948</v>
+      </c>
+      <c r="D4" t="s">
+        <v>3046</v>
+      </c>
+      <c r="E4" t="s">
+        <v>55</v>
+      </c>
+      <c r="F4" s="1">
+        <v>44411</v>
+      </c>
+      <c r="G4" t="s">
+        <v>55</v>
+      </c>
+      <c r="H4" s="1">
+        <v>44411</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="13.7" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
+        <v>2745</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>1339</v>
+      </c>
+      <c r="C5" t="s">
+        <v>2949</v>
+      </c>
+      <c r="D5" t="s">
+        <v>3047</v>
+      </c>
+      <c r="E5" t="s">
+        <v>55</v>
+      </c>
+      <c r="F5" s="1">
+        <v>44412</v>
+      </c>
+      <c r="G5" t="s">
+        <v>55</v>
+      </c>
+      <c r="H5" s="1">
+        <v>44412</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="13.7" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
+        <v>2746</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>1340</v>
+      </c>
+      <c r="C6" t="s">
+        <v>2950</v>
+      </c>
+      <c r="D6" t="s">
+        <v>3048</v>
+      </c>
+      <c r="E6" t="s">
+        <v>55</v>
+      </c>
+      <c r="F6" s="1">
+        <v>44413</v>
+      </c>
+      <c r="G6" t="s">
+        <v>55</v>
+      </c>
+      <c r="H6" s="1">
+        <v>44413</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="13.7" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
+        <v>2747</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>1341</v>
+      </c>
+      <c r="C7" t="s">
+        <v>2951</v>
+      </c>
+      <c r="D7" t="s">
+        <v>3049</v>
+      </c>
+      <c r="E7" t="s">
+        <v>55</v>
+      </c>
+      <c r="F7" s="1">
+        <v>44414</v>
+      </c>
+      <c r="G7" t="s">
+        <v>55</v>
+      </c>
+      <c r="H7" s="1">
+        <v>44414</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="13.7" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
+        <v>2748</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>1342</v>
+      </c>
+      <c r="C8" t="s">
+        <v>2952</v>
+      </c>
+      <c r="D8" t="s">
+        <v>3050</v>
+      </c>
+      <c r="E8" t="s">
+        <v>55</v>
+      </c>
+      <c r="F8" s="1">
+        <v>44415</v>
+      </c>
+      <c r="G8" t="s">
+        <v>55</v>
+      </c>
+      <c r="H8" s="1">
+        <v>44415</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="13.7" x14ac:dyDescent="0.4">
+      <c r="A9" t="s">
+        <v>2749</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>1343</v>
+      </c>
+      <c r="C9" t="s">
+        <v>2953</v>
+      </c>
+      <c r="D9" t="s">
+        <v>3051</v>
+      </c>
+      <c r="E9" t="s">
+        <v>55</v>
+      </c>
+      <c r="F9" s="1">
+        <v>44416</v>
+      </c>
+      <c r="G9" t="s">
+        <v>55</v>
+      </c>
+      <c r="H9" s="1">
+        <v>44416</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="13.7" x14ac:dyDescent="0.4">
+      <c r="A10" t="s">
+        <v>2750</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>1344</v>
+      </c>
+      <c r="C10" t="s">
+        <v>2954</v>
+      </c>
+      <c r="D10" t="s">
+        <v>3052</v>
+      </c>
+      <c r="E10" t="s">
+        <v>55</v>
+      </c>
+      <c r="F10" s="1">
+        <v>44417</v>
+      </c>
+      <c r="G10" t="s">
+        <v>55</v>
+      </c>
+      <c r="H10" s="1">
+        <v>44417</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="13.7" x14ac:dyDescent="0.4">
+      <c r="A11" t="s">
+        <v>2751</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>1345</v>
+      </c>
+      <c r="C11" t="s">
+        <v>2955</v>
+      </c>
+      <c r="D11" t="s">
+        <v>3053</v>
+      </c>
+      <c r="E11" t="s">
+        <v>55</v>
+      </c>
+      <c r="F11" s="1">
+        <v>44418</v>
+      </c>
+      <c r="G11" t="s">
+        <v>55</v>
+      </c>
+      <c r="H11" s="1">
+        <v>44418</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="13.7" x14ac:dyDescent="0.4">
+      <c r="A12" t="s">
+        <v>2752</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>1346</v>
+      </c>
+      <c r="C12" t="s">
+        <v>2956</v>
+      </c>
+      <c r="D12" t="s">
+        <v>3054</v>
+      </c>
+      <c r="E12" t="s">
+        <v>55</v>
+      </c>
+      <c r="F12" s="1">
+        <v>44419</v>
+      </c>
+      <c r="G12" t="s">
+        <v>55</v>
+      </c>
+      <c r="H12" s="1">
+        <v>44419</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="13.7" x14ac:dyDescent="0.4">
+      <c r="A13" t="s">
+        <v>2753</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>1347</v>
+      </c>
+      <c r="C13" t="s">
+        <v>2957</v>
+      </c>
+      <c r="D13" t="s">
+        <v>3055</v>
+      </c>
+      <c r="E13" t="s">
+        <v>55</v>
+      </c>
+      <c r="F13" s="1">
+        <v>44420</v>
+      </c>
+      <c r="G13" t="s">
+        <v>55</v>
+      </c>
+      <c r="H13" s="1">
+        <v>44420</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="13.7" x14ac:dyDescent="0.4">
+      <c r="A14" t="s">
+        <v>2754</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>1348</v>
+      </c>
+      <c r="C14" t="s">
+        <v>2958</v>
+      </c>
+      <c r="D14" t="s">
+        <v>3056</v>
+      </c>
+      <c r="E14" t="s">
+        <v>55</v>
+      </c>
+      <c r="F14" s="1">
+        <v>44421</v>
+      </c>
+      <c r="G14" t="s">
+        <v>55</v>
+      </c>
+      <c r="H14" s="1">
+        <v>44421</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="13.7" x14ac:dyDescent="0.4">
+      <c r="A15" s="7" t="s">
+        <v>2755</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>1349</v>
+      </c>
+      <c r="C15" t="s">
+        <v>2959</v>
+      </c>
+      <c r="D15" t="s">
+        <v>3057</v>
+      </c>
+      <c r="E15" t="s">
+        <v>55</v>
+      </c>
+      <c r="F15" s="1">
+        <v>44422</v>
+      </c>
+      <c r="G15" t="s">
+        <v>55</v>
+      </c>
+      <c r="H15" s="1">
+        <v>44422</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="13.7" x14ac:dyDescent="0.4">
+      <c r="A16" t="s">
+        <v>2756</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>1350</v>
+      </c>
+      <c r="C16" t="s">
+        <v>2960</v>
+      </c>
+      <c r="D16" t="s">
+        <v>3058</v>
+      </c>
+      <c r="E16" t="s">
+        <v>55</v>
+      </c>
+      <c r="F16" s="1">
+        <v>44423</v>
+      </c>
+      <c r="G16" t="s">
+        <v>55</v>
+      </c>
+      <c r="H16" s="1">
+        <v>44423</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="13.7" x14ac:dyDescent="0.4">
+      <c r="A17" t="s">
+        <v>2757</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>1351</v>
+      </c>
+      <c r="C17" t="s">
+        <v>2961</v>
+      </c>
+      <c r="D17" t="s">
+        <v>3059</v>
+      </c>
+      <c r="E17" t="s">
+        <v>55</v>
+      </c>
+      <c r="F17" s="1">
+        <v>44424</v>
+      </c>
+      <c r="G17" t="s">
+        <v>55</v>
+      </c>
+      <c r="H17" s="1">
+        <v>44424</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="13.7" x14ac:dyDescent="0.4">
+      <c r="A18" t="s">
+        <v>2758</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>1352</v>
+      </c>
+      <c r="C18" t="s">
+        <v>2962</v>
+      </c>
+      <c r="D18" t="s">
+        <v>3060</v>
+      </c>
+      <c r="E18" t="s">
+        <v>55</v>
+      </c>
+      <c r="F18" s="1">
+        <v>44425</v>
+      </c>
+      <c r="G18" t="s">
+        <v>55</v>
+      </c>
+      <c r="H18" s="1">
+        <v>44425</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="13.7" x14ac:dyDescent="0.4">
+      <c r="A19" t="s">
+        <v>2759</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>1353</v>
+      </c>
+      <c r="C19" t="s">
+        <v>2963</v>
+      </c>
+      <c r="D19" t="s">
+        <v>3061</v>
+      </c>
+      <c r="E19" t="s">
+        <v>55</v>
+      </c>
+      <c r="F19" s="1">
+        <v>44426</v>
+      </c>
+      <c r="G19" t="s">
+        <v>55</v>
+      </c>
+      <c r="H19" s="1">
+        <v>44426</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="13.7" x14ac:dyDescent="0.4">
+      <c r="A20" t="s">
+        <v>2760</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>1354</v>
+      </c>
+      <c r="C20" t="s">
+        <v>2964</v>
+      </c>
+      <c r="D20" t="s">
+        <v>3062</v>
+      </c>
+      <c r="E20" t="s">
+        <v>55</v>
+      </c>
+      <c r="F20" s="1">
+        <v>44427</v>
+      </c>
+      <c r="G20" t="s">
+        <v>55</v>
+      </c>
+      <c r="H20" s="1">
+        <v>44427</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="13.7" x14ac:dyDescent="0.4">
+      <c r="A21" t="s">
+        <v>2761</v>
+      </c>
+      <c r="B21" s="11" t="s">
+        <v>1355</v>
+      </c>
+      <c r="C21" t="s">
+        <v>2965</v>
+      </c>
+      <c r="D21" t="s">
+        <v>3063</v>
+      </c>
+      <c r="E21" t="s">
+        <v>55</v>
+      </c>
+      <c r="F21" s="1">
+        <v>44428</v>
+      </c>
+      <c r="G21" t="s">
+        <v>55</v>
+      </c>
+      <c r="H21" s="1">
+        <v>44428</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="13.7" x14ac:dyDescent="0.4">
+      <c r="A22" t="s">
+        <v>2762</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>1356</v>
+      </c>
+      <c r="C22" t="s">
+        <v>2966</v>
+      </c>
+      <c r="D22" t="s">
+        <v>3064</v>
+      </c>
+      <c r="E22" t="s">
+        <v>55</v>
+      </c>
+      <c r="F22" s="1">
+        <v>44429</v>
+      </c>
+      <c r="G22" t="s">
+        <v>55</v>
+      </c>
+      <c r="H22" s="1">
+        <v>44429</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="13.7" x14ac:dyDescent="0.4">
+      <c r="A23" t="s">
+        <v>2763</v>
+      </c>
+      <c r="B23" s="11" t="s">
+        <v>1357</v>
+      </c>
+      <c r="C23" t="s">
+        <v>2967</v>
+      </c>
+      <c r="D23" t="s">
+        <v>3065</v>
+      </c>
+      <c r="E23" t="s">
+        <v>55</v>
+      </c>
+      <c r="F23" s="1">
+        <v>44430</v>
+      </c>
+      <c r="G23" t="s">
+        <v>55</v>
+      </c>
+      <c r="H23" s="1">
+        <v>44430</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="13.7" x14ac:dyDescent="0.4">
+      <c r="A24" t="s">
+        <v>2764</v>
+      </c>
+      <c r="B24" s="11" t="s">
+        <v>1358</v>
+      </c>
+      <c r="C24" t="s">
+        <v>2968</v>
+      </c>
+      <c r="D24" t="s">
+        <v>3066</v>
+      </c>
+      <c r="E24" t="s">
+        <v>55</v>
+      </c>
+      <c r="F24" s="1">
+        <v>44431</v>
+      </c>
+      <c r="G24" t="s">
+        <v>55</v>
+      </c>
+      <c r="H24" s="1">
+        <v>44431</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="13.7" x14ac:dyDescent="0.4">
+      <c r="A25" t="s">
+        <v>2765</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>1359</v>
+      </c>
+      <c r="C25" t="s">
+        <v>2969</v>
+      </c>
+      <c r="D25" t="s">
+        <v>3067</v>
+      </c>
+      <c r="E25" t="s">
+        <v>55</v>
+      </c>
+      <c r="F25" s="1">
+        <v>44432</v>
+      </c>
+      <c r="G25" t="s">
+        <v>55</v>
+      </c>
+      <c r="H25" s="1">
+        <v>44432</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="13.7" x14ac:dyDescent="0.4">
+      <c r="A26" t="s">
+        <v>2766</v>
+      </c>
+      <c r="B26" s="11" t="s">
+        <v>1360</v>
+      </c>
+      <c r="C26" t="s">
+        <v>2970</v>
+      </c>
+      <c r="D26" t="s">
+        <v>3068</v>
+      </c>
+      <c r="E26" t="s">
+        <v>55</v>
+      </c>
+      <c r="F26" s="1">
+        <v>44433</v>
+      </c>
+      <c r="G26" t="s">
+        <v>55</v>
+      </c>
+      <c r="H26" s="1">
+        <v>44433</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="13.7" x14ac:dyDescent="0.4">
+      <c r="A27" t="s">
+        <v>2767</v>
+      </c>
+      <c r="B27" s="11" t="s">
+        <v>1361</v>
+      </c>
+      <c r="C27" t="s">
+        <v>2971</v>
+      </c>
+      <c r="D27" t="s">
+        <v>3069</v>
+      </c>
+      <c r="E27" t="s">
+        <v>55</v>
+      </c>
+      <c r="F27" s="1">
+        <v>44434</v>
+      </c>
+      <c r="G27" t="s">
+        <v>55</v>
+      </c>
+      <c r="H27" s="1">
+        <v>44434</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="13.7" x14ac:dyDescent="0.4">
+      <c r="A28" t="s">
+        <v>2768</v>
+      </c>
+      <c r="B28" s="11" t="s">
+        <v>1362</v>
+      </c>
+      <c r="C28" t="s">
+        <v>2972</v>
+      </c>
+      <c r="D28" t="s">
+        <v>3070</v>
+      </c>
+      <c r="E28" t="s">
+        <v>55</v>
+      </c>
+      <c r="F28" s="1">
+        <v>44435</v>
+      </c>
+      <c r="G28" t="s">
+        <v>55</v>
+      </c>
+      <c r="H28" s="1">
+        <v>44435</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="13.7" x14ac:dyDescent="0.4">
+      <c r="A29" t="s">
+        <v>2769</v>
+      </c>
+      <c r="B29" s="11" t="s">
+        <v>1363</v>
+      </c>
+      <c r="C29" t="s">
+        <v>2973</v>
+      </c>
+      <c r="D29" t="s">
+        <v>3071</v>
+      </c>
+      <c r="E29" t="s">
+        <v>55</v>
+      </c>
+      <c r="F29" s="1">
+        <v>44436</v>
+      </c>
+      <c r="G29" t="s">
+        <v>55</v>
+      </c>
+      <c r="H29" s="1">
+        <v>44436</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="13.7" x14ac:dyDescent="0.4">
+      <c r="A30" t="s">
+        <v>2770</v>
+      </c>
+      <c r="B30" s="11" t="s">
+        <v>1364</v>
+      </c>
+      <c r="C30" t="s">
+        <v>2974</v>
+      </c>
+      <c r="D30" t="s">
+        <v>3072</v>
+      </c>
+      <c r="E30" t="s">
+        <v>55</v>
+      </c>
+      <c r="F30" s="1">
+        <v>44437</v>
+      </c>
+      <c r="G30" t="s">
+        <v>55</v>
+      </c>
+      <c r="H30" s="1">
+        <v>44437</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="13.7" x14ac:dyDescent="0.4">
+      <c r="A31" t="s">
+        <v>2771</v>
+      </c>
+      <c r="B31" s="11" t="s">
+        <v>1365</v>
+      </c>
+      <c r="C31" t="s">
+        <v>2975</v>
+      </c>
+      <c r="D31" t="s">
+        <v>3073</v>
+      </c>
+      <c r="E31" t="s">
+        <v>55</v>
+      </c>
+      <c r="F31" s="1">
+        <v>44438</v>
+      </c>
+      <c r="G31" t="s">
+        <v>55</v>
+      </c>
+      <c r="H31" s="1">
+        <v>44438</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="13.7" x14ac:dyDescent="0.4">
+      <c r="A32" t="s">
+        <v>2772</v>
+      </c>
+      <c r="B32" s="11" t="s">
+        <v>1366</v>
+      </c>
+      <c r="C32" t="s">
+        <v>2976</v>
+      </c>
+      <c r="D32" t="s">
+        <v>3074</v>
+      </c>
+      <c r="E32" t="s">
+        <v>55</v>
+      </c>
+      <c r="F32" s="1">
+        <v>44439</v>
+      </c>
+      <c r="G32" t="s">
+        <v>55</v>
+      </c>
+      <c r="H32" s="1">
+        <v>44439</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="13.7" x14ac:dyDescent="0.4">
+      <c r="A33" t="s">
+        <v>2773</v>
+      </c>
+      <c r="B33" s="11" t="s">
+        <v>1367</v>
+      </c>
+      <c r="C33" t="s">
+        <v>2977</v>
+      </c>
+      <c r="D33" t="s">
+        <v>3075</v>
+      </c>
+      <c r="E33" t="s">
+        <v>55</v>
+      </c>
+      <c r="F33" s="1">
+        <v>44440</v>
+      </c>
+      <c r="G33" t="s">
+        <v>55</v>
+      </c>
+      <c r="H33" s="1">
+        <v>44440</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="13.7" x14ac:dyDescent="0.4">
+      <c r="A34" t="s">
+        <v>2774</v>
+      </c>
+      <c r="B34" s="11" t="s">
+        <v>1368</v>
+      </c>
+      <c r="C34" t="s">
+        <v>2978</v>
+      </c>
+      <c r="D34" t="s">
+        <v>3076</v>
+      </c>
+      <c r="E34" t="s">
+        <v>55</v>
+      </c>
+      <c r="F34" s="1">
+        <v>44441</v>
+      </c>
+      <c r="G34" t="s">
+        <v>55</v>
+      </c>
+      <c r="H34" s="1">
+        <v>44441</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="13.7" x14ac:dyDescent="0.4">
+      <c r="A35" t="s">
+        <v>2775</v>
+      </c>
+      <c r="B35" s="11" t="s">
+        <v>1369</v>
+      </c>
+      <c r="C35" t="s">
+        <v>2979</v>
+      </c>
+      <c r="D35" t="s">
+        <v>3077</v>
+      </c>
+      <c r="E35" t="s">
+        <v>55</v>
+      </c>
+      <c r="F35" s="1">
+        <v>44442</v>
+      </c>
+      <c r="G35" t="s">
+        <v>55</v>
+      </c>
+      <c r="H35" s="1">
+        <v>44442</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="13.7" x14ac:dyDescent="0.4">
+      <c r="A36" t="s">
+        <v>2776</v>
+      </c>
+      <c r="B36" s="11" t="s">
+        <v>1370</v>
+      </c>
+      <c r="C36" t="s">
+        <v>2980</v>
+      </c>
+      <c r="D36" t="s">
+        <v>3078</v>
+      </c>
+      <c r="E36" t="s">
+        <v>55</v>
+      </c>
+      <c r="F36" s="1">
+        <v>44443</v>
+      </c>
+      <c r="G36" t="s">
+        <v>55</v>
+      </c>
+      <c r="H36" s="1">
+        <v>44443</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="13.7" x14ac:dyDescent="0.4">
+      <c r="A37" t="s">
+        <v>2777</v>
+      </c>
+      <c r="B37" s="11" t="s">
+        <v>1371</v>
+      </c>
+      <c r="C37" t="s">
+        <v>1855</v>
+      </c>
+      <c r="D37" t="s">
+        <v>3079</v>
+      </c>
+      <c r="E37" t="s">
+        <v>55</v>
+      </c>
+      <c r="F37" s="1">
+        <v>44444</v>
+      </c>
+      <c r="G37" t="s">
+        <v>55</v>
+      </c>
+      <c r="H37" s="1">
+        <v>44444</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="13.7" x14ac:dyDescent="0.4">
+      <c r="A38" t="s">
+        <v>2778</v>
+      </c>
+      <c r="B38" s="11" t="s">
+        <v>1372</v>
+      </c>
+      <c r="C38" t="s">
+        <v>2981</v>
+      </c>
+      <c r="D38" t="s">
+        <v>3080</v>
+      </c>
+      <c r="E38" t="s">
+        <v>55</v>
+      </c>
+      <c r="F38" s="1">
+        <v>44445</v>
+      </c>
+      <c r="G38" t="s">
+        <v>55</v>
+      </c>
+      <c r="H38" s="1">
+        <v>44445</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="13.7" x14ac:dyDescent="0.4">
+      <c r="A39" t="s">
+        <v>2779</v>
+      </c>
+      <c r="B39" s="11" t="s">
+        <v>1373</v>
+      </c>
+      <c r="C39" t="s">
+        <v>2982</v>
+      </c>
+      <c r="D39" t="s">
+        <v>3081</v>
+      </c>
+      <c r="E39" t="s">
+        <v>55</v>
+      </c>
+      <c r="F39" s="1">
+        <v>44446</v>
+      </c>
+      <c r="G39" t="s">
+        <v>55</v>
+      </c>
+      <c r="H39" s="1">
+        <v>44446</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="13.7" x14ac:dyDescent="0.4">
+      <c r="A40" t="s">
+        <v>2780</v>
+      </c>
+      <c r="B40" s="11" t="s">
+        <v>1374</v>
+      </c>
+      <c r="C40" t="s">
+        <v>2983</v>
+      </c>
+      <c r="D40" t="s">
+        <v>3082</v>
+      </c>
+      <c r="E40" t="s">
+        <v>55</v>
+      </c>
+      <c r="F40" s="1">
+        <v>44447</v>
+      </c>
+      <c r="G40" t="s">
+        <v>55</v>
+      </c>
+      <c r="H40" s="1">
+        <v>44447</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="13.7" x14ac:dyDescent="0.4">
+      <c r="A41" t="s">
+        <v>2781</v>
+      </c>
+      <c r="B41" s="11" t="s">
+        <v>1375</v>
+      </c>
+      <c r="C41" t="s">
+        <v>2984</v>
+      </c>
+      <c r="D41" t="s">
+        <v>3083</v>
+      </c>
+      <c r="E41" t="s">
+        <v>55</v>
+      </c>
+      <c r="F41" s="1">
+        <v>44448</v>
+      </c>
+      <c r="G41" t="s">
+        <v>55</v>
+      </c>
+      <c r="H41" s="1">
+        <v>44448</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="13.7" x14ac:dyDescent="0.4">
+      <c r="A42" t="s">
+        <v>2782</v>
+      </c>
+      <c r="B42" s="11" t="s">
+        <v>1376</v>
+      </c>
+      <c r="C42" t="s">
+        <v>2985</v>
+      </c>
+      <c r="D42" t="s">
+        <v>3084</v>
+      </c>
+      <c r="E42" t="s">
+        <v>55</v>
+      </c>
+      <c r="F42" s="1">
+        <v>44449</v>
+      </c>
+      <c r="G42" t="s">
+        <v>55</v>
+      </c>
+      <c r="H42" s="1">
+        <v>44449</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="13.7" x14ac:dyDescent="0.4">
+      <c r="A43" t="s">
+        <v>2783</v>
+      </c>
+      <c r="B43" s="11" t="s">
+        <v>1377</v>
+      </c>
+      <c r="C43" t="s">
+        <v>2986</v>
+      </c>
+      <c r="D43" t="s">
+        <v>3085</v>
+      </c>
+      <c r="E43" t="s">
+        <v>55</v>
+      </c>
+      <c r="F43" s="1">
+        <v>44450</v>
+      </c>
+      <c r="G43" t="s">
+        <v>55</v>
+      </c>
+      <c r="H43" s="1">
+        <v>44450</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="13.7" x14ac:dyDescent="0.4">
+      <c r="A44" t="s">
+        <v>2784</v>
+      </c>
+      <c r="B44" s="11" t="s">
+        <v>1378</v>
+      </c>
+      <c r="C44" t="s">
+        <v>2987</v>
+      </c>
+      <c r="D44" t="s">
+        <v>3086</v>
+      </c>
+      <c r="E44" t="s">
+        <v>55</v>
+      </c>
+      <c r="F44" s="1">
+        <v>44451</v>
+      </c>
+      <c r="G44" t="s">
+        <v>55</v>
+      </c>
+      <c r="H44" s="1">
+        <v>44451</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="13.7" x14ac:dyDescent="0.4">
+      <c r="A45" t="s">
+        <v>2785</v>
+      </c>
+      <c r="B45" s="11" t="s">
+        <v>1379</v>
+      </c>
+      <c r="C45" t="s">
+        <v>2988</v>
+      </c>
+      <c r="D45" t="s">
+        <v>3087</v>
+      </c>
+      <c r="E45" t="s">
+        <v>55</v>
+      </c>
+      <c r="F45" s="1">
+        <v>44452</v>
+      </c>
+      <c r="G45" t="s">
+        <v>55</v>
+      </c>
+      <c r="H45" s="1">
+        <v>44452</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="13.7" x14ac:dyDescent="0.4">
+      <c r="A46" t="s">
+        <v>2786</v>
+      </c>
+      <c r="B46" s="11" t="s">
+        <v>1380</v>
+      </c>
+      <c r="C46" t="s">
+        <v>2989</v>
+      </c>
+      <c r="D46" t="s">
+        <v>3088</v>
+      </c>
+      <c r="E46" t="s">
+        <v>55</v>
+      </c>
+      <c r="F46" s="1">
+        <v>44453</v>
+      </c>
+      <c r="G46" t="s">
+        <v>55</v>
+      </c>
+      <c r="H46" s="1">
+        <v>44453</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" ht="13.7" x14ac:dyDescent="0.4">
+      <c r="A47" t="s">
+        <v>2787</v>
+      </c>
+      <c r="B47" s="11" t="s">
+        <v>1381</v>
+      </c>
+      <c r="C47" t="s">
+        <v>2990</v>
+      </c>
+      <c r="D47" t="s">
+        <v>3089</v>
+      </c>
+      <c r="E47" t="s">
+        <v>55</v>
+      </c>
+      <c r="F47" s="1">
+        <v>44454</v>
+      </c>
+      <c r="G47" t="s">
+        <v>55</v>
+      </c>
+      <c r="H47" s="1">
+        <v>44454</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="13.7" x14ac:dyDescent="0.4">
+      <c r="A48" t="s">
+        <v>2788</v>
+      </c>
+      <c r="B48" s="11" t="s">
+        <v>1382</v>
+      </c>
+      <c r="C48" t="s">
+        <v>2991</v>
+      </c>
+      <c r="D48" t="s">
+        <v>3090</v>
+      </c>
+      <c r="E48" t="s">
+        <v>55</v>
+      </c>
+      <c r="F48" s="1">
+        <v>44455</v>
+      </c>
+      <c r="G48" t="s">
+        <v>55</v>
+      </c>
+      <c r="H48" s="1">
+        <v>44455</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" ht="13.7" x14ac:dyDescent="0.4">
+      <c r="A49" t="s">
+        <v>2789</v>
+      </c>
+      <c r="B49" s="11" t="s">
+        <v>1383</v>
+      </c>
+      <c r="C49" t="s">
+        <v>2992</v>
+      </c>
+      <c r="D49" t="s">
+        <v>3091</v>
+      </c>
+      <c r="E49" t="s">
+        <v>55</v>
+      </c>
+      <c r="F49" s="1">
+        <v>44456</v>
+      </c>
+      <c r="G49" t="s">
+        <v>55</v>
+      </c>
+      <c r="H49" s="1">
+        <v>44456</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" ht="13.7" x14ac:dyDescent="0.4">
+      <c r="A50" t="s">
+        <v>2790</v>
+      </c>
+      <c r="B50" s="11" t="s">
+        <v>1384</v>
+      </c>
+      <c r="C50" t="s">
+        <v>2993</v>
+      </c>
+      <c r="D50" t="s">
+        <v>3092</v>
+      </c>
+      <c r="E50" t="s">
+        <v>55</v>
+      </c>
+      <c r="F50" s="1">
+        <v>44457</v>
+      </c>
+      <c r="G50" t="s">
+        <v>55</v>
+      </c>
+      <c r="H50" s="1">
+        <v>44457</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" ht="13.7" x14ac:dyDescent="0.4">
+      <c r="A51" t="s">
+        <v>2791</v>
+      </c>
+      <c r="B51" s="11" t="s">
+        <v>1385</v>
+      </c>
+      <c r="C51" t="s">
+        <v>2994</v>
+      </c>
+      <c r="D51" t="s">
+        <v>3093</v>
+      </c>
+      <c r="E51" t="s">
+        <v>55</v>
+      </c>
+      <c r="F51" s="1">
+        <v>44458</v>
+      </c>
+      <c r="G51" t="s">
+        <v>55</v>
+      </c>
+      <c r="H51" s="1">
+        <v>44458</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" ht="13.7" x14ac:dyDescent="0.4">
+      <c r="A52" t="s">
+        <v>2792</v>
+      </c>
+      <c r="B52" s="11" t="s">
+        <v>1386</v>
+      </c>
+      <c r="C52" t="s">
+        <v>2995</v>
+      </c>
+      <c r="D52" t="s">
+        <v>3094</v>
+      </c>
+      <c r="E52" t="s">
+        <v>55</v>
+      </c>
+      <c r="F52" s="1">
+        <v>44459</v>
+      </c>
+      <c r="G52" t="s">
+        <v>55</v>
+      </c>
+      <c r="H52" s="1">
+        <v>44459</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" ht="13.7" x14ac:dyDescent="0.4">
+      <c r="A53" t="s">
+        <v>2793</v>
+      </c>
+      <c r="B53" s="11" t="s">
+        <v>1387</v>
+      </c>
+      <c r="C53" t="s">
+        <v>2996</v>
+      </c>
+      <c r="D53" t="s">
+        <v>3095</v>
+      </c>
+      <c r="E53" t="s">
+        <v>55</v>
+      </c>
+      <c r="F53" s="1">
+        <v>44460</v>
+      </c>
+      <c r="G53" t="s">
+        <v>55</v>
+      </c>
+      <c r="H53" s="1">
+        <v>44460</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" ht="13.7" x14ac:dyDescent="0.4">
+      <c r="A54" t="s">
+        <v>2794</v>
+      </c>
+      <c r="B54" s="11" t="s">
+        <v>1388</v>
+      </c>
+      <c r="C54" t="s">
+        <v>2997</v>
+      </c>
+      <c r="D54" t="s">
+        <v>3096</v>
+      </c>
+      <c r="E54" t="s">
+        <v>55</v>
+      </c>
+      <c r="F54" s="1">
+        <v>44461</v>
+      </c>
+      <c r="G54" t="s">
+        <v>55</v>
+      </c>
+      <c r="H54" s="1">
+        <v>44461</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" ht="13.7" x14ac:dyDescent="0.4">
+      <c r="A55" t="s">
+        <v>2795</v>
+      </c>
+      <c r="B55" s="11" t="s">
+        <v>1389</v>
+      </c>
+      <c r="C55" t="s">
+        <v>2998</v>
+      </c>
+      <c r="D55" t="s">
+        <v>3097</v>
+      </c>
+      <c r="E55" t="s">
+        <v>55</v>
+      </c>
+      <c r="F55" s="1">
+        <v>44462</v>
+      </c>
+      <c r="G55" t="s">
+        <v>55</v>
+      </c>
+      <c r="H55" s="1">
+        <v>44462</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" ht="13.7" x14ac:dyDescent="0.4">
+      <c r="A56" t="s">
+        <v>2796</v>
+      </c>
+      <c r="B56" s="11" t="s">
+        <v>1390</v>
+      </c>
+      <c r="C56" t="s">
+        <v>2999</v>
+      </c>
+      <c r="D56" t="s">
+        <v>3098</v>
+      </c>
+      <c r="E56" t="s">
+        <v>55</v>
+      </c>
+      <c r="F56" s="1">
+        <v>44463</v>
+      </c>
+      <c r="G56" t="s">
+        <v>55</v>
+      </c>
+      <c r="H56" s="1">
+        <v>44463</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" ht="13.7" x14ac:dyDescent="0.4">
+      <c r="A57" t="s">
+        <v>2797</v>
+      </c>
+      <c r="B57" s="11" t="s">
+        <v>1391</v>
+      </c>
+      <c r="C57" t="s">
+        <v>3000</v>
+      </c>
+      <c r="D57" t="s">
+        <v>3099</v>
+      </c>
+      <c r="E57" t="s">
+        <v>55</v>
+      </c>
+      <c r="F57" s="1">
+        <v>44464</v>
+      </c>
+      <c r="G57" t="s">
+        <v>55</v>
+      </c>
+      <c r="H57" s="1">
+        <v>44464</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" ht="13.7" x14ac:dyDescent="0.4">
+      <c r="A58" t="s">
+        <v>2798</v>
+      </c>
+      <c r="B58" s="11" t="s">
+        <v>1392</v>
+      </c>
+      <c r="C58" t="s">
+        <v>3001</v>
+      </c>
+      <c r="D58" t="s">
+        <v>3100</v>
+      </c>
+      <c r="E58" t="s">
+        <v>55</v>
+      </c>
+      <c r="F58" s="1">
+        <v>44465</v>
+      </c>
+      <c r="G58" t="s">
+        <v>55</v>
+      </c>
+      <c r="H58" s="1">
+        <v>44465</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" ht="13.7" x14ac:dyDescent="0.4">
+      <c r="A59" t="s">
+        <v>2799</v>
+      </c>
+      <c r="B59" s="11" t="s">
+        <v>1393</v>
+      </c>
+      <c r="C59" t="s">
+        <v>3002</v>
+      </c>
+      <c r="D59" t="s">
+        <v>3101</v>
+      </c>
+      <c r="E59" t="s">
+        <v>55</v>
+      </c>
+      <c r="F59" s="1">
+        <v>44466</v>
+      </c>
+      <c r="G59" t="s">
+        <v>55</v>
+      </c>
+      <c r="H59" s="1">
+        <v>44466</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" ht="13.7" x14ac:dyDescent="0.4">
+      <c r="A60" t="s">
+        <v>2800</v>
+      </c>
+      <c r="B60" s="11" t="s">
+        <v>1394</v>
+      </c>
+      <c r="C60" t="s">
+        <v>3003</v>
+      </c>
+      <c r="D60" t="s">
+        <v>3102</v>
+      </c>
+      <c r="E60" t="s">
+        <v>55</v>
+      </c>
+      <c r="F60" s="1">
+        <v>44467</v>
+      </c>
+      <c r="G60" t="s">
+        <v>55</v>
+      </c>
+      <c r="H60" s="1">
+        <v>44467</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" ht="13.7" x14ac:dyDescent="0.4">
+      <c r="A61" t="s">
+        <v>2801</v>
+      </c>
+      <c r="B61" s="11" t="s">
+        <v>1395</v>
+      </c>
+      <c r="C61" t="s">
+        <v>3004</v>
+      </c>
+      <c r="D61" t="s">
+        <v>3103</v>
+      </c>
+      <c r="E61" t="s">
+        <v>55</v>
+      </c>
+      <c r="F61" s="1">
+        <v>44468</v>
+      </c>
+      <c r="G61" t="s">
+        <v>55</v>
+      </c>
+      <c r="H61" s="1">
+        <v>44468</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" ht="13.7" x14ac:dyDescent="0.4">
+      <c r="A62" t="s">
+        <v>2802</v>
+      </c>
+      <c r="B62" s="11" t="s">
+        <v>1396</v>
+      </c>
+      <c r="C62" t="s">
+        <v>3005</v>
+      </c>
+      <c r="D62" t="s">
+        <v>3104</v>
+      </c>
+      <c r="E62" t="s">
+        <v>55</v>
+      </c>
+      <c r="F62" s="1">
+        <v>44469</v>
+      </c>
+      <c r="G62" t="s">
+        <v>55</v>
+      </c>
+      <c r="H62" s="1">
+        <v>44469</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" ht="13.7" x14ac:dyDescent="0.4">
+      <c r="A63" t="s">
+        <v>2803</v>
+      </c>
+      <c r="B63" s="11" t="s">
+        <v>1397</v>
+      </c>
+      <c r="C63" t="s">
+        <v>3006</v>
+      </c>
+      <c r="D63" t="s">
+        <v>3105</v>
+      </c>
+      <c r="E63" t="s">
+        <v>55</v>
+      </c>
+      <c r="F63" s="1">
+        <v>44470</v>
+      </c>
+      <c r="G63" t="s">
+        <v>55</v>
+      </c>
+      <c r="H63" s="1">
+        <v>44470</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" ht="13.7" x14ac:dyDescent="0.4">
+      <c r="A64" t="s">
+        <v>2804</v>
+      </c>
+      <c r="B64" s="11" t="s">
+        <v>1398</v>
+      </c>
+      <c r="C64" t="s">
+        <v>3007</v>
+      </c>
+      <c r="D64" t="s">
+        <v>3106</v>
+      </c>
+      <c r="E64" t="s">
+        <v>55</v>
+      </c>
+      <c r="F64" s="1">
+        <v>44471</v>
+      </c>
+      <c r="G64" t="s">
+        <v>55</v>
+      </c>
+      <c r="H64" s="1">
+        <v>44471</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" ht="13.7" x14ac:dyDescent="0.4">
+      <c r="A65" t="s">
+        <v>2805</v>
+      </c>
+      <c r="B65" s="11" t="s">
+        <v>1399</v>
+      </c>
+      <c r="C65" t="s">
+        <v>3008</v>
+      </c>
+      <c r="D65" t="s">
+        <v>3107</v>
+      </c>
+      <c r="E65" t="s">
+        <v>55</v>
+      </c>
+      <c r="F65" s="1">
+        <v>44472</v>
+      </c>
+      <c r="G65" t="s">
+        <v>55</v>
+      </c>
+      <c r="H65" s="1">
+        <v>44472</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" ht="13.7" x14ac:dyDescent="0.4">
+      <c r="A66" t="s">
+        <v>2806</v>
+      </c>
+      <c r="B66" s="11" t="s">
+        <v>1400</v>
+      </c>
+      <c r="C66" t="s">
+        <v>3009</v>
+      </c>
+      <c r="D66" t="s">
+        <v>3108</v>
+      </c>
+      <c r="E66" t="s">
+        <v>55</v>
+      </c>
+      <c r="F66" s="1">
+        <v>44473</v>
+      </c>
+      <c r="G66" t="s">
+        <v>55</v>
+      </c>
+      <c r="H66" s="1">
+        <v>44473</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" ht="13.7" x14ac:dyDescent="0.4">
+      <c r="A67" t="s">
+        <v>2807</v>
+      </c>
+      <c r="B67" s="11" t="s">
+        <v>1401</v>
+      </c>
+      <c r="C67" t="s">
+        <v>3010</v>
+      </c>
+      <c r="D67" t="s">
+        <v>3109</v>
+      </c>
+      <c r="E67" t="s">
+        <v>55</v>
+      </c>
+      <c r="F67" s="1">
+        <v>44474</v>
+      </c>
+      <c r="G67" t="s">
+        <v>55</v>
+      </c>
+      <c r="H67" s="1">
+        <v>44474</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" ht="13.7" x14ac:dyDescent="0.4">
+      <c r="A68" t="s">
+        <v>2808</v>
+      </c>
+      <c r="B68" s="11" t="s">
+        <v>1402</v>
+      </c>
+      <c r="C68" t="s">
+        <v>3011</v>
+      </c>
+      <c r="D68" t="s">
+        <v>3110</v>
+      </c>
+      <c r="E68" t="s">
+        <v>55</v>
+      </c>
+      <c r="F68" s="1">
+        <v>44475</v>
+      </c>
+      <c r="G68" t="s">
+        <v>55</v>
+      </c>
+      <c r="H68" s="1">
+        <v>44475</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" ht="13.7" x14ac:dyDescent="0.4">
+      <c r="A69" t="s">
+        <v>2809</v>
+      </c>
+      <c r="B69" s="11" t="s">
+        <v>1403</v>
+      </c>
+      <c r="C69" t="s">
+        <v>3012</v>
+      </c>
+      <c r="D69" t="s">
+        <v>3111</v>
+      </c>
+      <c r="E69" t="s">
+        <v>55</v>
+      </c>
+      <c r="F69" s="1">
+        <v>44476</v>
+      </c>
+      <c r="G69" t="s">
+        <v>55</v>
+      </c>
+      <c r="H69" s="1">
+        <v>44476</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" ht="13.7" x14ac:dyDescent="0.4">
+      <c r="A70" t="s">
+        <v>2810</v>
+      </c>
+      <c r="B70" s="11" t="s">
+        <v>1404</v>
+      </c>
+      <c r="C70" t="s">
+        <v>3013</v>
+      </c>
+      <c r="D70" t="s">
+        <v>3112</v>
+      </c>
+      <c r="E70" t="s">
+        <v>55</v>
+      </c>
+      <c r="F70" s="1">
+        <v>44477</v>
+      </c>
+      <c r="G70" t="s">
+        <v>55</v>
+      </c>
+      <c r="H70" s="1">
+        <v>44477</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" ht="13.7" x14ac:dyDescent="0.4">
+      <c r="A71" t="s">
+        <v>2811</v>
+      </c>
+      <c r="B71" s="11" t="s">
+        <v>1405</v>
+      </c>
+      <c r="C71" t="s">
+        <v>3014</v>
+      </c>
+      <c r="D71" t="s">
+        <v>3113</v>
+      </c>
+      <c r="E71" t="s">
+        <v>55</v>
+      </c>
+      <c r="F71" s="1">
+        <v>44478</v>
+      </c>
+      <c r="G71" t="s">
+        <v>55</v>
+      </c>
+      <c r="H71" s="1">
+        <v>44478</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" ht="13.7" x14ac:dyDescent="0.4">
+      <c r="A72" t="s">
+        <v>2812</v>
+      </c>
+      <c r="B72" s="11" t="s">
+        <v>1406</v>
+      </c>
+      <c r="C72" t="s">
+        <v>3015</v>
+      </c>
+      <c r="D72" t="s">
+        <v>3114</v>
+      </c>
+      <c r="E72" t="s">
+        <v>55</v>
+      </c>
+      <c r="F72" s="1">
+        <v>44479</v>
+      </c>
+      <c r="G72" t="s">
+        <v>55</v>
+      </c>
+      <c r="H72" s="1">
+        <v>44479</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" ht="13.7" x14ac:dyDescent="0.4">
+      <c r="A73" t="s">
+        <v>2813</v>
+      </c>
+      <c r="B73" s="11" t="s">
+        <v>1407</v>
+      </c>
+      <c r="C73" t="s">
+        <v>3016</v>
+      </c>
+      <c r="D73" t="s">
+        <v>3115</v>
+      </c>
+      <c r="E73" t="s">
+        <v>55</v>
+      </c>
+      <c r="F73" s="1">
+        <v>44480</v>
+      </c>
+      <c r="G73" t="s">
+        <v>55</v>
+      </c>
+      <c r="H73" s="1">
+        <v>44480</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" ht="13.7" x14ac:dyDescent="0.4">
+      <c r="A74" t="s">
+        <v>2814</v>
+      </c>
+      <c r="B74" s="11" t="s">
+        <v>1408</v>
+      </c>
+      <c r="C74" t="s">
+        <v>3017</v>
+      </c>
+      <c r="D74" t="s">
+        <v>3116</v>
+      </c>
+      <c r="E74" t="s">
+        <v>55</v>
+      </c>
+      <c r="F74" s="1">
+        <v>44481</v>
+      </c>
+      <c r="G74" t="s">
+        <v>55</v>
+      </c>
+      <c r="H74" s="1">
+        <v>44481</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" ht="13.7" x14ac:dyDescent="0.4">
+      <c r="A75" t="s">
+        <v>2815</v>
+      </c>
+      <c r="B75" s="11" t="s">
+        <v>1409</v>
+      </c>
+      <c r="C75" t="s">
+        <v>3018</v>
+      </c>
+      <c r="D75" t="s">
+        <v>3117</v>
+      </c>
+      <c r="E75" t="s">
+        <v>55</v>
+      </c>
+      <c r="F75" s="1">
+        <v>44482</v>
+      </c>
+      <c r="G75" t="s">
+        <v>55</v>
+      </c>
+      <c r="H75" s="1">
+        <v>44482</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" ht="13.7" x14ac:dyDescent="0.4">
+      <c r="A76" t="s">
+        <v>2816</v>
+      </c>
+      <c r="B76" s="11" t="s">
+        <v>1410</v>
+      </c>
+      <c r="C76" t="s">
+        <v>3019</v>
+      </c>
+      <c r="D76" t="s">
+        <v>3118</v>
+      </c>
+      <c r="E76" t="s">
+        <v>55</v>
+      </c>
+      <c r="F76" s="1">
+        <v>44483</v>
+      </c>
+      <c r="G76" t="s">
+        <v>55</v>
+      </c>
+      <c r="H76" s="1">
+        <v>44483</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" ht="13.7" x14ac:dyDescent="0.4">
+      <c r="A77" t="s">
+        <v>2817</v>
+      </c>
+      <c r="B77" s="11" t="s">
+        <v>1411</v>
+      </c>
+      <c r="C77" t="s">
+        <v>3020</v>
+      </c>
+      <c r="D77" t="s">
+        <v>3119</v>
+      </c>
+      <c r="E77" t="s">
+        <v>55</v>
+      </c>
+      <c r="F77" s="1">
+        <v>44484</v>
+      </c>
+      <c r="G77" t="s">
+        <v>55</v>
+      </c>
+      <c r="H77" s="1">
+        <v>44484</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" ht="13.7" x14ac:dyDescent="0.4">
+      <c r="A78" t="s">
+        <v>2818</v>
+      </c>
+      <c r="B78" s="11" t="s">
+        <v>1412</v>
+      </c>
+      <c r="C78" t="s">
+        <v>3021</v>
+      </c>
+      <c r="D78" t="s">
+        <v>3120</v>
+      </c>
+      <c r="E78" t="s">
+        <v>55</v>
+      </c>
+      <c r="F78" s="1">
+        <v>44485</v>
+      </c>
+      <c r="G78" t="s">
+        <v>55</v>
+      </c>
+      <c r="H78" s="1">
+        <v>44485</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" ht="13.7" x14ac:dyDescent="0.4">
+      <c r="A79" t="s">
+        <v>2819</v>
+      </c>
+      <c r="B79" s="11" t="s">
+        <v>1413</v>
+      </c>
+      <c r="C79" t="s">
+        <v>3022</v>
+      </c>
+      <c r="D79" t="s">
+        <v>3121</v>
+      </c>
+      <c r="E79" t="s">
+        <v>55</v>
+      </c>
+      <c r="F79" s="1">
+        <v>44486</v>
+      </c>
+      <c r="G79" t="s">
+        <v>55</v>
+      </c>
+      <c r="H79" s="1">
+        <v>44486</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" ht="13.7" x14ac:dyDescent="0.4">
+      <c r="A80" t="s">
+        <v>2820</v>
+      </c>
+      <c r="B80" s="11" t="s">
+        <v>1414</v>
+      </c>
+      <c r="C80" t="s">
+        <v>3023</v>
+      </c>
+      <c r="D80" t="s">
+        <v>3122</v>
+      </c>
+      <c r="E80" t="s">
+        <v>55</v>
+      </c>
+      <c r="F80" s="1">
+        <v>44487</v>
+      </c>
+      <c r="G80" t="s">
+        <v>55</v>
+      </c>
+      <c r="H80" s="1">
+        <v>44487</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" ht="13.7" x14ac:dyDescent="0.4">
+      <c r="A81" t="s">
+        <v>2821</v>
+      </c>
+      <c r="B81" s="11" t="s">
+        <v>1415</v>
+      </c>
+      <c r="C81" t="s">
+        <v>3024</v>
+      </c>
+      <c r="D81" t="s">
+        <v>3123</v>
+      </c>
+      <c r="E81" t="s">
+        <v>55</v>
+      </c>
+      <c r="F81" s="1">
+        <v>44488</v>
+      </c>
+      <c r="G81" t="s">
+        <v>55</v>
+      </c>
+      <c r="H81" s="1">
+        <v>44488</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" ht="13.7" x14ac:dyDescent="0.4">
+      <c r="A82" t="s">
+        <v>2822</v>
+      </c>
+      <c r="B82" s="11" t="s">
+        <v>1416</v>
+      </c>
+      <c r="C82" t="s">
+        <v>3025</v>
+      </c>
+      <c r="D82" t="s">
+        <v>3124</v>
+      </c>
+      <c r="E82" t="s">
+        <v>55</v>
+      </c>
+      <c r="F82" s="1">
+        <v>44489</v>
+      </c>
+      <c r="G82" t="s">
+        <v>55</v>
+      </c>
+      <c r="H82" s="1">
+        <v>44489</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" ht="13.7" x14ac:dyDescent="0.4">
+      <c r="A83" t="s">
+        <v>2823</v>
+      </c>
+      <c r="B83" s="11" t="s">
+        <v>1417</v>
+      </c>
+      <c r="C83" t="s">
+        <v>3026</v>
+      </c>
+      <c r="D83" t="s">
+        <v>3125</v>
+      </c>
+      <c r="E83" t="s">
+        <v>55</v>
+      </c>
+      <c r="F83" s="1">
+        <v>44490</v>
+      </c>
+      <c r="G83" t="s">
+        <v>55</v>
+      </c>
+      <c r="H83" s="1">
+        <v>44490</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" ht="13.7" x14ac:dyDescent="0.4">
+      <c r="A84" t="s">
+        <v>2824</v>
+      </c>
+      <c r="B84" s="11" t="s">
+        <v>1418</v>
+      </c>
+      <c r="C84" t="s">
+        <v>3027</v>
+      </c>
+      <c r="D84" t="s">
+        <v>3126</v>
+      </c>
+      <c r="E84" t="s">
+        <v>55</v>
+      </c>
+      <c r="F84" s="1">
+        <v>44491</v>
+      </c>
+      <c r="G84" t="s">
+        <v>55</v>
+      </c>
+      <c r="H84" s="1">
+        <v>44491</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" ht="13.7" x14ac:dyDescent="0.4">
+      <c r="A85" t="s">
+        <v>2825</v>
+      </c>
+      <c r="B85" s="11" t="s">
+        <v>1419</v>
+      </c>
+      <c r="C85" t="s">
+        <v>3028</v>
+      </c>
+      <c r="D85" t="s">
+        <v>3127</v>
+      </c>
+      <c r="E85" t="s">
+        <v>55</v>
+      </c>
+      <c r="F85" s="1">
+        <v>44492</v>
+      </c>
+      <c r="G85" t="s">
+        <v>55</v>
+      </c>
+      <c r="H85" s="1">
+        <v>44492</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" ht="13.7" x14ac:dyDescent="0.4">
+      <c r="A86" t="s">
+        <v>2826</v>
+      </c>
+      <c r="B86" s="11" t="s">
+        <v>1420</v>
+      </c>
+      <c r="C86" t="s">
+        <v>3029</v>
+      </c>
+      <c r="D86" t="s">
+        <v>3128</v>
+      </c>
+      <c r="E86" t="s">
+        <v>55</v>
+      </c>
+      <c r="F86" s="1">
+        <v>44493</v>
+      </c>
+      <c r="G86" t="s">
+        <v>55</v>
+      </c>
+      <c r="H86" s="1">
+        <v>44493</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" ht="13.7" x14ac:dyDescent="0.4">
+      <c r="A87" t="s">
+        <v>2827</v>
+      </c>
+      <c r="B87" s="11" t="s">
+        <v>1421</v>
+      </c>
+      <c r="C87" t="s">
+        <v>3030</v>
+      </c>
+      <c r="D87" t="s">
+        <v>3129</v>
+      </c>
+      <c r="E87" t="s">
+        <v>55</v>
+      </c>
+      <c r="F87" s="1">
+        <v>44494</v>
+      </c>
+      <c r="G87" t="s">
+        <v>55</v>
+      </c>
+      <c r="H87" s="1">
+        <v>44494</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" ht="13.7" x14ac:dyDescent="0.4">
+      <c r="A88" t="s">
+        <v>2828</v>
+      </c>
+      <c r="B88" s="11" t="s">
+        <v>1422</v>
+      </c>
+      <c r="C88" t="s">
+        <v>3031</v>
+      </c>
+      <c r="D88" t="s">
+        <v>3130</v>
+      </c>
+      <c r="E88" t="s">
+        <v>55</v>
+      </c>
+      <c r="F88" s="1">
+        <v>44495</v>
+      </c>
+      <c r="G88" t="s">
+        <v>55</v>
+      </c>
+      <c r="H88" s="1">
+        <v>44495</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" ht="13.7" x14ac:dyDescent="0.4">
+      <c r="A89" t="s">
+        <v>2829</v>
+      </c>
+      <c r="B89" s="11" t="s">
+        <v>1423</v>
+      </c>
+      <c r="C89" t="s">
+        <v>3032</v>
+      </c>
+      <c r="D89" t="s">
+        <v>3131</v>
+      </c>
+      <c r="E89" t="s">
+        <v>55</v>
+      </c>
+      <c r="F89" s="1">
+        <v>44496</v>
+      </c>
+      <c r="G89" t="s">
+        <v>55</v>
+      </c>
+      <c r="H89" s="1">
+        <v>44496</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" ht="13.7" x14ac:dyDescent="0.4">
+      <c r="A90" t="s">
+        <v>2830</v>
+      </c>
+      <c r="B90" s="11" t="s">
+        <v>1424</v>
+      </c>
+      <c r="C90" t="s">
+        <v>3033</v>
+      </c>
+      <c r="D90" t="s">
+        <v>3132</v>
+      </c>
+      <c r="E90" t="s">
+        <v>55</v>
+      </c>
+      <c r="F90" s="1">
+        <v>44497</v>
+      </c>
+      <c r="G90" t="s">
+        <v>55</v>
+      </c>
+      <c r="H90" s="1">
+        <v>44497</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" ht="13.7" x14ac:dyDescent="0.4">
+      <c r="A91" t="s">
+        <v>2831</v>
+      </c>
+      <c r="B91" s="11" t="s">
+        <v>1425</v>
+      </c>
+      <c r="C91" t="s">
+        <v>3034</v>
+      </c>
+      <c r="D91" t="s">
+        <v>3133</v>
+      </c>
+      <c r="E91" t="s">
+        <v>55</v>
+      </c>
+      <c r="F91" s="1">
+        <v>44498</v>
+      </c>
+      <c r="G91" t="s">
+        <v>55</v>
+      </c>
+      <c r="H91" s="1">
+        <v>44498</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" ht="13.7" x14ac:dyDescent="0.4">
+      <c r="A92" t="s">
+        <v>2832</v>
+      </c>
+      <c r="B92" s="11" t="s">
+        <v>1426</v>
+      </c>
+      <c r="C92" t="s">
+        <v>3035</v>
+      </c>
+      <c r="D92" t="s">
+        <v>3134</v>
+      </c>
+      <c r="E92" t="s">
+        <v>55</v>
+      </c>
+      <c r="F92" s="1">
+        <v>44499</v>
+      </c>
+      <c r="G92" t="s">
+        <v>55</v>
+      </c>
+      <c r="H92" s="1">
+        <v>44499</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" ht="13.7" x14ac:dyDescent="0.4">
+      <c r="A93" t="s">
+        <v>2833</v>
+      </c>
+      <c r="B93" s="11" t="s">
+        <v>1427</v>
+      </c>
+      <c r="C93" t="s">
+        <v>3036</v>
+      </c>
+      <c r="D93" t="s">
+        <v>3135</v>
+      </c>
+      <c r="E93" t="s">
+        <v>55</v>
+      </c>
+      <c r="F93" s="1">
+        <v>44500</v>
+      </c>
+      <c r="G93" t="s">
+        <v>55</v>
+      </c>
+      <c r="H93" s="1">
+        <v>44500</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" ht="13.7" x14ac:dyDescent="0.4">
+      <c r="A94" t="s">
+        <v>2834</v>
+      </c>
+      <c r="B94" s="11" t="s">
+        <v>1428</v>
+      </c>
+      <c r="C94" t="s">
+        <v>3037</v>
+      </c>
+      <c r="D94" t="s">
+        <v>3136</v>
+      </c>
+      <c r="E94" t="s">
+        <v>55</v>
+      </c>
+      <c r="F94" s="1">
+        <v>44501</v>
+      </c>
+      <c r="G94" t="s">
+        <v>55</v>
+      </c>
+      <c r="H94" s="1">
+        <v>44501</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" ht="13.7" x14ac:dyDescent="0.4">
+      <c r="A95" s="7" t="s">
+        <v>2835</v>
+      </c>
+      <c r="B95" s="11" t="s">
+        <v>1429</v>
+      </c>
+      <c r="C95" t="s">
+        <v>3038</v>
+      </c>
+      <c r="D95" t="s">
+        <v>3137</v>
+      </c>
+      <c r="E95" t="s">
+        <v>55</v>
+      </c>
+      <c r="F95" s="1">
+        <v>44502</v>
+      </c>
+      <c r="G95" t="s">
+        <v>55</v>
+      </c>
+      <c r="H95" s="1">
+        <v>44502</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" ht="13.7" x14ac:dyDescent="0.4">
+      <c r="A96" t="s">
+        <v>2836</v>
+      </c>
+      <c r="B96" s="11" t="s">
+        <v>1430</v>
+      </c>
+      <c r="C96" t="s">
+        <v>3039</v>
+      </c>
+      <c r="D96" t="s">
+        <v>3138</v>
+      </c>
+      <c r="E96" t="s">
+        <v>55</v>
+      </c>
+      <c r="F96" s="1">
+        <v>44503</v>
+      </c>
+      <c r="G96" t="s">
+        <v>55</v>
+      </c>
+      <c r="H96" s="1">
+        <v>44503</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" ht="13.7" x14ac:dyDescent="0.4">
+      <c r="A97" t="s">
+        <v>2837</v>
+      </c>
+      <c r="B97" s="11" t="s">
+        <v>1431</v>
+      </c>
+      <c r="C97" t="s">
+        <v>3040</v>
+      </c>
+      <c r="D97" t="s">
+        <v>3139</v>
+      </c>
+      <c r="E97" t="s">
+        <v>55</v>
+      </c>
+      <c r="F97" s="1">
+        <v>44504</v>
+      </c>
+      <c r="G97" t="s">
+        <v>55</v>
+      </c>
+      <c r="H97" s="1">
+        <v>44504</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" ht="13.7" x14ac:dyDescent="0.4">
+      <c r="A98" t="s">
+        <v>2838</v>
+      </c>
+      <c r="B98" s="11" t="s">
+        <v>1432</v>
+      </c>
+      <c r="C98" t="s">
+        <v>3041</v>
+      </c>
+      <c r="D98" t="s">
+        <v>3140</v>
+      </c>
+      <c r="E98" t="s">
+        <v>55</v>
+      </c>
+      <c r="F98" s="1">
+        <v>44505</v>
+      </c>
+      <c r="G98" t="s">
+        <v>55</v>
+      </c>
+      <c r="H98" s="1">
+        <v>44505</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" ht="13.7" x14ac:dyDescent="0.4">
+      <c r="A99" t="s">
+        <v>2839</v>
+      </c>
+      <c r="B99" s="11" t="s">
+        <v>1433</v>
+      </c>
+      <c r="C99" t="s">
+        <v>3042</v>
+      </c>
+      <c r="D99" t="s">
+        <v>3141</v>
+      </c>
+      <c r="E99" t="s">
+        <v>55</v>
+      </c>
+      <c r="F99" s="1">
+        <v>44506</v>
+      </c>
+      <c r="G99" t="s">
+        <v>55</v>
+      </c>
+      <c r="H99" s="1">
+        <v>44506</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" ht="13.7" x14ac:dyDescent="0.4">
+      <c r="A100" t="s">
+        <v>2840</v>
+      </c>
+      <c r="B100" s="11" t="s">
+        <v>1434</v>
+      </c>
+      <c r="C100" t="s">
+        <v>3043</v>
+      </c>
+      <c r="D100" t="s">
+        <v>3142</v>
+      </c>
+      <c r="E100" t="s">
+        <v>55</v>
+      </c>
+      <c r="F100" s="1">
+        <v>44507</v>
+      </c>
+      <c r="G100" t="s">
+        <v>55</v>
+      </c>
+      <c r="H100" s="1">
+        <v>44507</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" ht="13.7" x14ac:dyDescent="0.4">
+      <c r="A101" t="s">
+        <v>2945</v>
+      </c>
+      <c r="B101" s="11" t="s">
+        <v>2717</v>
+      </c>
+      <c r="C101" t="s">
+        <v>3044</v>
+      </c>
+      <c r="D101" t="s">
+        <v>3143</v>
+      </c>
+      <c r="E101" t="s">
+        <v>55</v>
+      </c>
+      <c r="F101" s="1">
+        <v>44508</v>
+      </c>
+      <c r="G101" t="s">
+        <v>55</v>
+      </c>
+      <c r="H101" s="1">
+        <v>44508</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:G101"/>
   <sheetViews>
@@ -20122,7 +23678,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:H101"/>
   <sheetViews>
@@ -28998,8 +32554,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:M101"/>
   <sheetViews>
-    <sheetView topLeftCell="E79" workbookViewId="0">
-      <selection activeCell="I91" sqref="I91"/>
+    <sheetView topLeftCell="D78" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2:M101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.3"/>
@@ -29014,9 +32570,9 @@
     <col min="8" max="8" width="11.5859375" customWidth="1"/>
     <col min="9" max="9" width="11.87890625" customWidth="1"/>
     <col min="10" max="10" width="36.3515625" customWidth="1"/>
-    <col min="11" max="11" width="14.3515625" customWidth="1"/>
+    <col min="11" max="11" width="15.8203125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="11.29296875" customWidth="1"/>
-    <col min="13" max="13" width="14.3515625" customWidth="1"/>
+    <col min="13" max="13" width="15.8203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
@@ -33167,6 +36723,2657 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FB84ABA-D7C5-4CEE-B1F2-AB8AA5A27009}">
+  <dimension ref="A1:H101"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A106" sqref="A106"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="39.17578125" customWidth="1"/>
+    <col min="2" max="2" width="38.41015625" customWidth="1"/>
+    <col min="3" max="3" width="28.41015625" customWidth="1"/>
+    <col min="4" max="4" width="62.87890625" customWidth="1"/>
+    <col min="5" max="5" width="21.52734375" customWidth="1"/>
+    <col min="6" max="6" width="15.1171875" customWidth="1"/>
+    <col min="7" max="7" width="18.52734375" customWidth="1"/>
+    <col min="8" max="8" width="18" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4313</v>
+      </c>
+      <c r="E1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>4314</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2742</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4414</v>
+      </c>
+      <c r="D2" t="s">
+        <v>4514</v>
+      </c>
+      <c r="E2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F2" s="1">
+        <v>44409</v>
+      </c>
+      <c r="G2" t="s">
+        <v>55</v>
+      </c>
+      <c r="H2" s="1">
+        <v>44409</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>4315</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2743</v>
+      </c>
+      <c r="C3" t="s">
+        <v>4415</v>
+      </c>
+      <c r="D3" t="s">
+        <v>4515</v>
+      </c>
+      <c r="E3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F3" s="1">
+        <v>44410</v>
+      </c>
+      <c r="G3" t="s">
+        <v>55</v>
+      </c>
+      <c r="H3" s="1">
+        <v>44410</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>4316</v>
+      </c>
+      <c r="B4" t="s">
+        <v>2744</v>
+      </c>
+      <c r="C4" t="s">
+        <v>4416</v>
+      </c>
+      <c r="D4" t="s">
+        <v>4516</v>
+      </c>
+      <c r="E4" t="s">
+        <v>55</v>
+      </c>
+      <c r="F4" s="1">
+        <v>44411</v>
+      </c>
+      <c r="G4" t="s">
+        <v>55</v>
+      </c>
+      <c r="H4" s="1">
+        <v>44411</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>4317</v>
+      </c>
+      <c r="B5" t="s">
+        <v>2745</v>
+      </c>
+      <c r="C5" t="s">
+        <v>4417</v>
+      </c>
+      <c r="D5" t="s">
+        <v>4517</v>
+      </c>
+      <c r="E5" t="s">
+        <v>55</v>
+      </c>
+      <c r="F5" s="1">
+        <v>44412</v>
+      </c>
+      <c r="G5" t="s">
+        <v>55</v>
+      </c>
+      <c r="H5" s="1">
+        <v>44412</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>4318</v>
+      </c>
+      <c r="B6" t="s">
+        <v>2746</v>
+      </c>
+      <c r="C6" t="s">
+        <v>4418</v>
+      </c>
+      <c r="D6" t="s">
+        <v>4518</v>
+      </c>
+      <c r="E6" t="s">
+        <v>55</v>
+      </c>
+      <c r="F6" s="1">
+        <v>44413</v>
+      </c>
+      <c r="G6" t="s">
+        <v>55</v>
+      </c>
+      <c r="H6" s="1">
+        <v>44413</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>4319</v>
+      </c>
+      <c r="B7" t="s">
+        <v>2747</v>
+      </c>
+      <c r="C7" t="s">
+        <v>4419</v>
+      </c>
+      <c r="D7" t="s">
+        <v>4519</v>
+      </c>
+      <c r="E7" t="s">
+        <v>55</v>
+      </c>
+      <c r="F7" s="1">
+        <v>44414</v>
+      </c>
+      <c r="G7" t="s">
+        <v>55</v>
+      </c>
+      <c r="H7" s="1">
+        <v>44414</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>4320</v>
+      </c>
+      <c r="B8" t="s">
+        <v>2748</v>
+      </c>
+      <c r="C8" t="s">
+        <v>4420</v>
+      </c>
+      <c r="D8" t="s">
+        <v>4520</v>
+      </c>
+      <c r="E8" t="s">
+        <v>55</v>
+      </c>
+      <c r="F8" s="1">
+        <v>44415</v>
+      </c>
+      <c r="G8" t="s">
+        <v>55</v>
+      </c>
+      <c r="H8" s="1">
+        <v>44415</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>4321</v>
+      </c>
+      <c r="B9" t="s">
+        <v>2749</v>
+      </c>
+      <c r="C9" t="s">
+        <v>4421</v>
+      </c>
+      <c r="D9" t="s">
+        <v>4521</v>
+      </c>
+      <c r="E9" t="s">
+        <v>55</v>
+      </c>
+      <c r="F9" s="1">
+        <v>44416</v>
+      </c>
+      <c r="G9" t="s">
+        <v>55</v>
+      </c>
+      <c r="H9" s="1">
+        <v>44416</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>4322</v>
+      </c>
+      <c r="B10" t="s">
+        <v>2750</v>
+      </c>
+      <c r="C10" t="s">
+        <v>4422</v>
+      </c>
+      <c r="D10" t="s">
+        <v>4522</v>
+      </c>
+      <c r="E10" t="s">
+        <v>55</v>
+      </c>
+      <c r="F10" s="1">
+        <v>44417</v>
+      </c>
+      <c r="G10" t="s">
+        <v>55</v>
+      </c>
+      <c r="H10" s="1">
+        <v>44417</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>4323</v>
+      </c>
+      <c r="B11" t="s">
+        <v>2751</v>
+      </c>
+      <c r="C11" t="s">
+        <v>4423</v>
+      </c>
+      <c r="D11" t="s">
+        <v>4523</v>
+      </c>
+      <c r="E11" t="s">
+        <v>55</v>
+      </c>
+      <c r="F11" s="1">
+        <v>44418</v>
+      </c>
+      <c r="G11" t="s">
+        <v>55</v>
+      </c>
+      <c r="H11" s="1">
+        <v>44418</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>4324</v>
+      </c>
+      <c r="B12" t="s">
+        <v>2752</v>
+      </c>
+      <c r="C12" t="s">
+        <v>4424</v>
+      </c>
+      <c r="D12" t="s">
+        <v>4524</v>
+      </c>
+      <c r="E12" t="s">
+        <v>55</v>
+      </c>
+      <c r="F12" s="1">
+        <v>44419</v>
+      </c>
+      <c r="G12" t="s">
+        <v>55</v>
+      </c>
+      <c r="H12" s="1">
+        <v>44419</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>4325</v>
+      </c>
+      <c r="B13" t="s">
+        <v>2753</v>
+      </c>
+      <c r="C13" t="s">
+        <v>4425</v>
+      </c>
+      <c r="D13" t="s">
+        <v>4525</v>
+      </c>
+      <c r="E13" t="s">
+        <v>55</v>
+      </c>
+      <c r="F13" s="1">
+        <v>44420</v>
+      </c>
+      <c r="G13" t="s">
+        <v>55</v>
+      </c>
+      <c r="H13" s="1">
+        <v>44420</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>4326</v>
+      </c>
+      <c r="B14" t="s">
+        <v>2754</v>
+      </c>
+      <c r="C14" t="s">
+        <v>4426</v>
+      </c>
+      <c r="D14" t="s">
+        <v>4526</v>
+      </c>
+      <c r="E14" t="s">
+        <v>55</v>
+      </c>
+      <c r="F14" s="1">
+        <v>44421</v>
+      </c>
+      <c r="G14" t="s">
+        <v>55</v>
+      </c>
+      <c r="H14" s="1">
+        <v>44421</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>4327</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>2755</v>
+      </c>
+      <c r="C15" t="s">
+        <v>4427</v>
+      </c>
+      <c r="D15" t="s">
+        <v>4527</v>
+      </c>
+      <c r="E15" t="s">
+        <v>55</v>
+      </c>
+      <c r="F15" s="1">
+        <v>44422</v>
+      </c>
+      <c r="G15" t="s">
+        <v>55</v>
+      </c>
+      <c r="H15" s="1">
+        <v>44422</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>4328</v>
+      </c>
+      <c r="B16" t="s">
+        <v>2756</v>
+      </c>
+      <c r="C16" t="s">
+        <v>4428</v>
+      </c>
+      <c r="D16" t="s">
+        <v>4528</v>
+      </c>
+      <c r="E16" t="s">
+        <v>55</v>
+      </c>
+      <c r="F16" s="1">
+        <v>44423</v>
+      </c>
+      <c r="G16" t="s">
+        <v>55</v>
+      </c>
+      <c r="H16" s="1">
+        <v>44423</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>4329</v>
+      </c>
+      <c r="B17" t="s">
+        <v>2757</v>
+      </c>
+      <c r="C17" t="s">
+        <v>4429</v>
+      </c>
+      <c r="D17" t="s">
+        <v>4529</v>
+      </c>
+      <c r="E17" t="s">
+        <v>55</v>
+      </c>
+      <c r="F17" s="1">
+        <v>44424</v>
+      </c>
+      <c r="G17" t="s">
+        <v>55</v>
+      </c>
+      <c r="H17" s="1">
+        <v>44424</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>4330</v>
+      </c>
+      <c r="B18" t="s">
+        <v>2758</v>
+      </c>
+      <c r="C18" t="s">
+        <v>4430</v>
+      </c>
+      <c r="D18" t="s">
+        <v>4530</v>
+      </c>
+      <c r="E18" t="s">
+        <v>55</v>
+      </c>
+      <c r="F18" s="1">
+        <v>44425</v>
+      </c>
+      <c r="G18" t="s">
+        <v>55</v>
+      </c>
+      <c r="H18" s="1">
+        <v>44425</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>4331</v>
+      </c>
+      <c r="B19" t="s">
+        <v>2759</v>
+      </c>
+      <c r="C19" t="s">
+        <v>4431</v>
+      </c>
+      <c r="D19" t="s">
+        <v>4531</v>
+      </c>
+      <c r="E19" t="s">
+        <v>55</v>
+      </c>
+      <c r="F19" s="1">
+        <v>44426</v>
+      </c>
+      <c r="G19" t="s">
+        <v>55</v>
+      </c>
+      <c r="H19" s="1">
+        <v>44426</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>4332</v>
+      </c>
+      <c r="B20" t="s">
+        <v>2760</v>
+      </c>
+      <c r="C20" t="s">
+        <v>4432</v>
+      </c>
+      <c r="D20" t="s">
+        <v>4532</v>
+      </c>
+      <c r="E20" t="s">
+        <v>55</v>
+      </c>
+      <c r="F20" s="1">
+        <v>44427</v>
+      </c>
+      <c r="G20" t="s">
+        <v>55</v>
+      </c>
+      <c r="H20" s="1">
+        <v>44427</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>4333</v>
+      </c>
+      <c r="B21" t="s">
+        <v>2761</v>
+      </c>
+      <c r="C21" t="s">
+        <v>4433</v>
+      </c>
+      <c r="D21" t="s">
+        <v>4533</v>
+      </c>
+      <c r="E21" t="s">
+        <v>55</v>
+      </c>
+      <c r="F21" s="1">
+        <v>44428</v>
+      </c>
+      <c r="G21" t="s">
+        <v>55</v>
+      </c>
+      <c r="H21" s="1">
+        <v>44428</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>4334</v>
+      </c>
+      <c r="B22" t="s">
+        <v>2762</v>
+      </c>
+      <c r="C22" t="s">
+        <v>4434</v>
+      </c>
+      <c r="D22" t="s">
+        <v>4534</v>
+      </c>
+      <c r="E22" t="s">
+        <v>55</v>
+      </c>
+      <c r="F22" s="1">
+        <v>44429</v>
+      </c>
+      <c r="G22" t="s">
+        <v>55</v>
+      </c>
+      <c r="H22" s="1">
+        <v>44429</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>4335</v>
+      </c>
+      <c r="B23" t="s">
+        <v>2763</v>
+      </c>
+      <c r="C23" t="s">
+        <v>4435</v>
+      </c>
+      <c r="D23" t="s">
+        <v>4535</v>
+      </c>
+      <c r="E23" t="s">
+        <v>55</v>
+      </c>
+      <c r="F23" s="1">
+        <v>44430</v>
+      </c>
+      <c r="G23" t="s">
+        <v>55</v>
+      </c>
+      <c r="H23" s="1">
+        <v>44430</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>4336</v>
+      </c>
+      <c r="B24" t="s">
+        <v>2764</v>
+      </c>
+      <c r="C24" t="s">
+        <v>4436</v>
+      </c>
+      <c r="D24" t="s">
+        <v>4536</v>
+      </c>
+      <c r="E24" t="s">
+        <v>55</v>
+      </c>
+      <c r="F24" s="1">
+        <v>44431</v>
+      </c>
+      <c r="G24" t="s">
+        <v>55</v>
+      </c>
+      <c r="H24" s="1">
+        <v>44431</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>4337</v>
+      </c>
+      <c r="B25" t="s">
+        <v>2765</v>
+      </c>
+      <c r="C25" t="s">
+        <v>4437</v>
+      </c>
+      <c r="D25" t="s">
+        <v>4537</v>
+      </c>
+      <c r="E25" t="s">
+        <v>55</v>
+      </c>
+      <c r="F25" s="1">
+        <v>44432</v>
+      </c>
+      <c r="G25" t="s">
+        <v>55</v>
+      </c>
+      <c r="H25" s="1">
+        <v>44432</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>4338</v>
+      </c>
+      <c r="B26" t="s">
+        <v>2766</v>
+      </c>
+      <c r="C26" t="s">
+        <v>4438</v>
+      </c>
+      <c r="D26" t="s">
+        <v>4538</v>
+      </c>
+      <c r="E26" t="s">
+        <v>55</v>
+      </c>
+      <c r="F26" s="1">
+        <v>44433</v>
+      </c>
+      <c r="G26" t="s">
+        <v>55</v>
+      </c>
+      <c r="H26" s="1">
+        <v>44433</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>4339</v>
+      </c>
+      <c r="B27" t="s">
+        <v>2767</v>
+      </c>
+      <c r="C27" t="s">
+        <v>4439</v>
+      </c>
+      <c r="D27" t="s">
+        <v>4539</v>
+      </c>
+      <c r="E27" t="s">
+        <v>55</v>
+      </c>
+      <c r="F27" s="1">
+        <v>44434</v>
+      </c>
+      <c r="G27" t="s">
+        <v>55</v>
+      </c>
+      <c r="H27" s="1">
+        <v>44434</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>4340</v>
+      </c>
+      <c r="B28" t="s">
+        <v>2768</v>
+      </c>
+      <c r="C28" t="s">
+        <v>4440</v>
+      </c>
+      <c r="D28" t="s">
+        <v>4540</v>
+      </c>
+      <c r="E28" t="s">
+        <v>55</v>
+      </c>
+      <c r="F28" s="1">
+        <v>44435</v>
+      </c>
+      <c r="G28" t="s">
+        <v>55</v>
+      </c>
+      <c r="H28" s="1">
+        <v>44435</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>4341</v>
+      </c>
+      <c r="B29" t="s">
+        <v>2769</v>
+      </c>
+      <c r="C29" t="s">
+        <v>4441</v>
+      </c>
+      <c r="D29" t="s">
+        <v>4541</v>
+      </c>
+      <c r="E29" t="s">
+        <v>55</v>
+      </c>
+      <c r="F29" s="1">
+        <v>44436</v>
+      </c>
+      <c r="G29" t="s">
+        <v>55</v>
+      </c>
+      <c r="H29" s="1">
+        <v>44436</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>4342</v>
+      </c>
+      <c r="B30" t="s">
+        <v>2770</v>
+      </c>
+      <c r="C30" t="s">
+        <v>4442</v>
+      </c>
+      <c r="D30" t="s">
+        <v>4542</v>
+      </c>
+      <c r="E30" t="s">
+        <v>55</v>
+      </c>
+      <c r="F30" s="1">
+        <v>44437</v>
+      </c>
+      <c r="G30" t="s">
+        <v>55</v>
+      </c>
+      <c r="H30" s="1">
+        <v>44437</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>4343</v>
+      </c>
+      <c r="B31" t="s">
+        <v>2771</v>
+      </c>
+      <c r="C31" t="s">
+        <v>4443</v>
+      </c>
+      <c r="D31" t="s">
+        <v>4543</v>
+      </c>
+      <c r="E31" t="s">
+        <v>55</v>
+      </c>
+      <c r="F31" s="1">
+        <v>44438</v>
+      </c>
+      <c r="G31" t="s">
+        <v>55</v>
+      </c>
+      <c r="H31" s="1">
+        <v>44438</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>4344</v>
+      </c>
+      <c r="B32" t="s">
+        <v>2772</v>
+      </c>
+      <c r="C32" t="s">
+        <v>4444</v>
+      </c>
+      <c r="D32" t="s">
+        <v>4544</v>
+      </c>
+      <c r="E32" t="s">
+        <v>55</v>
+      </c>
+      <c r="F32" s="1">
+        <v>44439</v>
+      </c>
+      <c r="G32" t="s">
+        <v>55</v>
+      </c>
+      <c r="H32" s="1">
+        <v>44439</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>4345</v>
+      </c>
+      <c r="B33" t="s">
+        <v>2773</v>
+      </c>
+      <c r="C33" t="s">
+        <v>4445</v>
+      </c>
+      <c r="D33" t="s">
+        <v>4545</v>
+      </c>
+      <c r="E33" t="s">
+        <v>55</v>
+      </c>
+      <c r="F33" s="1">
+        <v>44440</v>
+      </c>
+      <c r="G33" t="s">
+        <v>55</v>
+      </c>
+      <c r="H33" s="1">
+        <v>44440</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>4346</v>
+      </c>
+      <c r="B34" t="s">
+        <v>2774</v>
+      </c>
+      <c r="C34" t="s">
+        <v>4446</v>
+      </c>
+      <c r="D34" t="s">
+        <v>4546</v>
+      </c>
+      <c r="E34" t="s">
+        <v>55</v>
+      </c>
+      <c r="F34" s="1">
+        <v>44441</v>
+      </c>
+      <c r="G34" t="s">
+        <v>55</v>
+      </c>
+      <c r="H34" s="1">
+        <v>44441</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>4347</v>
+      </c>
+      <c r="B35" t="s">
+        <v>2775</v>
+      </c>
+      <c r="C35" t="s">
+        <v>4447</v>
+      </c>
+      <c r="D35" t="s">
+        <v>4547</v>
+      </c>
+      <c r="E35" t="s">
+        <v>55</v>
+      </c>
+      <c r="F35" s="1">
+        <v>44442</v>
+      </c>
+      <c r="G35" t="s">
+        <v>55</v>
+      </c>
+      <c r="H35" s="1">
+        <v>44442</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>4348</v>
+      </c>
+      <c r="B36" t="s">
+        <v>2776</v>
+      </c>
+      <c r="C36" t="s">
+        <v>4448</v>
+      </c>
+      <c r="D36" t="s">
+        <v>4548</v>
+      </c>
+      <c r="E36" t="s">
+        <v>55</v>
+      </c>
+      <c r="F36" s="1">
+        <v>44443</v>
+      </c>
+      <c r="G36" t="s">
+        <v>55</v>
+      </c>
+      <c r="H36" s="1">
+        <v>44443</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>4349</v>
+      </c>
+      <c r="B37" t="s">
+        <v>2777</v>
+      </c>
+      <c r="C37" t="s">
+        <v>4449</v>
+      </c>
+      <c r="D37" t="s">
+        <v>4549</v>
+      </c>
+      <c r="E37" t="s">
+        <v>55</v>
+      </c>
+      <c r="F37" s="1">
+        <v>44444</v>
+      </c>
+      <c r="G37" t="s">
+        <v>55</v>
+      </c>
+      <c r="H37" s="1">
+        <v>44444</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>4350</v>
+      </c>
+      <c r="B38" t="s">
+        <v>2778</v>
+      </c>
+      <c r="C38" t="s">
+        <v>4450</v>
+      </c>
+      <c r="D38" t="s">
+        <v>4550</v>
+      </c>
+      <c r="E38" t="s">
+        <v>55</v>
+      </c>
+      <c r="F38" s="1">
+        <v>44445</v>
+      </c>
+      <c r="G38" t="s">
+        <v>55</v>
+      </c>
+      <c r="H38" s="1">
+        <v>44445</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>4351</v>
+      </c>
+      <c r="B39" t="s">
+        <v>2779</v>
+      </c>
+      <c r="C39" t="s">
+        <v>4451</v>
+      </c>
+      <c r="D39" t="s">
+        <v>4551</v>
+      </c>
+      <c r="E39" t="s">
+        <v>55</v>
+      </c>
+      <c r="F39" s="1">
+        <v>44446</v>
+      </c>
+      <c r="G39" t="s">
+        <v>55</v>
+      </c>
+      <c r="H39" s="1">
+        <v>44446</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>4352</v>
+      </c>
+      <c r="B40" t="s">
+        <v>2780</v>
+      </c>
+      <c r="C40" t="s">
+        <v>4452</v>
+      </c>
+      <c r="D40" t="s">
+        <v>4552</v>
+      </c>
+      <c r="E40" t="s">
+        <v>55</v>
+      </c>
+      <c r="F40" s="1">
+        <v>44447</v>
+      </c>
+      <c r="G40" t="s">
+        <v>55</v>
+      </c>
+      <c r="H40" s="1">
+        <v>44447</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>4353</v>
+      </c>
+      <c r="B41" t="s">
+        <v>2781</v>
+      </c>
+      <c r="C41" t="s">
+        <v>4453</v>
+      </c>
+      <c r="D41" t="s">
+        <v>4553</v>
+      </c>
+      <c r="E41" t="s">
+        <v>55</v>
+      </c>
+      <c r="F41" s="1">
+        <v>44448</v>
+      </c>
+      <c r="G41" t="s">
+        <v>55</v>
+      </c>
+      <c r="H41" s="1">
+        <v>44448</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>4354</v>
+      </c>
+      <c r="B42" t="s">
+        <v>2782</v>
+      </c>
+      <c r="C42" t="s">
+        <v>4454</v>
+      </c>
+      <c r="D42" t="s">
+        <v>4554</v>
+      </c>
+      <c r="E42" t="s">
+        <v>55</v>
+      </c>
+      <c r="F42" s="1">
+        <v>44449</v>
+      </c>
+      <c r="G42" t="s">
+        <v>55</v>
+      </c>
+      <c r="H42" s="1">
+        <v>44449</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>4355</v>
+      </c>
+      <c r="B43" t="s">
+        <v>2783</v>
+      </c>
+      <c r="C43" t="s">
+        <v>4455</v>
+      </c>
+      <c r="D43" t="s">
+        <v>4555</v>
+      </c>
+      <c r="E43" t="s">
+        <v>55</v>
+      </c>
+      <c r="F43" s="1">
+        <v>44450</v>
+      </c>
+      <c r="G43" t="s">
+        <v>55</v>
+      </c>
+      <c r="H43" s="1">
+        <v>44450</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>4356</v>
+      </c>
+      <c r="B44" t="s">
+        <v>2784</v>
+      </c>
+      <c r="C44" t="s">
+        <v>4456</v>
+      </c>
+      <c r="D44" t="s">
+        <v>4556</v>
+      </c>
+      <c r="E44" t="s">
+        <v>55</v>
+      </c>
+      <c r="F44" s="1">
+        <v>44451</v>
+      </c>
+      <c r="G44" t="s">
+        <v>55</v>
+      </c>
+      <c r="H44" s="1">
+        <v>44451</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>4357</v>
+      </c>
+      <c r="B45" t="s">
+        <v>2785</v>
+      </c>
+      <c r="C45" t="s">
+        <v>4457</v>
+      </c>
+      <c r="D45" t="s">
+        <v>4557</v>
+      </c>
+      <c r="E45" t="s">
+        <v>55</v>
+      </c>
+      <c r="F45" s="1">
+        <v>44452</v>
+      </c>
+      <c r="G45" t="s">
+        <v>55</v>
+      </c>
+      <c r="H45" s="1">
+        <v>44452</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>4358</v>
+      </c>
+      <c r="B46" t="s">
+        <v>2786</v>
+      </c>
+      <c r="C46" t="s">
+        <v>4458</v>
+      </c>
+      <c r="D46" t="s">
+        <v>4558</v>
+      </c>
+      <c r="E46" t="s">
+        <v>55</v>
+      </c>
+      <c r="F46" s="1">
+        <v>44453</v>
+      </c>
+      <c r="G46" t="s">
+        <v>55</v>
+      </c>
+      <c r="H46" s="1">
+        <v>44453</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>4359</v>
+      </c>
+      <c r="B47" t="s">
+        <v>2787</v>
+      </c>
+      <c r="C47" t="s">
+        <v>4459</v>
+      </c>
+      <c r="D47" t="s">
+        <v>4559</v>
+      </c>
+      <c r="E47" t="s">
+        <v>55</v>
+      </c>
+      <c r="F47" s="1">
+        <v>44454</v>
+      </c>
+      <c r="G47" t="s">
+        <v>55</v>
+      </c>
+      <c r="H47" s="1">
+        <v>44454</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>4360</v>
+      </c>
+      <c r="B48" t="s">
+        <v>2788</v>
+      </c>
+      <c r="C48" t="s">
+        <v>4460</v>
+      </c>
+      <c r="D48" t="s">
+        <v>4560</v>
+      </c>
+      <c r="E48" t="s">
+        <v>55</v>
+      </c>
+      <c r="F48" s="1">
+        <v>44455</v>
+      </c>
+      <c r="G48" t="s">
+        <v>55</v>
+      </c>
+      <c r="H48" s="1">
+        <v>44455</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>4361</v>
+      </c>
+      <c r="B49" t="s">
+        <v>2789</v>
+      </c>
+      <c r="C49" t="s">
+        <v>4461</v>
+      </c>
+      <c r="D49" t="s">
+        <v>4561</v>
+      </c>
+      <c r="E49" t="s">
+        <v>55</v>
+      </c>
+      <c r="F49" s="1">
+        <v>44456</v>
+      </c>
+      <c r="G49" t="s">
+        <v>55</v>
+      </c>
+      <c r="H49" s="1">
+        <v>44456</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>4362</v>
+      </c>
+      <c r="B50" t="s">
+        <v>2790</v>
+      </c>
+      <c r="C50" t="s">
+        <v>4462</v>
+      </c>
+      <c r="D50" t="s">
+        <v>4562</v>
+      </c>
+      <c r="E50" t="s">
+        <v>55</v>
+      </c>
+      <c r="F50" s="1">
+        <v>44457</v>
+      </c>
+      <c r="G50" t="s">
+        <v>55</v>
+      </c>
+      <c r="H50" s="1">
+        <v>44457</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>4363</v>
+      </c>
+      <c r="B51" t="s">
+        <v>2791</v>
+      </c>
+      <c r="C51" t="s">
+        <v>4463</v>
+      </c>
+      <c r="D51" t="s">
+        <v>4563</v>
+      </c>
+      <c r="E51" t="s">
+        <v>55</v>
+      </c>
+      <c r="F51" s="1">
+        <v>44458</v>
+      </c>
+      <c r="G51" t="s">
+        <v>55</v>
+      </c>
+      <c r="H51" s="1">
+        <v>44458</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>4364</v>
+      </c>
+      <c r="B52" t="s">
+        <v>2792</v>
+      </c>
+      <c r="C52" t="s">
+        <v>4464</v>
+      </c>
+      <c r="D52" t="s">
+        <v>4564</v>
+      </c>
+      <c r="E52" t="s">
+        <v>55</v>
+      </c>
+      <c r="F52" s="1">
+        <v>44459</v>
+      </c>
+      <c r="G52" t="s">
+        <v>55</v>
+      </c>
+      <c r="H52" s="1">
+        <v>44459</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>4365</v>
+      </c>
+      <c r="B53" t="s">
+        <v>2793</v>
+      </c>
+      <c r="C53" t="s">
+        <v>4465</v>
+      </c>
+      <c r="D53" t="s">
+        <v>4565</v>
+      </c>
+      <c r="E53" t="s">
+        <v>55</v>
+      </c>
+      <c r="F53" s="1">
+        <v>44460</v>
+      </c>
+      <c r="G53" t="s">
+        <v>55</v>
+      </c>
+      <c r="H53" s="1">
+        <v>44460</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>4366</v>
+      </c>
+      <c r="B54" t="s">
+        <v>2794</v>
+      </c>
+      <c r="C54" t="s">
+        <v>4466</v>
+      </c>
+      <c r="D54" t="s">
+        <v>4566</v>
+      </c>
+      <c r="E54" t="s">
+        <v>55</v>
+      </c>
+      <c r="F54" s="1">
+        <v>44461</v>
+      </c>
+      <c r="G54" t="s">
+        <v>55</v>
+      </c>
+      <c r="H54" s="1">
+        <v>44461</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>4367</v>
+      </c>
+      <c r="B55" t="s">
+        <v>2795</v>
+      </c>
+      <c r="C55" t="s">
+        <v>4467</v>
+      </c>
+      <c r="D55" t="s">
+        <v>4567</v>
+      </c>
+      <c r="E55" t="s">
+        <v>55</v>
+      </c>
+      <c r="F55" s="1">
+        <v>44462</v>
+      </c>
+      <c r="G55" t="s">
+        <v>55</v>
+      </c>
+      <c r="H55" s="1">
+        <v>44462</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>4368</v>
+      </c>
+      <c r="B56" t="s">
+        <v>2796</v>
+      </c>
+      <c r="C56" t="s">
+        <v>4468</v>
+      </c>
+      <c r="D56" t="s">
+        <v>4568</v>
+      </c>
+      <c r="E56" t="s">
+        <v>55</v>
+      </c>
+      <c r="F56" s="1">
+        <v>44463</v>
+      </c>
+      <c r="G56" t="s">
+        <v>55</v>
+      </c>
+      <c r="H56" s="1">
+        <v>44463</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>4369</v>
+      </c>
+      <c r="B57" t="s">
+        <v>2797</v>
+      </c>
+      <c r="C57" t="s">
+        <v>4469</v>
+      </c>
+      <c r="D57" t="s">
+        <v>4569</v>
+      </c>
+      <c r="E57" t="s">
+        <v>55</v>
+      </c>
+      <c r="F57" s="1">
+        <v>44464</v>
+      </c>
+      <c r="G57" t="s">
+        <v>55</v>
+      </c>
+      <c r="H57" s="1">
+        <v>44464</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>4370</v>
+      </c>
+      <c r="B58" t="s">
+        <v>2798</v>
+      </c>
+      <c r="C58" t="s">
+        <v>4470</v>
+      </c>
+      <c r="D58" t="s">
+        <v>4570</v>
+      </c>
+      <c r="E58" t="s">
+        <v>55</v>
+      </c>
+      <c r="F58" s="1">
+        <v>44465</v>
+      </c>
+      <c r="G58" t="s">
+        <v>55</v>
+      </c>
+      <c r="H58" s="1">
+        <v>44465</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>4371</v>
+      </c>
+      <c r="B59" t="s">
+        <v>2799</v>
+      </c>
+      <c r="C59" t="s">
+        <v>4471</v>
+      </c>
+      <c r="D59" t="s">
+        <v>4571</v>
+      </c>
+      <c r="E59" t="s">
+        <v>55</v>
+      </c>
+      <c r="F59" s="1">
+        <v>44466</v>
+      </c>
+      <c r="G59" t="s">
+        <v>55</v>
+      </c>
+      <c r="H59" s="1">
+        <v>44466</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>4372</v>
+      </c>
+      <c r="B60" t="s">
+        <v>2800</v>
+      </c>
+      <c r="C60" t="s">
+        <v>4472</v>
+      </c>
+      <c r="D60" t="s">
+        <v>4572</v>
+      </c>
+      <c r="E60" t="s">
+        <v>55</v>
+      </c>
+      <c r="F60" s="1">
+        <v>44467</v>
+      </c>
+      <c r="G60" t="s">
+        <v>55</v>
+      </c>
+      <c r="H60" s="1">
+        <v>44467</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>4373</v>
+      </c>
+      <c r="B61" t="s">
+        <v>2801</v>
+      </c>
+      <c r="C61" t="s">
+        <v>4473</v>
+      </c>
+      <c r="D61" t="s">
+        <v>4573</v>
+      </c>
+      <c r="E61" t="s">
+        <v>55</v>
+      </c>
+      <c r="F61" s="1">
+        <v>44468</v>
+      </c>
+      <c r="G61" t="s">
+        <v>55</v>
+      </c>
+      <c r="H61" s="1">
+        <v>44468</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>4374</v>
+      </c>
+      <c r="B62" t="s">
+        <v>2802</v>
+      </c>
+      <c r="C62" t="s">
+        <v>4474</v>
+      </c>
+      <c r="D62" t="s">
+        <v>4574</v>
+      </c>
+      <c r="E62" t="s">
+        <v>55</v>
+      </c>
+      <c r="F62" s="1">
+        <v>44469</v>
+      </c>
+      <c r="G62" t="s">
+        <v>55</v>
+      </c>
+      <c r="H62" s="1">
+        <v>44469</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>4375</v>
+      </c>
+      <c r="B63" t="s">
+        <v>2803</v>
+      </c>
+      <c r="C63" t="s">
+        <v>4475</v>
+      </c>
+      <c r="D63" t="s">
+        <v>4575</v>
+      </c>
+      <c r="E63" t="s">
+        <v>55</v>
+      </c>
+      <c r="F63" s="1">
+        <v>44470</v>
+      </c>
+      <c r="G63" t="s">
+        <v>55</v>
+      </c>
+      <c r="H63" s="1">
+        <v>44470</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>4376</v>
+      </c>
+      <c r="B64" t="s">
+        <v>2804</v>
+      </c>
+      <c r="C64" t="s">
+        <v>4476</v>
+      </c>
+      <c r="D64" t="s">
+        <v>4576</v>
+      </c>
+      <c r="E64" t="s">
+        <v>55</v>
+      </c>
+      <c r="F64" s="1">
+        <v>44471</v>
+      </c>
+      <c r="G64" t="s">
+        <v>55</v>
+      </c>
+      <c r="H64" s="1">
+        <v>44471</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>4377</v>
+      </c>
+      <c r="B65" t="s">
+        <v>2805</v>
+      </c>
+      <c r="C65" t="s">
+        <v>4477</v>
+      </c>
+      <c r="D65" t="s">
+        <v>4577</v>
+      </c>
+      <c r="E65" t="s">
+        <v>55</v>
+      </c>
+      <c r="F65" s="1">
+        <v>44472</v>
+      </c>
+      <c r="G65" t="s">
+        <v>55</v>
+      </c>
+      <c r="H65" s="1">
+        <v>44472</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
+        <v>4378</v>
+      </c>
+      <c r="B66" t="s">
+        <v>2806</v>
+      </c>
+      <c r="C66" t="s">
+        <v>4478</v>
+      </c>
+      <c r="D66" t="s">
+        <v>4578</v>
+      </c>
+      <c r="E66" t="s">
+        <v>55</v>
+      </c>
+      <c r="F66" s="1">
+        <v>44473</v>
+      </c>
+      <c r="G66" t="s">
+        <v>55</v>
+      </c>
+      <c r="H66" s="1">
+        <v>44473</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>4379</v>
+      </c>
+      <c r="B67" t="s">
+        <v>2807</v>
+      </c>
+      <c r="C67" t="s">
+        <v>4479</v>
+      </c>
+      <c r="D67" t="s">
+        <v>4579</v>
+      </c>
+      <c r="E67" t="s">
+        <v>55</v>
+      </c>
+      <c r="F67" s="1">
+        <v>44474</v>
+      </c>
+      <c r="G67" t="s">
+        <v>55</v>
+      </c>
+      <c r="H67" s="1">
+        <v>44474</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>4380</v>
+      </c>
+      <c r="B68" t="s">
+        <v>2808</v>
+      </c>
+      <c r="C68" t="s">
+        <v>4480</v>
+      </c>
+      <c r="D68" t="s">
+        <v>4580</v>
+      </c>
+      <c r="E68" t="s">
+        <v>55</v>
+      </c>
+      <c r="F68" s="1">
+        <v>44475</v>
+      </c>
+      <c r="G68" t="s">
+        <v>55</v>
+      </c>
+      <c r="H68" s="1">
+        <v>44475</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>4381</v>
+      </c>
+      <c r="B69" t="s">
+        <v>2809</v>
+      </c>
+      <c r="C69" t="s">
+        <v>4481</v>
+      </c>
+      <c r="D69" t="s">
+        <v>4581</v>
+      </c>
+      <c r="E69" t="s">
+        <v>55</v>
+      </c>
+      <c r="F69" s="1">
+        <v>44476</v>
+      </c>
+      <c r="G69" t="s">
+        <v>55</v>
+      </c>
+      <c r="H69" s="1">
+        <v>44476</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>4382</v>
+      </c>
+      <c r="B70" t="s">
+        <v>2810</v>
+      </c>
+      <c r="C70" t="s">
+        <v>4482</v>
+      </c>
+      <c r="D70" t="s">
+        <v>4582</v>
+      </c>
+      <c r="E70" t="s">
+        <v>55</v>
+      </c>
+      <c r="F70" s="1">
+        <v>44477</v>
+      </c>
+      <c r="G70" t="s">
+        <v>55</v>
+      </c>
+      <c r="H70" s="1">
+        <v>44477</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>4383</v>
+      </c>
+      <c r="B71" t="s">
+        <v>2811</v>
+      </c>
+      <c r="C71" t="s">
+        <v>4483</v>
+      </c>
+      <c r="D71" t="s">
+        <v>4583</v>
+      </c>
+      <c r="E71" t="s">
+        <v>55</v>
+      </c>
+      <c r="F71" s="1">
+        <v>44478</v>
+      </c>
+      <c r="G71" t="s">
+        <v>55</v>
+      </c>
+      <c r="H71" s="1">
+        <v>44478</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>4384</v>
+      </c>
+      <c r="B72" t="s">
+        <v>2812</v>
+      </c>
+      <c r="C72" t="s">
+        <v>4484</v>
+      </c>
+      <c r="D72" t="s">
+        <v>4584</v>
+      </c>
+      <c r="E72" t="s">
+        <v>55</v>
+      </c>
+      <c r="F72" s="1">
+        <v>44479</v>
+      </c>
+      <c r="G72" t="s">
+        <v>55</v>
+      </c>
+      <c r="H72" s="1">
+        <v>44479</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>4385</v>
+      </c>
+      <c r="B73" t="s">
+        <v>2813</v>
+      </c>
+      <c r="C73" t="s">
+        <v>4485</v>
+      </c>
+      <c r="D73" t="s">
+        <v>4585</v>
+      </c>
+      <c r="E73" t="s">
+        <v>55</v>
+      </c>
+      <c r="F73" s="1">
+        <v>44480</v>
+      </c>
+      <c r="G73" t="s">
+        <v>55</v>
+      </c>
+      <c r="H73" s="1">
+        <v>44480</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>4386</v>
+      </c>
+      <c r="B74" t="s">
+        <v>2814</v>
+      </c>
+      <c r="C74" t="s">
+        <v>4486</v>
+      </c>
+      <c r="D74" t="s">
+        <v>4586</v>
+      </c>
+      <c r="E74" t="s">
+        <v>55</v>
+      </c>
+      <c r="F74" s="1">
+        <v>44481</v>
+      </c>
+      <c r="G74" t="s">
+        <v>55</v>
+      </c>
+      <c r="H74" s="1">
+        <v>44481</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>4387</v>
+      </c>
+      <c r="B75" t="s">
+        <v>2815</v>
+      </c>
+      <c r="C75" t="s">
+        <v>4487</v>
+      </c>
+      <c r="D75" t="s">
+        <v>4587</v>
+      </c>
+      <c r="E75" t="s">
+        <v>55</v>
+      </c>
+      <c r="F75" s="1">
+        <v>44482</v>
+      </c>
+      <c r="G75" t="s">
+        <v>55</v>
+      </c>
+      <c r="H75" s="1">
+        <v>44482</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>4388</v>
+      </c>
+      <c r="B76" t="s">
+        <v>2816</v>
+      </c>
+      <c r="C76" t="s">
+        <v>4488</v>
+      </c>
+      <c r="D76" t="s">
+        <v>4588</v>
+      </c>
+      <c r="E76" t="s">
+        <v>55</v>
+      </c>
+      <c r="F76" s="1">
+        <v>44483</v>
+      </c>
+      <c r="G76" t="s">
+        <v>55</v>
+      </c>
+      <c r="H76" s="1">
+        <v>44483</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>4389</v>
+      </c>
+      <c r="B77" t="s">
+        <v>2817</v>
+      </c>
+      <c r="C77" t="s">
+        <v>4489</v>
+      </c>
+      <c r="D77" t="s">
+        <v>4589</v>
+      </c>
+      <c r="E77" t="s">
+        <v>55</v>
+      </c>
+      <c r="F77" s="1">
+        <v>44484</v>
+      </c>
+      <c r="G77" t="s">
+        <v>55</v>
+      </c>
+      <c r="H77" s="1">
+        <v>44484</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>4390</v>
+      </c>
+      <c r="B78" t="s">
+        <v>2818</v>
+      </c>
+      <c r="C78" t="s">
+        <v>4490</v>
+      </c>
+      <c r="D78" t="s">
+        <v>4590</v>
+      </c>
+      <c r="E78" t="s">
+        <v>55</v>
+      </c>
+      <c r="F78" s="1">
+        <v>44485</v>
+      </c>
+      <c r="G78" t="s">
+        <v>55</v>
+      </c>
+      <c r="H78" s="1">
+        <v>44485</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>4391</v>
+      </c>
+      <c r="B79" t="s">
+        <v>2819</v>
+      </c>
+      <c r="C79" t="s">
+        <v>4491</v>
+      </c>
+      <c r="D79" t="s">
+        <v>4591</v>
+      </c>
+      <c r="E79" t="s">
+        <v>55</v>
+      </c>
+      <c r="F79" s="1">
+        <v>44486</v>
+      </c>
+      <c r="G79" t="s">
+        <v>55</v>
+      </c>
+      <c r="H79" s="1">
+        <v>44486</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>4392</v>
+      </c>
+      <c r="B80" t="s">
+        <v>2820</v>
+      </c>
+      <c r="C80" t="s">
+        <v>4492</v>
+      </c>
+      <c r="D80" t="s">
+        <v>4592</v>
+      </c>
+      <c r="E80" t="s">
+        <v>55</v>
+      </c>
+      <c r="F80" s="1">
+        <v>44487</v>
+      </c>
+      <c r="G80" t="s">
+        <v>55</v>
+      </c>
+      <c r="H80" s="1">
+        <v>44487</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>4393</v>
+      </c>
+      <c r="B81" t="s">
+        <v>2821</v>
+      </c>
+      <c r="C81" t="s">
+        <v>4493</v>
+      </c>
+      <c r="D81" t="s">
+        <v>4593</v>
+      </c>
+      <c r="E81" t="s">
+        <v>55</v>
+      </c>
+      <c r="F81" s="1">
+        <v>44488</v>
+      </c>
+      <c r="G81" t="s">
+        <v>55</v>
+      </c>
+      <c r="H81" s="1">
+        <v>44488</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>4394</v>
+      </c>
+      <c r="B82" t="s">
+        <v>2822</v>
+      </c>
+      <c r="C82" t="s">
+        <v>4494</v>
+      </c>
+      <c r="D82" t="s">
+        <v>4594</v>
+      </c>
+      <c r="E82" t="s">
+        <v>55</v>
+      </c>
+      <c r="F82" s="1">
+        <v>44489</v>
+      </c>
+      <c r="G82" t="s">
+        <v>55</v>
+      </c>
+      <c r="H82" s="1">
+        <v>44489</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>4395</v>
+      </c>
+      <c r="B83" t="s">
+        <v>2823</v>
+      </c>
+      <c r="C83" t="s">
+        <v>4495</v>
+      </c>
+      <c r="D83" t="s">
+        <v>4595</v>
+      </c>
+      <c r="E83" t="s">
+        <v>55</v>
+      </c>
+      <c r="F83" s="1">
+        <v>44490</v>
+      </c>
+      <c r="G83" t="s">
+        <v>55</v>
+      </c>
+      <c r="H83" s="1">
+        <v>44490</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>4396</v>
+      </c>
+      <c r="B84" t="s">
+        <v>2824</v>
+      </c>
+      <c r="C84" t="s">
+        <v>4496</v>
+      </c>
+      <c r="D84" t="s">
+        <v>4596</v>
+      </c>
+      <c r="E84" t="s">
+        <v>55</v>
+      </c>
+      <c r="F84" s="1">
+        <v>44491</v>
+      </c>
+      <c r="G84" t="s">
+        <v>55</v>
+      </c>
+      <c r="H84" s="1">
+        <v>44491</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>4397</v>
+      </c>
+      <c r="B85" t="s">
+        <v>2825</v>
+      </c>
+      <c r="C85" t="s">
+        <v>4497</v>
+      </c>
+      <c r="D85" t="s">
+        <v>4597</v>
+      </c>
+      <c r="E85" t="s">
+        <v>55</v>
+      </c>
+      <c r="F85" s="1">
+        <v>44492</v>
+      </c>
+      <c r="G85" t="s">
+        <v>55</v>
+      </c>
+      <c r="H85" s="1">
+        <v>44492</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>4398</v>
+      </c>
+      <c r="B86" t="s">
+        <v>2826</v>
+      </c>
+      <c r="C86" t="s">
+        <v>4498</v>
+      </c>
+      <c r="D86" t="s">
+        <v>4598</v>
+      </c>
+      <c r="E86" t="s">
+        <v>55</v>
+      </c>
+      <c r="F86" s="1">
+        <v>44493</v>
+      </c>
+      <c r="G86" t="s">
+        <v>55</v>
+      </c>
+      <c r="H86" s="1">
+        <v>44493</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>4399</v>
+      </c>
+      <c r="B87" t="s">
+        <v>2827</v>
+      </c>
+      <c r="C87" t="s">
+        <v>4499</v>
+      </c>
+      <c r="D87" t="s">
+        <v>4599</v>
+      </c>
+      <c r="E87" t="s">
+        <v>55</v>
+      </c>
+      <c r="F87" s="1">
+        <v>44494</v>
+      </c>
+      <c r="G87" t="s">
+        <v>55</v>
+      </c>
+      <c r="H87" s="1">
+        <v>44494</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>4400</v>
+      </c>
+      <c r="B88" t="s">
+        <v>2828</v>
+      </c>
+      <c r="C88" t="s">
+        <v>4500</v>
+      </c>
+      <c r="D88" t="s">
+        <v>4600</v>
+      </c>
+      <c r="E88" t="s">
+        <v>55</v>
+      </c>
+      <c r="F88" s="1">
+        <v>44495</v>
+      </c>
+      <c r="G88" t="s">
+        <v>55</v>
+      </c>
+      <c r="H88" s="1">
+        <v>44495</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>4401</v>
+      </c>
+      <c r="B89" t="s">
+        <v>2829</v>
+      </c>
+      <c r="C89" t="s">
+        <v>4501</v>
+      </c>
+      <c r="D89" t="s">
+        <v>4601</v>
+      </c>
+      <c r="E89" t="s">
+        <v>55</v>
+      </c>
+      <c r="F89" s="1">
+        <v>44496</v>
+      </c>
+      <c r="G89" t="s">
+        <v>55</v>
+      </c>
+      <c r="H89" s="1">
+        <v>44496</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>4402</v>
+      </c>
+      <c r="B90" t="s">
+        <v>2830</v>
+      </c>
+      <c r="C90" t="s">
+        <v>4502</v>
+      </c>
+      <c r="D90" t="s">
+        <v>4602</v>
+      </c>
+      <c r="E90" t="s">
+        <v>55</v>
+      </c>
+      <c r="F90" s="1">
+        <v>44497</v>
+      </c>
+      <c r="G90" t="s">
+        <v>55</v>
+      </c>
+      <c r="H90" s="1">
+        <v>44497</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>4403</v>
+      </c>
+      <c r="B91" t="s">
+        <v>2831</v>
+      </c>
+      <c r="C91" t="s">
+        <v>4503</v>
+      </c>
+      <c r="D91" t="s">
+        <v>4603</v>
+      </c>
+      <c r="E91" t="s">
+        <v>55</v>
+      </c>
+      <c r="F91" s="1">
+        <v>44498</v>
+      </c>
+      <c r="G91" t="s">
+        <v>55</v>
+      </c>
+      <c r="H91" s="1">
+        <v>44498</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A92" s="7" t="s">
+        <v>4404</v>
+      </c>
+      <c r="B92" t="s">
+        <v>2832</v>
+      </c>
+      <c r="C92" t="s">
+        <v>4504</v>
+      </c>
+      <c r="D92" t="s">
+        <v>4604</v>
+      </c>
+      <c r="E92" t="s">
+        <v>55</v>
+      </c>
+      <c r="F92" s="1">
+        <v>44499</v>
+      </c>
+      <c r="G92" t="s">
+        <v>55</v>
+      </c>
+      <c r="H92" s="1">
+        <v>44499</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>4405</v>
+      </c>
+      <c r="B93" t="s">
+        <v>2833</v>
+      </c>
+      <c r="C93" t="s">
+        <v>4505</v>
+      </c>
+      <c r="D93" t="s">
+        <v>4605</v>
+      </c>
+      <c r="E93" t="s">
+        <v>55</v>
+      </c>
+      <c r="F93" s="1">
+        <v>44500</v>
+      </c>
+      <c r="G93" t="s">
+        <v>55</v>
+      </c>
+      <c r="H93" s="1">
+        <v>44500</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>4406</v>
+      </c>
+      <c r="B94" t="s">
+        <v>2834</v>
+      </c>
+      <c r="C94" t="s">
+        <v>4506</v>
+      </c>
+      <c r="D94" t="s">
+        <v>4606</v>
+      </c>
+      <c r="E94" t="s">
+        <v>55</v>
+      </c>
+      <c r="F94" s="1">
+        <v>44501</v>
+      </c>
+      <c r="G94" t="s">
+        <v>55</v>
+      </c>
+      <c r="H94" s="1">
+        <v>44501</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>4407</v>
+      </c>
+      <c r="B95" s="7" t="s">
+        <v>2835</v>
+      </c>
+      <c r="C95" t="s">
+        <v>4507</v>
+      </c>
+      <c r="D95" t="s">
+        <v>4607</v>
+      </c>
+      <c r="E95" t="s">
+        <v>55</v>
+      </c>
+      <c r="F95" s="1">
+        <v>44502</v>
+      </c>
+      <c r="G95" t="s">
+        <v>55</v>
+      </c>
+      <c r="H95" s="1">
+        <v>44502</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>4408</v>
+      </c>
+      <c r="B96" t="s">
+        <v>2836</v>
+      </c>
+      <c r="C96" t="s">
+        <v>4508</v>
+      </c>
+      <c r="D96" t="s">
+        <v>4608</v>
+      </c>
+      <c r="E96" t="s">
+        <v>55</v>
+      </c>
+      <c r="F96" s="1">
+        <v>44503</v>
+      </c>
+      <c r="G96" t="s">
+        <v>55</v>
+      </c>
+      <c r="H96" s="1">
+        <v>44503</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>4409</v>
+      </c>
+      <c r="B97" t="s">
+        <v>2837</v>
+      </c>
+      <c r="C97" t="s">
+        <v>4509</v>
+      </c>
+      <c r="D97" t="s">
+        <v>4609</v>
+      </c>
+      <c r="E97" t="s">
+        <v>55</v>
+      </c>
+      <c r="F97" s="1">
+        <v>44504</v>
+      </c>
+      <c r="G97" t="s">
+        <v>55</v>
+      </c>
+      <c r="H97" s="1">
+        <v>44504</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>4410</v>
+      </c>
+      <c r="B98" t="s">
+        <v>2838</v>
+      </c>
+      <c r="C98" t="s">
+        <v>4510</v>
+      </c>
+      <c r="D98" t="s">
+        <v>4610</v>
+      </c>
+      <c r="E98" t="s">
+        <v>55</v>
+      </c>
+      <c r="F98" s="1">
+        <v>44505</v>
+      </c>
+      <c r="G98" t="s">
+        <v>55</v>
+      </c>
+      <c r="H98" s="1">
+        <v>44505</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>4411</v>
+      </c>
+      <c r="B99" t="s">
+        <v>2839</v>
+      </c>
+      <c r="C99" t="s">
+        <v>4511</v>
+      </c>
+      <c r="D99" t="s">
+        <v>4611</v>
+      </c>
+      <c r="E99" t="s">
+        <v>55</v>
+      </c>
+      <c r="F99" s="1">
+        <v>44506</v>
+      </c>
+      <c r="G99" t="s">
+        <v>55</v>
+      </c>
+      <c r="H99" s="1">
+        <v>44506</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>4412</v>
+      </c>
+      <c r="B100" t="s">
+        <v>2840</v>
+      </c>
+      <c r="C100" t="s">
+        <v>4512</v>
+      </c>
+      <c r="D100" t="s">
+        <v>4612</v>
+      </c>
+      <c r="E100" t="s">
+        <v>55</v>
+      </c>
+      <c r="F100" s="1">
+        <v>44507</v>
+      </c>
+      <c r="G100" t="s">
+        <v>55</v>
+      </c>
+      <c r="H100" s="1">
+        <v>44507</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>4413</v>
+      </c>
+      <c r="B101" t="s">
+        <v>2945</v>
+      </c>
+      <c r="C101" t="s">
+        <v>4513</v>
+      </c>
+      <c r="D101" t="s">
+        <v>4613</v>
+      </c>
+      <c r="E101" t="s">
+        <v>55</v>
+      </c>
+      <c r="F101" s="1">
+        <v>44508</v>
+      </c>
+      <c r="G101" t="s">
+        <v>55</v>
+      </c>
+      <c r="H101" s="1">
+        <v>44508</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:O101"/>
   <sheetViews>
@@ -37946,7 +44153,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:H101"/>
   <sheetViews>
@@ -40599,12 +46806,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView topLeftCell="A77" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A101"/>
+      <selection activeCell="A94" sqref="A94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.3"/>
@@ -43250,7 +49457,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:I101"/>
   <sheetViews>
@@ -46203,2656 +52410,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:H101"/>
-  <sheetViews>
-    <sheetView topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="40.1171875" customWidth="1"/>
-    <col min="2" max="2" width="35.76171875" customWidth="1"/>
-    <col min="3" max="3" width="13.703125" customWidth="1"/>
-    <col min="4" max="4" width="28.5859375" customWidth="1"/>
-    <col min="5" max="5" width="17.5859375" customWidth="1"/>
-    <col min="6" max="6" width="35.64453125" customWidth="1"/>
-    <col min="7" max="7" width="20.3515625" customWidth="1"/>
-    <col min="8" max="8" width="14.29296875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D1" t="s">
-        <v>45</v>
-      </c>
-      <c r="E1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F1" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>2742</v>
-      </c>
-      <c r="B2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C2" t="s">
-        <v>2946</v>
-      </c>
-      <c r="D2" t="s">
-        <v>3045</v>
-      </c>
-      <c r="E2" t="s">
-        <v>55</v>
-      </c>
-      <c r="F2" s="1">
-        <v>44409</v>
-      </c>
-      <c r="G2" t="s">
-        <v>55</v>
-      </c>
-      <c r="H2" s="1">
-        <v>44409</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="13.7" x14ac:dyDescent="0.4">
-      <c r="A3" t="s">
-        <v>2743</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>1337</v>
-      </c>
-      <c r="C3" t="s">
-        <v>2947</v>
-      </c>
-      <c r="D3" t="s">
-        <v>2841</v>
-      </c>
-      <c r="E3" t="s">
-        <v>55</v>
-      </c>
-      <c r="F3" s="1">
-        <v>44410</v>
-      </c>
-      <c r="G3" t="s">
-        <v>55</v>
-      </c>
-      <c r="H3" s="1">
-        <v>44410</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="13.7" x14ac:dyDescent="0.4">
-      <c r="A4" t="s">
-        <v>2744</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>1338</v>
-      </c>
-      <c r="C4" t="s">
-        <v>2948</v>
-      </c>
-      <c r="D4" t="s">
-        <v>3046</v>
-      </c>
-      <c r="E4" t="s">
-        <v>55</v>
-      </c>
-      <c r="F4" s="1">
-        <v>44411</v>
-      </c>
-      <c r="G4" t="s">
-        <v>55</v>
-      </c>
-      <c r="H4" s="1">
-        <v>44411</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="13.7" x14ac:dyDescent="0.4">
-      <c r="A5" t="s">
-        <v>2745</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>1339</v>
-      </c>
-      <c r="C5" t="s">
-        <v>2949</v>
-      </c>
-      <c r="D5" t="s">
-        <v>3047</v>
-      </c>
-      <c r="E5" t="s">
-        <v>55</v>
-      </c>
-      <c r="F5" s="1">
-        <v>44412</v>
-      </c>
-      <c r="G5" t="s">
-        <v>55</v>
-      </c>
-      <c r="H5" s="1">
-        <v>44412</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="13.7" x14ac:dyDescent="0.4">
-      <c r="A6" t="s">
-        <v>2746</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>1340</v>
-      </c>
-      <c r="C6" t="s">
-        <v>2950</v>
-      </c>
-      <c r="D6" t="s">
-        <v>3048</v>
-      </c>
-      <c r="E6" t="s">
-        <v>55</v>
-      </c>
-      <c r="F6" s="1">
-        <v>44413</v>
-      </c>
-      <c r="G6" t="s">
-        <v>55</v>
-      </c>
-      <c r="H6" s="1">
-        <v>44413</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="13.7" x14ac:dyDescent="0.4">
-      <c r="A7" t="s">
-        <v>2747</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>1341</v>
-      </c>
-      <c r="C7" t="s">
-        <v>2951</v>
-      </c>
-      <c r="D7" t="s">
-        <v>3049</v>
-      </c>
-      <c r="E7" t="s">
-        <v>55</v>
-      </c>
-      <c r="F7" s="1">
-        <v>44414</v>
-      </c>
-      <c r="G7" t="s">
-        <v>55</v>
-      </c>
-      <c r="H7" s="1">
-        <v>44414</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="13.7" x14ac:dyDescent="0.4">
-      <c r="A8" t="s">
-        <v>2748</v>
-      </c>
-      <c r="B8" s="11" t="s">
-        <v>1342</v>
-      </c>
-      <c r="C8" t="s">
-        <v>2952</v>
-      </c>
-      <c r="D8" t="s">
-        <v>3050</v>
-      </c>
-      <c r="E8" t="s">
-        <v>55</v>
-      </c>
-      <c r="F8" s="1">
-        <v>44415</v>
-      </c>
-      <c r="G8" t="s">
-        <v>55</v>
-      </c>
-      <c r="H8" s="1">
-        <v>44415</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="13.7" x14ac:dyDescent="0.4">
-      <c r="A9" t="s">
-        <v>2749</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>1343</v>
-      </c>
-      <c r="C9" t="s">
-        <v>2953</v>
-      </c>
-      <c r="D9" t="s">
-        <v>3051</v>
-      </c>
-      <c r="E9" t="s">
-        <v>55</v>
-      </c>
-      <c r="F9" s="1">
-        <v>44416</v>
-      </c>
-      <c r="G9" t="s">
-        <v>55</v>
-      </c>
-      <c r="H9" s="1">
-        <v>44416</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="13.7" x14ac:dyDescent="0.4">
-      <c r="A10" t="s">
-        <v>2750</v>
-      </c>
-      <c r="B10" s="11" t="s">
-        <v>1344</v>
-      </c>
-      <c r="C10" t="s">
-        <v>2954</v>
-      </c>
-      <c r="D10" t="s">
-        <v>3052</v>
-      </c>
-      <c r="E10" t="s">
-        <v>55</v>
-      </c>
-      <c r="F10" s="1">
-        <v>44417</v>
-      </c>
-      <c r="G10" t="s">
-        <v>55</v>
-      </c>
-      <c r="H10" s="1">
-        <v>44417</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="13.7" x14ac:dyDescent="0.4">
-      <c r="A11" t="s">
-        <v>2751</v>
-      </c>
-      <c r="B11" s="11" t="s">
-        <v>1345</v>
-      </c>
-      <c r="C11" t="s">
-        <v>2955</v>
-      </c>
-      <c r="D11" t="s">
-        <v>3053</v>
-      </c>
-      <c r="E11" t="s">
-        <v>55</v>
-      </c>
-      <c r="F11" s="1">
-        <v>44418</v>
-      </c>
-      <c r="G11" t="s">
-        <v>55</v>
-      </c>
-      <c r="H11" s="1">
-        <v>44418</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="13.7" x14ac:dyDescent="0.4">
-      <c r="A12" t="s">
-        <v>2752</v>
-      </c>
-      <c r="B12" s="11" t="s">
-        <v>1346</v>
-      </c>
-      <c r="C12" t="s">
-        <v>2956</v>
-      </c>
-      <c r="D12" t="s">
-        <v>3054</v>
-      </c>
-      <c r="E12" t="s">
-        <v>55</v>
-      </c>
-      <c r="F12" s="1">
-        <v>44419</v>
-      </c>
-      <c r="G12" t="s">
-        <v>55</v>
-      </c>
-      <c r="H12" s="1">
-        <v>44419</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="13.7" x14ac:dyDescent="0.4">
-      <c r="A13" t="s">
-        <v>2753</v>
-      </c>
-      <c r="B13" s="11" t="s">
-        <v>1347</v>
-      </c>
-      <c r="C13" t="s">
-        <v>2957</v>
-      </c>
-      <c r="D13" t="s">
-        <v>3055</v>
-      </c>
-      <c r="E13" t="s">
-        <v>55</v>
-      </c>
-      <c r="F13" s="1">
-        <v>44420</v>
-      </c>
-      <c r="G13" t="s">
-        <v>55</v>
-      </c>
-      <c r="H13" s="1">
-        <v>44420</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="13.7" x14ac:dyDescent="0.4">
-      <c r="A14" t="s">
-        <v>2754</v>
-      </c>
-      <c r="B14" s="11" t="s">
-        <v>1348</v>
-      </c>
-      <c r="C14" t="s">
-        <v>2958</v>
-      </c>
-      <c r="D14" t="s">
-        <v>3056</v>
-      </c>
-      <c r="E14" t="s">
-        <v>55</v>
-      </c>
-      <c r="F14" s="1">
-        <v>44421</v>
-      </c>
-      <c r="G14" t="s">
-        <v>55</v>
-      </c>
-      <c r="H14" s="1">
-        <v>44421</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="13.7" x14ac:dyDescent="0.4">
-      <c r="A15" s="7" t="s">
-        <v>2755</v>
-      </c>
-      <c r="B15" s="11" t="s">
-        <v>1349</v>
-      </c>
-      <c r="C15" t="s">
-        <v>2959</v>
-      </c>
-      <c r="D15" t="s">
-        <v>3057</v>
-      </c>
-      <c r="E15" t="s">
-        <v>55</v>
-      </c>
-      <c r="F15" s="1">
-        <v>44422</v>
-      </c>
-      <c r="G15" t="s">
-        <v>55</v>
-      </c>
-      <c r="H15" s="1">
-        <v>44422</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="13.7" x14ac:dyDescent="0.4">
-      <c r="A16" t="s">
-        <v>2756</v>
-      </c>
-      <c r="B16" s="11" t="s">
-        <v>1350</v>
-      </c>
-      <c r="C16" t="s">
-        <v>2960</v>
-      </c>
-      <c r="D16" t="s">
-        <v>3058</v>
-      </c>
-      <c r="E16" t="s">
-        <v>55</v>
-      </c>
-      <c r="F16" s="1">
-        <v>44423</v>
-      </c>
-      <c r="G16" t="s">
-        <v>55</v>
-      </c>
-      <c r="H16" s="1">
-        <v>44423</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="13.7" x14ac:dyDescent="0.4">
-      <c r="A17" t="s">
-        <v>2757</v>
-      </c>
-      <c r="B17" s="11" t="s">
-        <v>1351</v>
-      </c>
-      <c r="C17" t="s">
-        <v>2961</v>
-      </c>
-      <c r="D17" t="s">
-        <v>3059</v>
-      </c>
-      <c r="E17" t="s">
-        <v>55</v>
-      </c>
-      <c r="F17" s="1">
-        <v>44424</v>
-      </c>
-      <c r="G17" t="s">
-        <v>55</v>
-      </c>
-      <c r="H17" s="1">
-        <v>44424</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="13.7" x14ac:dyDescent="0.4">
-      <c r="A18" t="s">
-        <v>2758</v>
-      </c>
-      <c r="B18" s="11" t="s">
-        <v>1352</v>
-      </c>
-      <c r="C18" t="s">
-        <v>2962</v>
-      </c>
-      <c r="D18" t="s">
-        <v>3060</v>
-      </c>
-      <c r="E18" t="s">
-        <v>55</v>
-      </c>
-      <c r="F18" s="1">
-        <v>44425</v>
-      </c>
-      <c r="G18" t="s">
-        <v>55</v>
-      </c>
-      <c r="H18" s="1">
-        <v>44425</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="13.7" x14ac:dyDescent="0.4">
-      <c r="A19" t="s">
-        <v>2759</v>
-      </c>
-      <c r="B19" s="11" t="s">
-        <v>1353</v>
-      </c>
-      <c r="C19" t="s">
-        <v>2963</v>
-      </c>
-      <c r="D19" t="s">
-        <v>3061</v>
-      </c>
-      <c r="E19" t="s">
-        <v>55</v>
-      </c>
-      <c r="F19" s="1">
-        <v>44426</v>
-      </c>
-      <c r="G19" t="s">
-        <v>55</v>
-      </c>
-      <c r="H19" s="1">
-        <v>44426</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="13.7" x14ac:dyDescent="0.4">
-      <c r="A20" t="s">
-        <v>2760</v>
-      </c>
-      <c r="B20" s="11" t="s">
-        <v>1354</v>
-      </c>
-      <c r="C20" t="s">
-        <v>2964</v>
-      </c>
-      <c r="D20" t="s">
-        <v>3062</v>
-      </c>
-      <c r="E20" t="s">
-        <v>55</v>
-      </c>
-      <c r="F20" s="1">
-        <v>44427</v>
-      </c>
-      <c r="G20" t="s">
-        <v>55</v>
-      </c>
-      <c r="H20" s="1">
-        <v>44427</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="13.7" x14ac:dyDescent="0.4">
-      <c r="A21" t="s">
-        <v>2761</v>
-      </c>
-      <c r="B21" s="11" t="s">
-        <v>1355</v>
-      </c>
-      <c r="C21" t="s">
-        <v>2965</v>
-      </c>
-      <c r="D21" t="s">
-        <v>3063</v>
-      </c>
-      <c r="E21" t="s">
-        <v>55</v>
-      </c>
-      <c r="F21" s="1">
-        <v>44428</v>
-      </c>
-      <c r="G21" t="s">
-        <v>55</v>
-      </c>
-      <c r="H21" s="1">
-        <v>44428</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="13.7" x14ac:dyDescent="0.4">
-      <c r="A22" t="s">
-        <v>2762</v>
-      </c>
-      <c r="B22" s="11" t="s">
-        <v>1356</v>
-      </c>
-      <c r="C22" t="s">
-        <v>2966</v>
-      </c>
-      <c r="D22" t="s">
-        <v>3064</v>
-      </c>
-      <c r="E22" t="s">
-        <v>55</v>
-      </c>
-      <c r="F22" s="1">
-        <v>44429</v>
-      </c>
-      <c r="G22" t="s">
-        <v>55</v>
-      </c>
-      <c r="H22" s="1">
-        <v>44429</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="13.7" x14ac:dyDescent="0.4">
-      <c r="A23" t="s">
-        <v>2763</v>
-      </c>
-      <c r="B23" s="11" t="s">
-        <v>1357</v>
-      </c>
-      <c r="C23" t="s">
-        <v>2967</v>
-      </c>
-      <c r="D23" t="s">
-        <v>3065</v>
-      </c>
-      <c r="E23" t="s">
-        <v>55</v>
-      </c>
-      <c r="F23" s="1">
-        <v>44430</v>
-      </c>
-      <c r="G23" t="s">
-        <v>55</v>
-      </c>
-      <c r="H23" s="1">
-        <v>44430</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="13.7" x14ac:dyDescent="0.4">
-      <c r="A24" t="s">
-        <v>2764</v>
-      </c>
-      <c r="B24" s="11" t="s">
-        <v>1358</v>
-      </c>
-      <c r="C24" t="s">
-        <v>2968</v>
-      </c>
-      <c r="D24" t="s">
-        <v>3066</v>
-      </c>
-      <c r="E24" t="s">
-        <v>55</v>
-      </c>
-      <c r="F24" s="1">
-        <v>44431</v>
-      </c>
-      <c r="G24" t="s">
-        <v>55</v>
-      </c>
-      <c r="H24" s="1">
-        <v>44431</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="13.7" x14ac:dyDescent="0.4">
-      <c r="A25" t="s">
-        <v>2765</v>
-      </c>
-      <c r="B25" s="11" t="s">
-        <v>1359</v>
-      </c>
-      <c r="C25" t="s">
-        <v>2969</v>
-      </c>
-      <c r="D25" t="s">
-        <v>3067</v>
-      </c>
-      <c r="E25" t="s">
-        <v>55</v>
-      </c>
-      <c r="F25" s="1">
-        <v>44432</v>
-      </c>
-      <c r="G25" t="s">
-        <v>55</v>
-      </c>
-      <c r="H25" s="1">
-        <v>44432</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="13.7" x14ac:dyDescent="0.4">
-      <c r="A26" t="s">
-        <v>2766</v>
-      </c>
-      <c r="B26" s="11" t="s">
-        <v>1360</v>
-      </c>
-      <c r="C26" t="s">
-        <v>2970</v>
-      </c>
-      <c r="D26" t="s">
-        <v>3068</v>
-      </c>
-      <c r="E26" t="s">
-        <v>55</v>
-      </c>
-      <c r="F26" s="1">
-        <v>44433</v>
-      </c>
-      <c r="G26" t="s">
-        <v>55</v>
-      </c>
-      <c r="H26" s="1">
-        <v>44433</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="13.7" x14ac:dyDescent="0.4">
-      <c r="A27" t="s">
-        <v>2767</v>
-      </c>
-      <c r="B27" s="11" t="s">
-        <v>1361</v>
-      </c>
-      <c r="C27" t="s">
-        <v>2971</v>
-      </c>
-      <c r="D27" t="s">
-        <v>3069</v>
-      </c>
-      <c r="E27" t="s">
-        <v>55</v>
-      </c>
-      <c r="F27" s="1">
-        <v>44434</v>
-      </c>
-      <c r="G27" t="s">
-        <v>55</v>
-      </c>
-      <c r="H27" s="1">
-        <v>44434</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" ht="13.7" x14ac:dyDescent="0.4">
-      <c r="A28" t="s">
-        <v>2768</v>
-      </c>
-      <c r="B28" s="11" t="s">
-        <v>1362</v>
-      </c>
-      <c r="C28" t="s">
-        <v>2972</v>
-      </c>
-      <c r="D28" t="s">
-        <v>3070</v>
-      </c>
-      <c r="E28" t="s">
-        <v>55</v>
-      </c>
-      <c r="F28" s="1">
-        <v>44435</v>
-      </c>
-      <c r="G28" t="s">
-        <v>55</v>
-      </c>
-      <c r="H28" s="1">
-        <v>44435</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" ht="13.7" x14ac:dyDescent="0.4">
-      <c r="A29" t="s">
-        <v>2769</v>
-      </c>
-      <c r="B29" s="11" t="s">
-        <v>1363</v>
-      </c>
-      <c r="C29" t="s">
-        <v>2973</v>
-      </c>
-      <c r="D29" t="s">
-        <v>3071</v>
-      </c>
-      <c r="E29" t="s">
-        <v>55</v>
-      </c>
-      <c r="F29" s="1">
-        <v>44436</v>
-      </c>
-      <c r="G29" t="s">
-        <v>55</v>
-      </c>
-      <c r="H29" s="1">
-        <v>44436</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" ht="13.7" x14ac:dyDescent="0.4">
-      <c r="A30" t="s">
-        <v>2770</v>
-      </c>
-      <c r="B30" s="11" t="s">
-        <v>1364</v>
-      </c>
-      <c r="C30" t="s">
-        <v>2974</v>
-      </c>
-      <c r="D30" t="s">
-        <v>3072</v>
-      </c>
-      <c r="E30" t="s">
-        <v>55</v>
-      </c>
-      <c r="F30" s="1">
-        <v>44437</v>
-      </c>
-      <c r="G30" t="s">
-        <v>55</v>
-      </c>
-      <c r="H30" s="1">
-        <v>44437</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" ht="13.7" x14ac:dyDescent="0.4">
-      <c r="A31" t="s">
-        <v>2771</v>
-      </c>
-      <c r="B31" s="11" t="s">
-        <v>1365</v>
-      </c>
-      <c r="C31" t="s">
-        <v>2975</v>
-      </c>
-      <c r="D31" t="s">
-        <v>3073</v>
-      </c>
-      <c r="E31" t="s">
-        <v>55</v>
-      </c>
-      <c r="F31" s="1">
-        <v>44438</v>
-      </c>
-      <c r="G31" t="s">
-        <v>55</v>
-      </c>
-      <c r="H31" s="1">
-        <v>44438</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" ht="13.7" x14ac:dyDescent="0.4">
-      <c r="A32" t="s">
-        <v>2772</v>
-      </c>
-      <c r="B32" s="11" t="s">
-        <v>1366</v>
-      </c>
-      <c r="C32" t="s">
-        <v>2976</v>
-      </c>
-      <c r="D32" t="s">
-        <v>3074</v>
-      </c>
-      <c r="E32" t="s">
-        <v>55</v>
-      </c>
-      <c r="F32" s="1">
-        <v>44439</v>
-      </c>
-      <c r="G32" t="s">
-        <v>55</v>
-      </c>
-      <c r="H32" s="1">
-        <v>44439</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" ht="13.7" x14ac:dyDescent="0.4">
-      <c r="A33" t="s">
-        <v>2773</v>
-      </c>
-      <c r="B33" s="11" t="s">
-        <v>1367</v>
-      </c>
-      <c r="C33" t="s">
-        <v>2977</v>
-      </c>
-      <c r="D33" t="s">
-        <v>3075</v>
-      </c>
-      <c r="E33" t="s">
-        <v>55</v>
-      </c>
-      <c r="F33" s="1">
-        <v>44440</v>
-      </c>
-      <c r="G33" t="s">
-        <v>55</v>
-      </c>
-      <c r="H33" s="1">
-        <v>44440</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" ht="13.7" x14ac:dyDescent="0.4">
-      <c r="A34" t="s">
-        <v>2774</v>
-      </c>
-      <c r="B34" s="11" t="s">
-        <v>1368</v>
-      </c>
-      <c r="C34" t="s">
-        <v>2978</v>
-      </c>
-      <c r="D34" t="s">
-        <v>3076</v>
-      </c>
-      <c r="E34" t="s">
-        <v>55</v>
-      </c>
-      <c r="F34" s="1">
-        <v>44441</v>
-      </c>
-      <c r="G34" t="s">
-        <v>55</v>
-      </c>
-      <c r="H34" s="1">
-        <v>44441</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" ht="13.7" x14ac:dyDescent="0.4">
-      <c r="A35" t="s">
-        <v>2775</v>
-      </c>
-      <c r="B35" s="11" t="s">
-        <v>1369</v>
-      </c>
-      <c r="C35" t="s">
-        <v>2979</v>
-      </c>
-      <c r="D35" t="s">
-        <v>3077</v>
-      </c>
-      <c r="E35" t="s">
-        <v>55</v>
-      </c>
-      <c r="F35" s="1">
-        <v>44442</v>
-      </c>
-      <c r="G35" t="s">
-        <v>55</v>
-      </c>
-      <c r="H35" s="1">
-        <v>44442</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" ht="13.7" x14ac:dyDescent="0.4">
-      <c r="A36" t="s">
-        <v>2776</v>
-      </c>
-      <c r="B36" s="11" t="s">
-        <v>1370</v>
-      </c>
-      <c r="C36" t="s">
-        <v>2980</v>
-      </c>
-      <c r="D36" t="s">
-        <v>3078</v>
-      </c>
-      <c r="E36" t="s">
-        <v>55</v>
-      </c>
-      <c r="F36" s="1">
-        <v>44443</v>
-      </c>
-      <c r="G36" t="s">
-        <v>55</v>
-      </c>
-      <c r="H36" s="1">
-        <v>44443</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" ht="13.7" x14ac:dyDescent="0.4">
-      <c r="A37" t="s">
-        <v>2777</v>
-      </c>
-      <c r="B37" s="11" t="s">
-        <v>1371</v>
-      </c>
-      <c r="C37" t="s">
-        <v>1855</v>
-      </c>
-      <c r="D37" t="s">
-        <v>3079</v>
-      </c>
-      <c r="E37" t="s">
-        <v>55</v>
-      </c>
-      <c r="F37" s="1">
-        <v>44444</v>
-      </c>
-      <c r="G37" t="s">
-        <v>55</v>
-      </c>
-      <c r="H37" s="1">
-        <v>44444</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" ht="13.7" x14ac:dyDescent="0.4">
-      <c r="A38" t="s">
-        <v>2778</v>
-      </c>
-      <c r="B38" s="11" t="s">
-        <v>1372</v>
-      </c>
-      <c r="C38" t="s">
-        <v>2981</v>
-      </c>
-      <c r="D38" t="s">
-        <v>3080</v>
-      </c>
-      <c r="E38" t="s">
-        <v>55</v>
-      </c>
-      <c r="F38" s="1">
-        <v>44445</v>
-      </c>
-      <c r="G38" t="s">
-        <v>55</v>
-      </c>
-      <c r="H38" s="1">
-        <v>44445</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" ht="13.7" x14ac:dyDescent="0.4">
-      <c r="A39" t="s">
-        <v>2779</v>
-      </c>
-      <c r="B39" s="11" t="s">
-        <v>1373</v>
-      </c>
-      <c r="C39" t="s">
-        <v>2982</v>
-      </c>
-      <c r="D39" t="s">
-        <v>3081</v>
-      </c>
-      <c r="E39" t="s">
-        <v>55</v>
-      </c>
-      <c r="F39" s="1">
-        <v>44446</v>
-      </c>
-      <c r="G39" t="s">
-        <v>55</v>
-      </c>
-      <c r="H39" s="1">
-        <v>44446</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" ht="13.7" x14ac:dyDescent="0.4">
-      <c r="A40" t="s">
-        <v>2780</v>
-      </c>
-      <c r="B40" s="11" t="s">
-        <v>1374</v>
-      </c>
-      <c r="C40" t="s">
-        <v>2983</v>
-      </c>
-      <c r="D40" t="s">
-        <v>3082</v>
-      </c>
-      <c r="E40" t="s">
-        <v>55</v>
-      </c>
-      <c r="F40" s="1">
-        <v>44447</v>
-      </c>
-      <c r="G40" t="s">
-        <v>55</v>
-      </c>
-      <c r="H40" s="1">
-        <v>44447</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" ht="13.7" x14ac:dyDescent="0.4">
-      <c r="A41" t="s">
-        <v>2781</v>
-      </c>
-      <c r="B41" s="11" t="s">
-        <v>1375</v>
-      </c>
-      <c r="C41" t="s">
-        <v>2984</v>
-      </c>
-      <c r="D41" t="s">
-        <v>3083</v>
-      </c>
-      <c r="E41" t="s">
-        <v>55</v>
-      </c>
-      <c r="F41" s="1">
-        <v>44448</v>
-      </c>
-      <c r="G41" t="s">
-        <v>55</v>
-      </c>
-      <c r="H41" s="1">
-        <v>44448</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" ht="13.7" x14ac:dyDescent="0.4">
-      <c r="A42" t="s">
-        <v>2782</v>
-      </c>
-      <c r="B42" s="11" t="s">
-        <v>1376</v>
-      </c>
-      <c r="C42" t="s">
-        <v>2985</v>
-      </c>
-      <c r="D42" t="s">
-        <v>3084</v>
-      </c>
-      <c r="E42" t="s">
-        <v>55</v>
-      </c>
-      <c r="F42" s="1">
-        <v>44449</v>
-      </c>
-      <c r="G42" t="s">
-        <v>55</v>
-      </c>
-      <c r="H42" s="1">
-        <v>44449</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" ht="13.7" x14ac:dyDescent="0.4">
-      <c r="A43" t="s">
-        <v>2783</v>
-      </c>
-      <c r="B43" s="11" t="s">
-        <v>1377</v>
-      </c>
-      <c r="C43" t="s">
-        <v>2986</v>
-      </c>
-      <c r="D43" t="s">
-        <v>3085</v>
-      </c>
-      <c r="E43" t="s">
-        <v>55</v>
-      </c>
-      <c r="F43" s="1">
-        <v>44450</v>
-      </c>
-      <c r="G43" t="s">
-        <v>55</v>
-      </c>
-      <c r="H43" s="1">
-        <v>44450</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" ht="13.7" x14ac:dyDescent="0.4">
-      <c r="A44" t="s">
-        <v>2784</v>
-      </c>
-      <c r="B44" s="11" t="s">
-        <v>1378</v>
-      </c>
-      <c r="C44" t="s">
-        <v>2987</v>
-      </c>
-      <c r="D44" t="s">
-        <v>3086</v>
-      </c>
-      <c r="E44" t="s">
-        <v>55</v>
-      </c>
-      <c r="F44" s="1">
-        <v>44451</v>
-      </c>
-      <c r="G44" t="s">
-        <v>55</v>
-      </c>
-      <c r="H44" s="1">
-        <v>44451</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" ht="13.7" x14ac:dyDescent="0.4">
-      <c r="A45" t="s">
-        <v>2785</v>
-      </c>
-      <c r="B45" s="11" t="s">
-        <v>1379</v>
-      </c>
-      <c r="C45" t="s">
-        <v>2988</v>
-      </c>
-      <c r="D45" t="s">
-        <v>3087</v>
-      </c>
-      <c r="E45" t="s">
-        <v>55</v>
-      </c>
-      <c r="F45" s="1">
-        <v>44452</v>
-      </c>
-      <c r="G45" t="s">
-        <v>55</v>
-      </c>
-      <c r="H45" s="1">
-        <v>44452</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" ht="13.7" x14ac:dyDescent="0.4">
-      <c r="A46" t="s">
-        <v>2786</v>
-      </c>
-      <c r="B46" s="11" t="s">
-        <v>1380</v>
-      </c>
-      <c r="C46" t="s">
-        <v>2989</v>
-      </c>
-      <c r="D46" t="s">
-        <v>3088</v>
-      </c>
-      <c r="E46" t="s">
-        <v>55</v>
-      </c>
-      <c r="F46" s="1">
-        <v>44453</v>
-      </c>
-      <c r="G46" t="s">
-        <v>55</v>
-      </c>
-      <c r="H46" s="1">
-        <v>44453</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" ht="13.7" x14ac:dyDescent="0.4">
-      <c r="A47" t="s">
-        <v>2787</v>
-      </c>
-      <c r="B47" s="11" t="s">
-        <v>1381</v>
-      </c>
-      <c r="C47" t="s">
-        <v>2990</v>
-      </c>
-      <c r="D47" t="s">
-        <v>3089</v>
-      </c>
-      <c r="E47" t="s">
-        <v>55</v>
-      </c>
-      <c r="F47" s="1">
-        <v>44454</v>
-      </c>
-      <c r="G47" t="s">
-        <v>55</v>
-      </c>
-      <c r="H47" s="1">
-        <v>44454</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" ht="13.7" x14ac:dyDescent="0.4">
-      <c r="A48" t="s">
-        <v>2788</v>
-      </c>
-      <c r="B48" s="11" t="s">
-        <v>1382</v>
-      </c>
-      <c r="C48" t="s">
-        <v>2991</v>
-      </c>
-      <c r="D48" t="s">
-        <v>3090</v>
-      </c>
-      <c r="E48" t="s">
-        <v>55</v>
-      </c>
-      <c r="F48" s="1">
-        <v>44455</v>
-      </c>
-      <c r="G48" t="s">
-        <v>55</v>
-      </c>
-      <c r="H48" s="1">
-        <v>44455</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" ht="13.7" x14ac:dyDescent="0.4">
-      <c r="A49" t="s">
-        <v>2789</v>
-      </c>
-      <c r="B49" s="11" t="s">
-        <v>1383</v>
-      </c>
-      <c r="C49" t="s">
-        <v>2992</v>
-      </c>
-      <c r="D49" t="s">
-        <v>3091</v>
-      </c>
-      <c r="E49" t="s">
-        <v>55</v>
-      </c>
-      <c r="F49" s="1">
-        <v>44456</v>
-      </c>
-      <c r="G49" t="s">
-        <v>55</v>
-      </c>
-      <c r="H49" s="1">
-        <v>44456</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" ht="13.7" x14ac:dyDescent="0.4">
-      <c r="A50" t="s">
-        <v>2790</v>
-      </c>
-      <c r="B50" s="11" t="s">
-        <v>1384</v>
-      </c>
-      <c r="C50" t="s">
-        <v>2993</v>
-      </c>
-      <c r="D50" t="s">
-        <v>3092</v>
-      </c>
-      <c r="E50" t="s">
-        <v>55</v>
-      </c>
-      <c r="F50" s="1">
-        <v>44457</v>
-      </c>
-      <c r="G50" t="s">
-        <v>55</v>
-      </c>
-      <c r="H50" s="1">
-        <v>44457</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" ht="13.7" x14ac:dyDescent="0.4">
-      <c r="A51" t="s">
-        <v>2791</v>
-      </c>
-      <c r="B51" s="11" t="s">
-        <v>1385</v>
-      </c>
-      <c r="C51" t="s">
-        <v>2994</v>
-      </c>
-      <c r="D51" t="s">
-        <v>3093</v>
-      </c>
-      <c r="E51" t="s">
-        <v>55</v>
-      </c>
-      <c r="F51" s="1">
-        <v>44458</v>
-      </c>
-      <c r="G51" t="s">
-        <v>55</v>
-      </c>
-      <c r="H51" s="1">
-        <v>44458</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" ht="13.7" x14ac:dyDescent="0.4">
-      <c r="A52" t="s">
-        <v>2792</v>
-      </c>
-      <c r="B52" s="11" t="s">
-        <v>1386</v>
-      </c>
-      <c r="C52" t="s">
-        <v>2995</v>
-      </c>
-      <c r="D52" t="s">
-        <v>3094</v>
-      </c>
-      <c r="E52" t="s">
-        <v>55</v>
-      </c>
-      <c r="F52" s="1">
-        <v>44459</v>
-      </c>
-      <c r="G52" t="s">
-        <v>55</v>
-      </c>
-      <c r="H52" s="1">
-        <v>44459</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" ht="13.7" x14ac:dyDescent="0.4">
-      <c r="A53" t="s">
-        <v>2793</v>
-      </c>
-      <c r="B53" s="11" t="s">
-        <v>1387</v>
-      </c>
-      <c r="C53" t="s">
-        <v>2996</v>
-      </c>
-      <c r="D53" t="s">
-        <v>3095</v>
-      </c>
-      <c r="E53" t="s">
-        <v>55</v>
-      </c>
-      <c r="F53" s="1">
-        <v>44460</v>
-      </c>
-      <c r="G53" t="s">
-        <v>55</v>
-      </c>
-      <c r="H53" s="1">
-        <v>44460</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" ht="13.7" x14ac:dyDescent="0.4">
-      <c r="A54" t="s">
-        <v>2794</v>
-      </c>
-      <c r="B54" s="11" t="s">
-        <v>1388</v>
-      </c>
-      <c r="C54" t="s">
-        <v>2997</v>
-      </c>
-      <c r="D54" t="s">
-        <v>3096</v>
-      </c>
-      <c r="E54" t="s">
-        <v>55</v>
-      </c>
-      <c r="F54" s="1">
-        <v>44461</v>
-      </c>
-      <c r="G54" t="s">
-        <v>55</v>
-      </c>
-      <c r="H54" s="1">
-        <v>44461</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" ht="13.7" x14ac:dyDescent="0.4">
-      <c r="A55" t="s">
-        <v>2795</v>
-      </c>
-      <c r="B55" s="11" t="s">
-        <v>1389</v>
-      </c>
-      <c r="C55" t="s">
-        <v>2998</v>
-      </c>
-      <c r="D55" t="s">
-        <v>3097</v>
-      </c>
-      <c r="E55" t="s">
-        <v>55</v>
-      </c>
-      <c r="F55" s="1">
-        <v>44462</v>
-      </c>
-      <c r="G55" t="s">
-        <v>55</v>
-      </c>
-      <c r="H55" s="1">
-        <v>44462</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" ht="13.7" x14ac:dyDescent="0.4">
-      <c r="A56" t="s">
-        <v>2796</v>
-      </c>
-      <c r="B56" s="11" t="s">
-        <v>1390</v>
-      </c>
-      <c r="C56" t="s">
-        <v>2999</v>
-      </c>
-      <c r="D56" t="s">
-        <v>3098</v>
-      </c>
-      <c r="E56" t="s">
-        <v>55</v>
-      </c>
-      <c r="F56" s="1">
-        <v>44463</v>
-      </c>
-      <c r="G56" t="s">
-        <v>55</v>
-      </c>
-      <c r="H56" s="1">
-        <v>44463</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" ht="13.7" x14ac:dyDescent="0.4">
-      <c r="A57" t="s">
-        <v>2797</v>
-      </c>
-      <c r="B57" s="11" t="s">
-        <v>1391</v>
-      </c>
-      <c r="C57" t="s">
-        <v>3000</v>
-      </c>
-      <c r="D57" t="s">
-        <v>3099</v>
-      </c>
-      <c r="E57" t="s">
-        <v>55</v>
-      </c>
-      <c r="F57" s="1">
-        <v>44464</v>
-      </c>
-      <c r="G57" t="s">
-        <v>55</v>
-      </c>
-      <c r="H57" s="1">
-        <v>44464</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" ht="13.7" x14ac:dyDescent="0.4">
-      <c r="A58" t="s">
-        <v>2798</v>
-      </c>
-      <c r="B58" s="11" t="s">
-        <v>1392</v>
-      </c>
-      <c r="C58" t="s">
-        <v>3001</v>
-      </c>
-      <c r="D58" t="s">
-        <v>3100</v>
-      </c>
-      <c r="E58" t="s">
-        <v>55</v>
-      </c>
-      <c r="F58" s="1">
-        <v>44465</v>
-      </c>
-      <c r="G58" t="s">
-        <v>55</v>
-      </c>
-      <c r="H58" s="1">
-        <v>44465</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" ht="13.7" x14ac:dyDescent="0.4">
-      <c r="A59" t="s">
-        <v>2799</v>
-      </c>
-      <c r="B59" s="11" t="s">
-        <v>1393</v>
-      </c>
-      <c r="C59" t="s">
-        <v>3002</v>
-      </c>
-      <c r="D59" t="s">
-        <v>3101</v>
-      </c>
-      <c r="E59" t="s">
-        <v>55</v>
-      </c>
-      <c r="F59" s="1">
-        <v>44466</v>
-      </c>
-      <c r="G59" t="s">
-        <v>55</v>
-      </c>
-      <c r="H59" s="1">
-        <v>44466</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" ht="13.7" x14ac:dyDescent="0.4">
-      <c r="A60" t="s">
-        <v>2800</v>
-      </c>
-      <c r="B60" s="11" t="s">
-        <v>1394</v>
-      </c>
-      <c r="C60" t="s">
-        <v>3003</v>
-      </c>
-      <c r="D60" t="s">
-        <v>3102</v>
-      </c>
-      <c r="E60" t="s">
-        <v>55</v>
-      </c>
-      <c r="F60" s="1">
-        <v>44467</v>
-      </c>
-      <c r="G60" t="s">
-        <v>55</v>
-      </c>
-      <c r="H60" s="1">
-        <v>44467</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" ht="13.7" x14ac:dyDescent="0.4">
-      <c r="A61" t="s">
-        <v>2801</v>
-      </c>
-      <c r="B61" s="11" t="s">
-        <v>1395</v>
-      </c>
-      <c r="C61" t="s">
-        <v>3004</v>
-      </c>
-      <c r="D61" t="s">
-        <v>3103</v>
-      </c>
-      <c r="E61" t="s">
-        <v>55</v>
-      </c>
-      <c r="F61" s="1">
-        <v>44468</v>
-      </c>
-      <c r="G61" t="s">
-        <v>55</v>
-      </c>
-      <c r="H61" s="1">
-        <v>44468</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" ht="13.7" x14ac:dyDescent="0.4">
-      <c r="A62" t="s">
-        <v>2802</v>
-      </c>
-      <c r="B62" s="11" t="s">
-        <v>1396</v>
-      </c>
-      <c r="C62" t="s">
-        <v>3005</v>
-      </c>
-      <c r="D62" t="s">
-        <v>3104</v>
-      </c>
-      <c r="E62" t="s">
-        <v>55</v>
-      </c>
-      <c r="F62" s="1">
-        <v>44469</v>
-      </c>
-      <c r="G62" t="s">
-        <v>55</v>
-      </c>
-      <c r="H62" s="1">
-        <v>44469</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" ht="13.7" x14ac:dyDescent="0.4">
-      <c r="A63" t="s">
-        <v>2803</v>
-      </c>
-      <c r="B63" s="11" t="s">
-        <v>1397</v>
-      </c>
-      <c r="C63" t="s">
-        <v>3006</v>
-      </c>
-      <c r="D63" t="s">
-        <v>3105</v>
-      </c>
-      <c r="E63" t="s">
-        <v>55</v>
-      </c>
-      <c r="F63" s="1">
-        <v>44470</v>
-      </c>
-      <c r="G63" t="s">
-        <v>55</v>
-      </c>
-      <c r="H63" s="1">
-        <v>44470</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" ht="13.7" x14ac:dyDescent="0.4">
-      <c r="A64" t="s">
-        <v>2804</v>
-      </c>
-      <c r="B64" s="11" t="s">
-        <v>1398</v>
-      </c>
-      <c r="C64" t="s">
-        <v>3007</v>
-      </c>
-      <c r="D64" t="s">
-        <v>3106</v>
-      </c>
-      <c r="E64" t="s">
-        <v>55</v>
-      </c>
-      <c r="F64" s="1">
-        <v>44471</v>
-      </c>
-      <c r="G64" t="s">
-        <v>55</v>
-      </c>
-      <c r="H64" s="1">
-        <v>44471</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" ht="13.7" x14ac:dyDescent="0.4">
-      <c r="A65" t="s">
-        <v>2805</v>
-      </c>
-      <c r="B65" s="11" t="s">
-        <v>1399</v>
-      </c>
-      <c r="C65" t="s">
-        <v>3008</v>
-      </c>
-      <c r="D65" t="s">
-        <v>3107</v>
-      </c>
-      <c r="E65" t="s">
-        <v>55</v>
-      </c>
-      <c r="F65" s="1">
-        <v>44472</v>
-      </c>
-      <c r="G65" t="s">
-        <v>55</v>
-      </c>
-      <c r="H65" s="1">
-        <v>44472</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" ht="13.7" x14ac:dyDescent="0.4">
-      <c r="A66" t="s">
-        <v>2806</v>
-      </c>
-      <c r="B66" s="11" t="s">
-        <v>1400</v>
-      </c>
-      <c r="C66" t="s">
-        <v>3009</v>
-      </c>
-      <c r="D66" t="s">
-        <v>3108</v>
-      </c>
-      <c r="E66" t="s">
-        <v>55</v>
-      </c>
-      <c r="F66" s="1">
-        <v>44473</v>
-      </c>
-      <c r="G66" t="s">
-        <v>55</v>
-      </c>
-      <c r="H66" s="1">
-        <v>44473</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" ht="13.7" x14ac:dyDescent="0.4">
-      <c r="A67" t="s">
-        <v>2807</v>
-      </c>
-      <c r="B67" s="11" t="s">
-        <v>1401</v>
-      </c>
-      <c r="C67" t="s">
-        <v>3010</v>
-      </c>
-      <c r="D67" t="s">
-        <v>3109</v>
-      </c>
-      <c r="E67" t="s">
-        <v>55</v>
-      </c>
-      <c r="F67" s="1">
-        <v>44474</v>
-      </c>
-      <c r="G67" t="s">
-        <v>55</v>
-      </c>
-      <c r="H67" s="1">
-        <v>44474</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" ht="13.7" x14ac:dyDescent="0.4">
-      <c r="A68" t="s">
-        <v>2808</v>
-      </c>
-      <c r="B68" s="11" t="s">
-        <v>1402</v>
-      </c>
-      <c r="C68" t="s">
-        <v>3011</v>
-      </c>
-      <c r="D68" t="s">
-        <v>3110</v>
-      </c>
-      <c r="E68" t="s">
-        <v>55</v>
-      </c>
-      <c r="F68" s="1">
-        <v>44475</v>
-      </c>
-      <c r="G68" t="s">
-        <v>55</v>
-      </c>
-      <c r="H68" s="1">
-        <v>44475</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" ht="13.7" x14ac:dyDescent="0.4">
-      <c r="A69" t="s">
-        <v>2809</v>
-      </c>
-      <c r="B69" s="11" t="s">
-        <v>1403</v>
-      </c>
-      <c r="C69" t="s">
-        <v>3012</v>
-      </c>
-      <c r="D69" t="s">
-        <v>3111</v>
-      </c>
-      <c r="E69" t="s">
-        <v>55</v>
-      </c>
-      <c r="F69" s="1">
-        <v>44476</v>
-      </c>
-      <c r="G69" t="s">
-        <v>55</v>
-      </c>
-      <c r="H69" s="1">
-        <v>44476</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" ht="13.7" x14ac:dyDescent="0.4">
-      <c r="A70" t="s">
-        <v>2810</v>
-      </c>
-      <c r="B70" s="11" t="s">
-        <v>1404</v>
-      </c>
-      <c r="C70" t="s">
-        <v>3013</v>
-      </c>
-      <c r="D70" t="s">
-        <v>3112</v>
-      </c>
-      <c r="E70" t="s">
-        <v>55</v>
-      </c>
-      <c r="F70" s="1">
-        <v>44477</v>
-      </c>
-      <c r="G70" t="s">
-        <v>55</v>
-      </c>
-      <c r="H70" s="1">
-        <v>44477</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" ht="13.7" x14ac:dyDescent="0.4">
-      <c r="A71" t="s">
-        <v>2811</v>
-      </c>
-      <c r="B71" s="11" t="s">
-        <v>1405</v>
-      </c>
-      <c r="C71" t="s">
-        <v>3014</v>
-      </c>
-      <c r="D71" t="s">
-        <v>3113</v>
-      </c>
-      <c r="E71" t="s">
-        <v>55</v>
-      </c>
-      <c r="F71" s="1">
-        <v>44478</v>
-      </c>
-      <c r="G71" t="s">
-        <v>55</v>
-      </c>
-      <c r="H71" s="1">
-        <v>44478</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" ht="13.7" x14ac:dyDescent="0.4">
-      <c r="A72" t="s">
-        <v>2812</v>
-      </c>
-      <c r="B72" s="11" t="s">
-        <v>1406</v>
-      </c>
-      <c r="C72" t="s">
-        <v>3015</v>
-      </c>
-      <c r="D72" t="s">
-        <v>3114</v>
-      </c>
-      <c r="E72" t="s">
-        <v>55</v>
-      </c>
-      <c r="F72" s="1">
-        <v>44479</v>
-      </c>
-      <c r="G72" t="s">
-        <v>55</v>
-      </c>
-      <c r="H72" s="1">
-        <v>44479</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" ht="13.7" x14ac:dyDescent="0.4">
-      <c r="A73" t="s">
-        <v>2813</v>
-      </c>
-      <c r="B73" s="11" t="s">
-        <v>1407</v>
-      </c>
-      <c r="C73" t="s">
-        <v>3016</v>
-      </c>
-      <c r="D73" t="s">
-        <v>3115</v>
-      </c>
-      <c r="E73" t="s">
-        <v>55</v>
-      </c>
-      <c r="F73" s="1">
-        <v>44480</v>
-      </c>
-      <c r="G73" t="s">
-        <v>55</v>
-      </c>
-      <c r="H73" s="1">
-        <v>44480</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" ht="13.7" x14ac:dyDescent="0.4">
-      <c r="A74" t="s">
-        <v>2814</v>
-      </c>
-      <c r="B74" s="11" t="s">
-        <v>1408</v>
-      </c>
-      <c r="C74" t="s">
-        <v>3017</v>
-      </c>
-      <c r="D74" t="s">
-        <v>3116</v>
-      </c>
-      <c r="E74" t="s">
-        <v>55</v>
-      </c>
-      <c r="F74" s="1">
-        <v>44481</v>
-      </c>
-      <c r="G74" t="s">
-        <v>55</v>
-      </c>
-      <c r="H74" s="1">
-        <v>44481</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" ht="13.7" x14ac:dyDescent="0.4">
-      <c r="A75" t="s">
-        <v>2815</v>
-      </c>
-      <c r="B75" s="11" t="s">
-        <v>1409</v>
-      </c>
-      <c r="C75" t="s">
-        <v>3018</v>
-      </c>
-      <c r="D75" t="s">
-        <v>3117</v>
-      </c>
-      <c r="E75" t="s">
-        <v>55</v>
-      </c>
-      <c r="F75" s="1">
-        <v>44482</v>
-      </c>
-      <c r="G75" t="s">
-        <v>55</v>
-      </c>
-      <c r="H75" s="1">
-        <v>44482</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" ht="13.7" x14ac:dyDescent="0.4">
-      <c r="A76" t="s">
-        <v>2816</v>
-      </c>
-      <c r="B76" s="11" t="s">
-        <v>1410</v>
-      </c>
-      <c r="C76" t="s">
-        <v>3019</v>
-      </c>
-      <c r="D76" t="s">
-        <v>3118</v>
-      </c>
-      <c r="E76" t="s">
-        <v>55</v>
-      </c>
-      <c r="F76" s="1">
-        <v>44483</v>
-      </c>
-      <c r="G76" t="s">
-        <v>55</v>
-      </c>
-      <c r="H76" s="1">
-        <v>44483</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" ht="13.7" x14ac:dyDescent="0.4">
-      <c r="A77" t="s">
-        <v>2817</v>
-      </c>
-      <c r="B77" s="11" t="s">
-        <v>1411</v>
-      </c>
-      <c r="C77" t="s">
-        <v>3020</v>
-      </c>
-      <c r="D77" t="s">
-        <v>3119</v>
-      </c>
-      <c r="E77" t="s">
-        <v>55</v>
-      </c>
-      <c r="F77" s="1">
-        <v>44484</v>
-      </c>
-      <c r="G77" t="s">
-        <v>55</v>
-      </c>
-      <c r="H77" s="1">
-        <v>44484</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" ht="13.7" x14ac:dyDescent="0.4">
-      <c r="A78" t="s">
-        <v>2818</v>
-      </c>
-      <c r="B78" s="11" t="s">
-        <v>1412</v>
-      </c>
-      <c r="C78" t="s">
-        <v>3021</v>
-      </c>
-      <c r="D78" t="s">
-        <v>3120</v>
-      </c>
-      <c r="E78" t="s">
-        <v>55</v>
-      </c>
-      <c r="F78" s="1">
-        <v>44485</v>
-      </c>
-      <c r="G78" t="s">
-        <v>55</v>
-      </c>
-      <c r="H78" s="1">
-        <v>44485</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" ht="13.7" x14ac:dyDescent="0.4">
-      <c r="A79" t="s">
-        <v>2819</v>
-      </c>
-      <c r="B79" s="11" t="s">
-        <v>1413</v>
-      </c>
-      <c r="C79" t="s">
-        <v>3022</v>
-      </c>
-      <c r="D79" t="s">
-        <v>3121</v>
-      </c>
-      <c r="E79" t="s">
-        <v>55</v>
-      </c>
-      <c r="F79" s="1">
-        <v>44486</v>
-      </c>
-      <c r="G79" t="s">
-        <v>55</v>
-      </c>
-      <c r="H79" s="1">
-        <v>44486</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" ht="13.7" x14ac:dyDescent="0.4">
-      <c r="A80" t="s">
-        <v>2820</v>
-      </c>
-      <c r="B80" s="11" t="s">
-        <v>1414</v>
-      </c>
-      <c r="C80" t="s">
-        <v>3023</v>
-      </c>
-      <c r="D80" t="s">
-        <v>3122</v>
-      </c>
-      <c r="E80" t="s">
-        <v>55</v>
-      </c>
-      <c r="F80" s="1">
-        <v>44487</v>
-      </c>
-      <c r="G80" t="s">
-        <v>55</v>
-      </c>
-      <c r="H80" s="1">
-        <v>44487</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" ht="13.7" x14ac:dyDescent="0.4">
-      <c r="A81" t="s">
-        <v>2821</v>
-      </c>
-      <c r="B81" s="11" t="s">
-        <v>1415</v>
-      </c>
-      <c r="C81" t="s">
-        <v>3024</v>
-      </c>
-      <c r="D81" t="s">
-        <v>3123</v>
-      </c>
-      <c r="E81" t="s">
-        <v>55</v>
-      </c>
-      <c r="F81" s="1">
-        <v>44488</v>
-      </c>
-      <c r="G81" t="s">
-        <v>55</v>
-      </c>
-      <c r="H81" s="1">
-        <v>44488</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8" ht="13.7" x14ac:dyDescent="0.4">
-      <c r="A82" t="s">
-        <v>2822</v>
-      </c>
-      <c r="B82" s="11" t="s">
-        <v>1416</v>
-      </c>
-      <c r="C82" t="s">
-        <v>3025</v>
-      </c>
-      <c r="D82" t="s">
-        <v>3124</v>
-      </c>
-      <c r="E82" t="s">
-        <v>55</v>
-      </c>
-      <c r="F82" s="1">
-        <v>44489</v>
-      </c>
-      <c r="G82" t="s">
-        <v>55</v>
-      </c>
-      <c r="H82" s="1">
-        <v>44489</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8" ht="13.7" x14ac:dyDescent="0.4">
-      <c r="A83" t="s">
-        <v>2823</v>
-      </c>
-      <c r="B83" s="11" t="s">
-        <v>1417</v>
-      </c>
-      <c r="C83" t="s">
-        <v>3026</v>
-      </c>
-      <c r="D83" t="s">
-        <v>3125</v>
-      </c>
-      <c r="E83" t="s">
-        <v>55</v>
-      </c>
-      <c r="F83" s="1">
-        <v>44490</v>
-      </c>
-      <c r="G83" t="s">
-        <v>55</v>
-      </c>
-      <c r="H83" s="1">
-        <v>44490</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" ht="13.7" x14ac:dyDescent="0.4">
-      <c r="A84" t="s">
-        <v>2824</v>
-      </c>
-      <c r="B84" s="11" t="s">
-        <v>1418</v>
-      </c>
-      <c r="C84" t="s">
-        <v>3027</v>
-      </c>
-      <c r="D84" t="s">
-        <v>3126</v>
-      </c>
-      <c r="E84" t="s">
-        <v>55</v>
-      </c>
-      <c r="F84" s="1">
-        <v>44491</v>
-      </c>
-      <c r="G84" t="s">
-        <v>55</v>
-      </c>
-      <c r="H84" s="1">
-        <v>44491</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8" ht="13.7" x14ac:dyDescent="0.4">
-      <c r="A85" t="s">
-        <v>2825</v>
-      </c>
-      <c r="B85" s="11" t="s">
-        <v>1419</v>
-      </c>
-      <c r="C85" t="s">
-        <v>3028</v>
-      </c>
-      <c r="D85" t="s">
-        <v>3127</v>
-      </c>
-      <c r="E85" t="s">
-        <v>55</v>
-      </c>
-      <c r="F85" s="1">
-        <v>44492</v>
-      </c>
-      <c r="G85" t="s">
-        <v>55</v>
-      </c>
-      <c r="H85" s="1">
-        <v>44492</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8" ht="13.7" x14ac:dyDescent="0.4">
-      <c r="A86" t="s">
-        <v>2826</v>
-      </c>
-      <c r="B86" s="11" t="s">
-        <v>1420</v>
-      </c>
-      <c r="C86" t="s">
-        <v>3029</v>
-      </c>
-      <c r="D86" t="s">
-        <v>3128</v>
-      </c>
-      <c r="E86" t="s">
-        <v>55</v>
-      </c>
-      <c r="F86" s="1">
-        <v>44493</v>
-      </c>
-      <c r="G86" t="s">
-        <v>55</v>
-      </c>
-      <c r="H86" s="1">
-        <v>44493</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8" ht="13.7" x14ac:dyDescent="0.4">
-      <c r="A87" t="s">
-        <v>2827</v>
-      </c>
-      <c r="B87" s="11" t="s">
-        <v>1421</v>
-      </c>
-      <c r="C87" t="s">
-        <v>3030</v>
-      </c>
-      <c r="D87" t="s">
-        <v>3129</v>
-      </c>
-      <c r="E87" t="s">
-        <v>55</v>
-      </c>
-      <c r="F87" s="1">
-        <v>44494</v>
-      </c>
-      <c r="G87" t="s">
-        <v>55</v>
-      </c>
-      <c r="H87" s="1">
-        <v>44494</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8" ht="13.7" x14ac:dyDescent="0.4">
-      <c r="A88" t="s">
-        <v>2828</v>
-      </c>
-      <c r="B88" s="11" t="s">
-        <v>1422</v>
-      </c>
-      <c r="C88" t="s">
-        <v>3031</v>
-      </c>
-      <c r="D88" t="s">
-        <v>3130</v>
-      </c>
-      <c r="E88" t="s">
-        <v>55</v>
-      </c>
-      <c r="F88" s="1">
-        <v>44495</v>
-      </c>
-      <c r="G88" t="s">
-        <v>55</v>
-      </c>
-      <c r="H88" s="1">
-        <v>44495</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8" ht="13.7" x14ac:dyDescent="0.4">
-      <c r="A89" t="s">
-        <v>2829</v>
-      </c>
-      <c r="B89" s="11" t="s">
-        <v>1423</v>
-      </c>
-      <c r="C89" t="s">
-        <v>3032</v>
-      </c>
-      <c r="D89" t="s">
-        <v>3131</v>
-      </c>
-      <c r="E89" t="s">
-        <v>55</v>
-      </c>
-      <c r="F89" s="1">
-        <v>44496</v>
-      </c>
-      <c r="G89" t="s">
-        <v>55</v>
-      </c>
-      <c r="H89" s="1">
-        <v>44496</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8" ht="13.7" x14ac:dyDescent="0.4">
-      <c r="A90" t="s">
-        <v>2830</v>
-      </c>
-      <c r="B90" s="11" t="s">
-        <v>1424</v>
-      </c>
-      <c r="C90" t="s">
-        <v>3033</v>
-      </c>
-      <c r="D90" t="s">
-        <v>3132</v>
-      </c>
-      <c r="E90" t="s">
-        <v>55</v>
-      </c>
-      <c r="F90" s="1">
-        <v>44497</v>
-      </c>
-      <c r="G90" t="s">
-        <v>55</v>
-      </c>
-      <c r="H90" s="1">
-        <v>44497</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8" ht="13.7" x14ac:dyDescent="0.4">
-      <c r="A91" t="s">
-        <v>2831</v>
-      </c>
-      <c r="B91" s="11" t="s">
-        <v>1425</v>
-      </c>
-      <c r="C91" t="s">
-        <v>3034</v>
-      </c>
-      <c r="D91" t="s">
-        <v>3133</v>
-      </c>
-      <c r="E91" t="s">
-        <v>55</v>
-      </c>
-      <c r="F91" s="1">
-        <v>44498</v>
-      </c>
-      <c r="G91" t="s">
-        <v>55</v>
-      </c>
-      <c r="H91" s="1">
-        <v>44498</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8" ht="13.7" x14ac:dyDescent="0.4">
-      <c r="A92" t="s">
-        <v>2832</v>
-      </c>
-      <c r="B92" s="11" t="s">
-        <v>1426</v>
-      </c>
-      <c r="C92" t="s">
-        <v>3035</v>
-      </c>
-      <c r="D92" t="s">
-        <v>3134</v>
-      </c>
-      <c r="E92" t="s">
-        <v>55</v>
-      </c>
-      <c r="F92" s="1">
-        <v>44499</v>
-      </c>
-      <c r="G92" t="s">
-        <v>55</v>
-      </c>
-      <c r="H92" s="1">
-        <v>44499</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8" ht="13.7" x14ac:dyDescent="0.4">
-      <c r="A93" t="s">
-        <v>2833</v>
-      </c>
-      <c r="B93" s="11" t="s">
-        <v>1427</v>
-      </c>
-      <c r="C93" t="s">
-        <v>3036</v>
-      </c>
-      <c r="D93" t="s">
-        <v>3135</v>
-      </c>
-      <c r="E93" t="s">
-        <v>55</v>
-      </c>
-      <c r="F93" s="1">
-        <v>44500</v>
-      </c>
-      <c r="G93" t="s">
-        <v>55</v>
-      </c>
-      <c r="H93" s="1">
-        <v>44500</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8" ht="13.7" x14ac:dyDescent="0.4">
-      <c r="A94" t="s">
-        <v>2834</v>
-      </c>
-      <c r="B94" s="11" t="s">
-        <v>1428</v>
-      </c>
-      <c r="C94" t="s">
-        <v>3037</v>
-      </c>
-      <c r="D94" t="s">
-        <v>3136</v>
-      </c>
-      <c r="E94" t="s">
-        <v>55</v>
-      </c>
-      <c r="F94" s="1">
-        <v>44501</v>
-      </c>
-      <c r="G94" t="s">
-        <v>55</v>
-      </c>
-      <c r="H94" s="1">
-        <v>44501</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8" ht="13.7" x14ac:dyDescent="0.4">
-      <c r="A95" s="7" t="s">
-        <v>2835</v>
-      </c>
-      <c r="B95" s="11" t="s">
-        <v>1429</v>
-      </c>
-      <c r="C95" t="s">
-        <v>3038</v>
-      </c>
-      <c r="D95" t="s">
-        <v>3137</v>
-      </c>
-      <c r="E95" t="s">
-        <v>55</v>
-      </c>
-      <c r="F95" s="1">
-        <v>44502</v>
-      </c>
-      <c r="G95" t="s">
-        <v>55</v>
-      </c>
-      <c r="H95" s="1">
-        <v>44502</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8" ht="13.7" x14ac:dyDescent="0.4">
-      <c r="A96" t="s">
-        <v>2836</v>
-      </c>
-      <c r="B96" s="11" t="s">
-        <v>1430</v>
-      </c>
-      <c r="C96" t="s">
-        <v>3039</v>
-      </c>
-      <c r="D96" t="s">
-        <v>3138</v>
-      </c>
-      <c r="E96" t="s">
-        <v>55</v>
-      </c>
-      <c r="F96" s="1">
-        <v>44503</v>
-      </c>
-      <c r="G96" t="s">
-        <v>55</v>
-      </c>
-      <c r="H96" s="1">
-        <v>44503</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8" ht="13.7" x14ac:dyDescent="0.4">
-      <c r="A97" t="s">
-        <v>2837</v>
-      </c>
-      <c r="B97" s="11" t="s">
-        <v>1431</v>
-      </c>
-      <c r="C97" t="s">
-        <v>3040</v>
-      </c>
-      <c r="D97" t="s">
-        <v>3139</v>
-      </c>
-      <c r="E97" t="s">
-        <v>55</v>
-      </c>
-      <c r="F97" s="1">
-        <v>44504</v>
-      </c>
-      <c r="G97" t="s">
-        <v>55</v>
-      </c>
-      <c r="H97" s="1">
-        <v>44504</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8" ht="13.7" x14ac:dyDescent="0.4">
-      <c r="A98" t="s">
-        <v>2838</v>
-      </c>
-      <c r="B98" s="11" t="s">
-        <v>1432</v>
-      </c>
-      <c r="C98" t="s">
-        <v>3041</v>
-      </c>
-      <c r="D98" t="s">
-        <v>3140</v>
-      </c>
-      <c r="E98" t="s">
-        <v>55</v>
-      </c>
-      <c r="F98" s="1">
-        <v>44505</v>
-      </c>
-      <c r="G98" t="s">
-        <v>55</v>
-      </c>
-      <c r="H98" s="1">
-        <v>44505</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8" ht="13.7" x14ac:dyDescent="0.4">
-      <c r="A99" t="s">
-        <v>2839</v>
-      </c>
-      <c r="B99" s="11" t="s">
-        <v>1433</v>
-      </c>
-      <c r="C99" t="s">
-        <v>3042</v>
-      </c>
-      <c r="D99" t="s">
-        <v>3141</v>
-      </c>
-      <c r="E99" t="s">
-        <v>55</v>
-      </c>
-      <c r="F99" s="1">
-        <v>44506</v>
-      </c>
-      <c r="G99" t="s">
-        <v>55</v>
-      </c>
-      <c r="H99" s="1">
-        <v>44506</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8" ht="13.7" x14ac:dyDescent="0.4">
-      <c r="A100" t="s">
-        <v>2840</v>
-      </c>
-      <c r="B100" s="11" t="s">
-        <v>1434</v>
-      </c>
-      <c r="C100" t="s">
-        <v>3043</v>
-      </c>
-      <c r="D100" t="s">
-        <v>3142</v>
-      </c>
-      <c r="E100" t="s">
-        <v>55</v>
-      </c>
-      <c r="F100" s="1">
-        <v>44507</v>
-      </c>
-      <c r="G100" t="s">
-        <v>55</v>
-      </c>
-      <c r="H100" s="1">
-        <v>44507</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8" ht="13.7" x14ac:dyDescent="0.4">
-      <c r="A101" t="s">
-        <v>2945</v>
-      </c>
-      <c r="B101" s="11" t="s">
-        <v>2717</v>
-      </c>
-      <c r="C101" t="s">
-        <v>3044</v>
-      </c>
-      <c r="D101" t="s">
-        <v>3143</v>
-      </c>
-      <c r="E101" t="s">
-        <v>55</v>
-      </c>
-      <c r="F101" s="1">
-        <v>44508</v>
-      </c>
-      <c r="G101" t="s">
-        <v>55</v>
-      </c>
-      <c r="H101" s="1">
-        <v>44508</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>